--- a/Alimentos.xlsx
+++ b/Alimentos.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/NATASHA/GranjaVolantin - copia/Granja/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D0DAAD-3E77-4944-B336-1DA1446F1EB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="22280" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Alimento Cerdo" sheetId="1" r:id="rId1"/>
-    <sheet name="Alimento Huevo" sheetId="2" r:id="rId2"/>
+    <sheet name="Alimento Gral Cerdo" sheetId="1" r:id="rId1"/>
+    <sheet name="Alimento Gral Huevo" sheetId="2" r:id="rId2"/>
+    <sheet name="Alimento Granja Cerdo" sheetId="3" r:id="rId3"/>
+    <sheet name="Alimento Granja Huevo" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="83">
   <si>
     <t>MinCantidad</t>
   </si>
@@ -226,12 +222,57 @@
   <si>
     <t>Pelecha 3 Provimi</t>
   </si>
+  <si>
+    <t>Almacén</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>AGV1</t>
+  </si>
+  <si>
+    <t>AGV4</t>
+  </si>
+  <si>
+    <t>AGV5</t>
+  </si>
+  <si>
+    <t>AGV6</t>
+  </si>
+  <si>
+    <t>GV1</t>
+  </si>
+  <si>
+    <t>GV2</t>
+  </si>
+  <si>
+    <t>GV3</t>
+  </si>
+  <si>
+    <t>GV4</t>
+  </si>
+  <si>
+    <t>GV5</t>
+  </si>
+  <si>
+    <t>GV6</t>
+  </si>
+  <si>
+    <t>KGS</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,7 +297,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -265,7 +306,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -277,267 +320,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C91FFCC-E9FF-E446-88C9-FC79B7AF2251}" name="Tabla1" displayName="Tabla1" ref="A1:M32" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="A1:M32" xr:uid="{227644FA-DDCC-0F44-974A-55A605D0AA71}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6541F91D-5C95-924B-B7F1-7598194C7FC8}" name="Descripción" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{82FEC14A-C5C5-4D40-9852-A506B053F240}" name="MinCantidad"/>
-    <tableColumn id="3" xr3:uid="{8A705360-A1A7-AC4E-A670-4A98B24A0EE7}" name="MinCost"/>
-    <tableColumn id="4" xr3:uid="{D6D8C8CF-5CE8-A34F-A6E7-3B9296E51049}" name="MinPeriodo"/>
-    <tableColumn id="5" xr3:uid="{69A05E4A-959C-6B4C-88E2-854A9CF3FEE1}" name="MuCantidad"/>
-    <tableColumn id="6" xr3:uid="{BDDB8C05-017C-634D-8DA5-8E88A45FCEA5}" name="MuCost"/>
-    <tableColumn id="7" xr3:uid="{8D0634CA-0AB1-C644-9257-840576BBAF60}" name="MuPeriodo"/>
-    <tableColumn id="8" xr3:uid="{C0013F89-91E7-E444-ADE1-6C8E2CF78036}" name="StdCantidad"/>
-    <tableColumn id="9" xr3:uid="{5B705AB9-26F2-C244-9C8D-2BBC21F98896}" name="StdCost"/>
-    <tableColumn id="10" xr3:uid="{38CBD97E-EE61-AA42-B946-ADEE10ABA5F1}" name="StdPeriodo"/>
-    <tableColumn id="11" xr3:uid="{30CF8AD7-1B75-DF46-8E7C-7A7E252EAA74}" name="MaxCantidad"/>
-    <tableColumn id="12" xr3:uid="{E5FDE2BB-1A0B-5847-B080-544CBE5E0500}" name="MaxCost"/>
-    <tableColumn id="13" xr3:uid="{F0F7E2C0-882E-114A-A718-CB93442370D5}" name="MaxPeriodo"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CDC48D39-FBA0-1F4D-AD1D-29CD018973E2}" name="Tabla2" displayName="Tabla2" ref="A1:M25" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:M25" xr:uid="{A06A23C4-5DB0-FC40-8821-646701FE0D11}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{46D9C40F-AB47-0F4B-9065-8D39564913F7}" name="Descripción" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{C5693EE6-300D-7241-BD3B-ED3AA69ED306}" name="MinCantidad"/>
-    <tableColumn id="3" xr3:uid="{6A7D07E2-B972-2848-AAAF-88D6ECD86C1B}" name="MinCost"/>
-    <tableColumn id="4" xr3:uid="{99AA5BEC-36A2-8A49-8702-CCC6FA26DACE}" name="MinPeriodo"/>
-    <tableColumn id="5" xr3:uid="{FAB15790-24EA-834C-9B20-3BFC34C2C89C}" name="MuCantidad"/>
-    <tableColumn id="6" xr3:uid="{588AED47-1055-4246-B57D-1A9FB1B4C489}" name="MuCost"/>
-    <tableColumn id="7" xr3:uid="{2E9213E5-4C5F-BE44-8993-7DA47898917B}" name="MuPeriodo"/>
-    <tableColumn id="8" xr3:uid="{1C8FFF0F-4F1D-0944-9344-0A9ABFFCDF67}" name="StdCantidad"/>
-    <tableColumn id="9" xr3:uid="{F94BE0B6-2567-0C48-B68A-CE093C044EC8}" name="StdCost"/>
-    <tableColumn id="10" xr3:uid="{7638B511-5362-E24E-BFE4-D370CAE8ACFF}" name="StdPeriodo"/>
-    <tableColumn id="11" xr3:uid="{96C8FAAD-32E3-8A42-B862-48DE2E78DCBF}" name="MaxCantidad"/>
-    <tableColumn id="12" xr3:uid="{0E41D82B-D3B8-1347-BD15-8CAB3E9C1DC4}" name="MaxCost"/>
-    <tableColumn id="13" xr3:uid="{62BBD44E-50DB-4440-AF8C-9010E371317C}" name="MaxPeriodo"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -579,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,27 +413,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,24 +447,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -856,71 +622,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -937,16 +687,16 @@
         <v>14.03857142857143</v>
       </c>
       <c r="F2">
-        <v>6728.7331318681354</v>
+        <v>6728.733131868135</v>
       </c>
       <c r="G2">
-        <v>5.9945054945054954</v>
+        <v>5.994505494505495</v>
       </c>
       <c r="H2">
-        <v>6.2597943714005364</v>
+        <v>6.259794371400536</v>
       </c>
       <c r="I2">
-        <v>6208.9580391659338</v>
+        <v>6208.958039165934</v>
       </c>
       <c r="J2">
         <v>2.308995746276556</v>
@@ -955,13 +705,13 @@
         <v>32</v>
       </c>
       <c r="L2">
-        <v>46527.519999999997</v>
+        <v>46527.52</v>
       </c>
       <c r="M2">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -975,22 +725,22 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.591612903225801</v>
+        <v>19.5916129032258</v>
       </c>
       <c r="F3">
-        <v>8287.0112365591358</v>
+        <v>8287.011236559136</v>
       </c>
       <c r="G3">
         <v>5.865591397849462</v>
       </c>
       <c r="H3">
-        <v>9.2053393777827139</v>
+        <v>9.205339377782714</v>
       </c>
       <c r="I3">
-        <v>6442.0388170134611</v>
+        <v>6442.038817013461</v>
       </c>
       <c r="J3">
-        <v>2.3955361471165109</v>
+        <v>2.395536147116511</v>
       </c>
       <c r="K3">
         <v>40</v>
@@ -1002,7 +752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>27.754371584699459</v>
+        <v>27.75437158469946</v>
       </c>
       <c r="F4">
-        <v>10422.196120218579</v>
+        <v>10422.19612021858</v>
       </c>
       <c r="G4">
-        <v>5.9617486338797816</v>
+        <v>5.961748633879782</v>
       </c>
       <c r="H4">
-        <v>15.049106706126279</v>
+        <v>15.04910670612628</v>
       </c>
       <c r="I4">
-        <v>8869.2344897974635</v>
+        <v>8869.234489797464</v>
       </c>
       <c r="J4">
         <v>2.340203147513638</v>
@@ -1037,13 +787,13 @@
         <v>136</v>
       </c>
       <c r="L4">
-        <v>63199.429999999993</v>
+        <v>63199.42999999999</v>
       </c>
       <c r="M4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1057,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.2080291970802919</v>
+        <v>2.208029197080292</v>
       </c>
       <c r="F5">
         <v>1254.697153284671</v>
       </c>
       <c r="G5">
-        <v>7.8759124087591239</v>
+        <v>7.875912408759124</v>
       </c>
       <c r="H5">
         <v>1.403307982325658</v>
@@ -1072,7 +822,7 @@
         <v>1707.995087881656</v>
       </c>
       <c r="J5">
-        <v>3.2300183378519072</v>
+        <v>3.230018337851907</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -1084,7 +834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,40 +842,40 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>84.35</v>
+        <v>84.34999999999999</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.2064516129032259</v>
+        <v>3.206451612903226</v>
       </c>
       <c r="F6">
         <v>1848.905741935484</v>
       </c>
       <c r="G6">
-        <v>7.0387096774193552</v>
+        <v>7.038709677419355</v>
       </c>
       <c r="H6">
         <v>2.310891136914385</v>
       </c>
       <c r="I6">
-        <v>1704.8476791814339</v>
+        <v>1704.847679181434</v>
       </c>
       <c r="J6">
-        <v>2.8120424498646548</v>
+        <v>2.812042449864655</v>
       </c>
       <c r="K6">
         <v>13</v>
       </c>
       <c r="L6">
-        <v>10348.969999999999</v>
+        <v>10348.97</v>
       </c>
       <c r="M6">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1142,16 +892,16 @@
         <v>12.43947976878612</v>
       </c>
       <c r="F7">
-        <v>8707.8695375722546</v>
+        <v>8707.869537572255</v>
       </c>
       <c r="G7">
-        <v>6.3063583815028901</v>
+        <v>6.30635838150289</v>
       </c>
       <c r="H7">
-        <v>5.4753184324830206</v>
+        <v>5.475318432483021</v>
       </c>
       <c r="I7">
-        <v>4250.7433136206291</v>
+        <v>4250.743313620629</v>
       </c>
       <c r="J7">
         <v>2.092015560021987</v>
@@ -1166,7 +916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1183,16 +933,16 @@
         <v>11.78042682926829</v>
       </c>
       <c r="F8">
-        <v>8137.7393902439007</v>
+        <v>8137.739390243901</v>
       </c>
       <c r="G8">
-        <v>6.6524390243902438</v>
+        <v>6.652439024390244</v>
       </c>
       <c r="H8">
         <v>3.00514208612561</v>
       </c>
       <c r="I8">
-        <v>7239.1776910763529</v>
+        <v>7239.177691076353</v>
       </c>
       <c r="J8">
         <v>1.735923269469638</v>
@@ -1201,13 +951,13 @@
         <v>19</v>
       </c>
       <c r="L8">
-        <v>34698.519999999997</v>
+        <v>34698.52</v>
       </c>
       <c r="M8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1221,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.0891411042944794</v>
+        <v>7.089141104294479</v>
       </c>
       <c r="F9">
-        <v>5275.4552147239256</v>
+        <v>5275.455214723926</v>
       </c>
       <c r="G9">
-        <v>6.6932515337423313</v>
+        <v>6.693251533742331</v>
       </c>
       <c r="H9">
-        <v>2.5638701452963621</v>
+        <v>2.563870145296362</v>
       </c>
       <c r="I9">
-        <v>4771.6853328100688</v>
+        <v>4771.685332810069</v>
       </c>
       <c r="J9">
         <v>1.686296579012603</v>
@@ -1248,7 +998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1262,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.2142857142857135</v>
+        <v>8.214285714285714</v>
       </c>
       <c r="F10">
-        <v>3449.6849999999999</v>
+        <v>3449.685</v>
       </c>
       <c r="G10">
         <v>6.5</v>
@@ -1277,7 +1027,7 @@
         <v>2420.975058428859</v>
       </c>
       <c r="J10">
-        <v>1.9115036368906431</v>
+        <v>1.911503636890643</v>
       </c>
       <c r="K10">
         <v>14</v>
@@ -1289,7 +1039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1303,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4.4835526315789478</v>
+        <v>4.483552631578948</v>
       </c>
       <c r="F11">
-        <v>3450.2405921052632</v>
+        <v>3450.240592105263</v>
       </c>
       <c r="G11">
-        <v>7.1776315789473681</v>
+        <v>7.177631578947368</v>
       </c>
       <c r="H11">
-        <v>2.6578745698395272</v>
+        <v>2.657874569839527</v>
       </c>
       <c r="I11">
         <v>3842.755160292756</v>
       </c>
       <c r="J11">
-        <v>2.3106490406798779</v>
+        <v>2.310649040679878</v>
       </c>
       <c r="K11">
         <v>13</v>
@@ -1330,7 +1080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1344,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.626648351648349</v>
+        <v>18.62664835164835</v>
       </c>
       <c r="F12">
-        <v>7932.8621428571478</v>
+        <v>7932.862142857148</v>
       </c>
       <c r="G12">
-        <v>5.9945054945054954</v>
+        <v>5.994505494505495</v>
       </c>
       <c r="H12">
-        <v>8.4134308751620335</v>
+        <v>8.413430875162033</v>
       </c>
       <c r="I12">
-        <v>5989.3791516816846</v>
+        <v>5989.379151681685</v>
       </c>
       <c r="J12">
         <v>2.318547012969729</v>
@@ -1371,7 +1121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1397,10 +1147,10 @@
         <v>12.74100990241093</v>
       </c>
       <c r="I13">
-        <v>190.21176646043739</v>
+        <v>190.2117664604374</v>
       </c>
       <c r="J13">
-        <v>22.715633383201091</v>
+        <v>22.71563338320109</v>
       </c>
       <c r="K13">
         <v>29</v>
@@ -1412,7 +1162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1429,19 +1179,19 @@
         <v>5.5</v>
       </c>
       <c r="F14">
-        <v>34103.741666666669</v>
+        <v>34103.74166666667</v>
       </c>
       <c r="G14">
         <v>5.833333333333333</v>
       </c>
       <c r="H14">
-        <v>3.0166206257996708</v>
+        <v>3.016620625799671</v>
       </c>
       <c r="I14">
-        <v>18674.966396293639</v>
+        <v>18674.96639629364</v>
       </c>
       <c r="J14">
-        <v>2.9268868558020249</v>
+        <v>2.926886855802025</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -1453,7 +1203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1467,34 +1217,34 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>8.6666666666666661</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="F15">
-        <v>47573.035000000003</v>
+        <v>47573.035</v>
       </c>
       <c r="G15">
-        <v>8.1666666666666661</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="H15">
-        <v>4.8027769744874336</v>
+        <v>4.802776974487434</v>
       </c>
       <c r="I15">
         <v>27395.38726987574</v>
       </c>
       <c r="J15">
-        <v>3.4302575219167828</v>
+        <v>3.430257521916783</v>
       </c>
       <c r="K15">
         <v>16</v>
       </c>
       <c r="L15">
-        <v>90489.4</v>
+        <v>90489.39999999999</v>
       </c>
       <c r="M15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1508,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.7142857142857135</v>
+        <v>8.714285714285714</v>
       </c>
       <c r="F16">
         <v>53188.66857142857</v>
@@ -1517,10 +1267,10 @@
         <v>6</v>
       </c>
       <c r="H16">
-        <v>5.1869800370506436</v>
+        <v>5.186980037050644</v>
       </c>
       <c r="I16">
-        <v>32203.844743087961</v>
+        <v>32203.84474308796</v>
       </c>
       <c r="J16">
         <v>2.70801280154532</v>
@@ -1535,7 +1285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1555,28 +1305,28 @@
         <v>125135.3526923077</v>
       </c>
       <c r="G17">
-        <v>5.9945054945054954</v>
+        <v>5.994505494505495</v>
       </c>
       <c r="H17">
-        <v>6.5393383115411421</v>
+        <v>6.539338311541142</v>
       </c>
       <c r="I17">
-        <v>528423.58914882632</v>
+        <v>528423.5891488263</v>
       </c>
       <c r="J17">
-        <v>2.3113872631128132</v>
+        <v>2.311387263112813</v>
       </c>
       <c r="K17">
         <v>38</v>
       </c>
       <c r="L17">
-        <v>7191127.5099999998</v>
+        <v>7191127.51</v>
       </c>
       <c r="M17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1590,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.494780219780221</v>
+        <v>18.49478021978022</v>
       </c>
       <c r="F18">
-        <v>139693.61489010989</v>
+        <v>139693.6148901099</v>
       </c>
       <c r="G18">
-        <v>5.9945054945054954</v>
+        <v>5.994505494505495</v>
       </c>
       <c r="H18">
-        <v>8.7561020683916624</v>
+        <v>8.756102068391662</v>
       </c>
       <c r="I18">
-        <v>417838.41456772439</v>
+        <v>417838.4145677244</v>
       </c>
       <c r="J18">
         <v>2.318547012969729</v>
@@ -1611,13 +1361,13 @@
         <v>45</v>
       </c>
       <c r="L18">
-        <v>5696249.5800000001</v>
+        <v>5696249.58</v>
       </c>
       <c r="M18">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1625,28 +1375,28 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>4745.0600000000004</v>
+        <v>4745.06</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.2372262773722631</v>
+        <v>2.237226277372263</v>
       </c>
       <c r="F19">
         <v>20355.23802919708</v>
       </c>
       <c r="G19">
-        <v>7.8759124087591239</v>
+        <v>7.875912408759124</v>
       </c>
       <c r="H19">
-        <v>1.4451748977846159</v>
+        <v>1.445174897784616</v>
       </c>
       <c r="I19">
-        <v>85768.117953037785</v>
+        <v>85768.11795303778</v>
       </c>
       <c r="J19">
-        <v>3.2300183378519072</v>
+        <v>3.230018337851907</v>
       </c>
       <c r="K19">
         <v>9</v>
@@ -1658,7 +1408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1675,31 +1425,31 @@
         <v>19.40978723404255</v>
       </c>
       <c r="F20">
-        <v>159511.45069148939</v>
+        <v>159511.4506914894</v>
       </c>
       <c r="G20">
-        <v>5.8031914893617023</v>
+        <v>5.803191489361702</v>
       </c>
       <c r="H20">
         <v>10.27668343457079</v>
       </c>
       <c r="I20">
-        <v>691064.91500942816</v>
+        <v>691064.9150094282</v>
       </c>
       <c r="J20">
-        <v>2.4316518945765599</v>
+        <v>2.43165189457656</v>
       </c>
       <c r="K20">
         <v>79</v>
       </c>
       <c r="L20">
-        <v>9551826.4099999983</v>
+        <v>9551826.409999998</v>
       </c>
       <c r="M20">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1713,22 +1463,22 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3.2322580645161292</v>
+        <v>3.232258064516129</v>
       </c>
       <c r="F21">
-        <v>38335.153290322582</v>
+        <v>38335.15329032258</v>
       </c>
       <c r="G21">
-        <v>7.0387096774193552</v>
+        <v>7.038709677419355</v>
       </c>
       <c r="H21">
-        <v>2.3196488618023992</v>
+        <v>2.319648861802399</v>
       </c>
       <c r="I21">
         <v>110507.2272489888</v>
       </c>
       <c r="J21">
-        <v>2.8120424498646548</v>
+        <v>2.812042449864655</v>
       </c>
       <c r="K21">
         <v>13</v>
@@ -1740,7 +1490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1757,31 +1507,31 @@
         <v>12.37603448275862</v>
       </c>
       <c r="F22">
-        <v>146133.79155172411</v>
+        <v>146133.7915517241</v>
       </c>
       <c r="G22">
-        <v>6.2701149425287346</v>
+        <v>6.270114942528735</v>
       </c>
       <c r="H22">
-        <v>6.1371497233754821</v>
+        <v>6.137149723375482</v>
       </c>
       <c r="I22">
-        <v>826401.80881273677</v>
+        <v>826401.8088127368</v>
       </c>
       <c r="J22">
-        <v>2.1237775779456469</v>
+        <v>2.123777577945647</v>
       </c>
       <c r="K22">
         <v>46</v>
       </c>
       <c r="L22">
-        <v>10970517.560000001</v>
+        <v>10970517.56</v>
       </c>
       <c r="M22">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1801,28 +1551,28 @@
         <v>223185.2461956522</v>
       </c>
       <c r="G23">
-        <v>5.9293478260869561</v>
+        <v>5.929347826086956</v>
       </c>
       <c r="H23">
         <v>13.75749245907779</v>
       </c>
       <c r="I23">
-        <v>775249.23400501744</v>
+        <v>775249.2340050174</v>
       </c>
       <c r="J23">
-        <v>2.3609777563093641</v>
+        <v>2.360977756309364</v>
       </c>
       <c r="K23">
         <v>83</v>
       </c>
       <c r="L23">
-        <v>10619830.699999999</v>
+        <v>10619830.7</v>
       </c>
       <c r="M23">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1836,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.609695121951219</v>
+        <v>11.60969512195122</v>
       </c>
       <c r="F24">
-        <v>80769.769756097565</v>
+        <v>80769.76975609756</v>
       </c>
       <c r="G24">
-        <v>6.6524390243902438</v>
+        <v>6.652439024390244</v>
       </c>
       <c r="H24">
-        <v>3.0867385897097028</v>
+        <v>3.086738589709703</v>
       </c>
       <c r="I24">
-        <v>214240.64480477059</v>
+        <v>214240.6448047706</v>
       </c>
       <c r="J24">
         <v>1.735923269469638</v>
@@ -1863,7 +1613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1877,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>2.3809523809523809</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="F25">
         <v>16025.29285714286</v>
@@ -1889,10 +1639,10 @@
         <v>0.9734572654303052</v>
       </c>
       <c r="I25">
-        <v>6691.2873287351395</v>
+        <v>6691.287328735139</v>
       </c>
       <c r="J25">
-        <v>4.0620192023179804</v>
+        <v>4.06201920231798</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -1904,7 +1654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1921,13 +1671,13 @@
         <v>3.25</v>
       </c>
       <c r="F26">
-        <v>22141.498749999999</v>
+        <v>22141.49875</v>
       </c>
       <c r="G26">
         <v>6.125</v>
       </c>
       <c r="H26">
-        <v>1.6690459207925601</v>
+        <v>1.66904592079256</v>
       </c>
       <c r="I26">
         <v>11365.77124122303</v>
@@ -1945,7 +1695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -1959,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>7.1688957055214724</v>
+        <v>7.168895705521472</v>
       </c>
       <c r="F27">
-        <v>72992.999509202447</v>
+        <v>72992.99950920245</v>
       </c>
       <c r="G27">
-        <v>6.6932515337423313</v>
+        <v>6.693251533742331</v>
       </c>
       <c r="H27">
-        <v>2.7313240144244291</v>
+        <v>2.731324014424429</v>
       </c>
       <c r="I27">
-        <v>317913.10115156969</v>
+        <v>317913.1011515697</v>
       </c>
       <c r="J27">
         <v>1.686296579012603</v>
@@ -1986,7 +1736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -2000,34 +1750,34 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>9.0714285714285712</v>
+        <v>9.071428571428571</v>
       </c>
       <c r="F28">
-        <v>127661.36357142861</v>
+        <v>127661.3635714286</v>
       </c>
       <c r="G28">
         <v>6.5</v>
       </c>
       <c r="H28">
-        <v>4.2147047659042816</v>
+        <v>4.214704765904282</v>
       </c>
       <c r="I28">
-        <v>285700.31414182379</v>
+        <v>285700.3141418238</v>
       </c>
       <c r="J28">
-        <v>1.9115036368906431</v>
+        <v>1.911503636890643</v>
       </c>
       <c r="K28">
         <v>17</v>
       </c>
       <c r="L28">
-        <v>1117384.8899999999</v>
+        <v>1117384.89</v>
       </c>
       <c r="M28">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -2041,22 +1791,22 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>4.5230263157894726</v>
+        <v>4.523026315789473</v>
       </c>
       <c r="F29">
-        <v>36481.311315789477</v>
+        <v>36481.31131578948</v>
       </c>
       <c r="G29">
-        <v>7.1776315789473681</v>
+        <v>7.177631578947368</v>
       </c>
       <c r="H29">
-        <v>2.7484726738750731</v>
+        <v>2.748472673875073</v>
       </c>
       <c r="I29">
-        <v>126252.01061976849</v>
+        <v>126252.0106197685</v>
       </c>
       <c r="J29">
-        <v>2.3106490406798779</v>
+        <v>2.310649040679878</v>
       </c>
       <c r="K29">
         <v>15</v>
@@ -2068,7 +1818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -2082,19 +1832,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>6.8571428571428568</v>
+        <v>6.857142857142857</v>
       </c>
       <c r="F30">
-        <v>41263.232857142859</v>
+        <v>41263.23285714286</v>
       </c>
       <c r="G30">
-        <v>6.1428571428571432</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="H30">
         <v>3.891382420536067</v>
       </c>
       <c r="I30">
-        <v>23694.964423378169</v>
+        <v>23694.96442337817</v>
       </c>
       <c r="J30">
         <v>2.794552524023088</v>
@@ -2109,7 +1859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2123,22 +1873,22 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>20.721698113207552</v>
+        <v>20.72169811320755</v>
       </c>
       <c r="F31">
-        <v>306.20245283018892</v>
+        <v>306.2024528301889</v>
       </c>
       <c r="G31">
-        <v>7.9716981132075473</v>
+        <v>7.971698113207547</v>
       </c>
       <c r="H31">
         <v>12.9025800647407</v>
       </c>
       <c r="I31">
-        <v>193.64208614673529</v>
+        <v>193.6420861467353</v>
       </c>
       <c r="J31">
-        <v>4.3170923794561453</v>
+        <v>4.317092379456145</v>
       </c>
       <c r="K31">
         <v>53</v>
@@ -2150,7 +1900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -2164,22 +1914,22 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>8.8448275862068968</v>
+        <v>8.844827586206897</v>
       </c>
       <c r="F32">
         <v>129.7215517241379</v>
       </c>
       <c r="G32">
-        <v>13.517241379310351</v>
+        <v>13.51724137931035</v>
       </c>
       <c r="H32">
-        <v>9.9150810599758756</v>
+        <v>9.915081059975876</v>
       </c>
       <c r="I32">
-        <v>145.66384598579859</v>
+        <v>145.6638459857986</v>
       </c>
       <c r="J32">
-        <v>13.057553274624659</v>
+        <v>13.05755327462466</v>
       </c>
       <c r="K32">
         <v>43</v>
@@ -2193,79 +1943,59 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -2279,13 +2009,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>53.384615384615387</v>
+        <v>53.38461538461539</v>
       </c>
       <c r="F2">
-        <v>19893.632435897431</v>
+        <v>19893.63243589743</v>
       </c>
       <c r="G2">
-        <v>6.9935897435897436</v>
+        <v>6.993589743589744</v>
       </c>
       <c r="H2">
         <v>14.14759140036783</v>
@@ -2294,7 +2024,7 @@
         <v>16181.23786542448</v>
       </c>
       <c r="J2">
-        <v>3.9472273566134182</v>
+        <v>3.947227356613418</v>
       </c>
       <c r="K2">
         <v>85.5</v>
@@ -2306,7 +2036,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -2320,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.133333333333329</v>
+        <v>10.13333333333333</v>
       </c>
       <c r="F3">
-        <v>54478.621333333344</v>
+        <v>54478.62133333334</v>
       </c>
       <c r="G3">
-        <v>38.266666666666673</v>
+        <v>38.26666666666667</v>
       </c>
       <c r="H3">
-        <v>1.7674302033770739</v>
+        <v>1.767430203377074</v>
       </c>
       <c r="I3">
         <v>10765.92325095243</v>
@@ -2347,7 +2077,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -2361,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.6818181818181817</v>
+        <v>9.681818181818182</v>
       </c>
       <c r="F4">
-        <v>53107.433636363661</v>
+        <v>53107.43363636366</v>
       </c>
       <c r="G4">
         <v>24.13636363636364</v>
@@ -2376,19 +2106,19 @@
         <v>14371.80091802381</v>
       </c>
       <c r="J4">
-        <v>65.314109505013548</v>
+        <v>65.31410950501355</v>
       </c>
       <c r="K4">
         <v>12</v>
       </c>
       <c r="L4">
-        <v>73704.320000000007</v>
+        <v>73704.32000000001</v>
       </c>
       <c r="M4">
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2405,19 +2135,19 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>190205.58791666661</v>
+        <v>190205.5879166666</v>
       </c>
       <c r="G5">
         <v>23</v>
       </c>
       <c r="H5">
-        <v>3.9562828403747221</v>
+        <v>3.956282840374722</v>
       </c>
       <c r="I5">
-        <v>705873.17332930013</v>
+        <v>705873.1733293001</v>
       </c>
       <c r="J5">
-        <v>49.117428058993838</v>
+        <v>49.11742805899384</v>
       </c>
       <c r="K5">
         <v>24</v>
@@ -2429,7 +2159,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -2443,19 +2173,19 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.9672897196261676</v>
+        <v>9.967289719626168</v>
       </c>
       <c r="F6">
-        <v>57410.865700934562</v>
+        <v>57410.86570093456</v>
       </c>
       <c r="G6">
-        <v>10.196261682242991</v>
+        <v>10.19626168224299</v>
       </c>
       <c r="H6">
         <v>5.006256005125544</v>
       </c>
       <c r="I6">
-        <v>30420.381282463732</v>
+        <v>30420.38128246373</v>
       </c>
       <c r="J6">
         <v>16.87883527476831</v>
@@ -2470,7 +2200,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F7">
-        <v>50333.446000000004</v>
+        <v>50333.446</v>
       </c>
       <c r="G7">
         <v>12.6</v>
       </c>
       <c r="H7">
-        <v>4.5497252664309302</v>
+        <v>4.54972526643093</v>
       </c>
       <c r="I7">
-        <v>27085.909953178241</v>
+        <v>27085.90995317824</v>
       </c>
       <c r="J7">
         <v>16.71227094083865</v>
@@ -2511,7 +2241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -2525,19 +2255,19 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.7222222222222223</v>
+        <v>7.722222222222222</v>
       </c>
       <c r="F8">
-        <v>41117.946666666678</v>
+        <v>41117.94666666668</v>
       </c>
       <c r="G8">
         <v>46</v>
       </c>
       <c r="H8">
-        <v>3.5453412310304411</v>
+        <v>3.545341231030441</v>
       </c>
       <c r="I8">
-        <v>19377.126728082651</v>
+        <v>19377.12672808265</v>
       </c>
       <c r="J8">
         <v>111.5291441731712</v>
@@ -2552,7 +2282,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -2566,34 +2296,34 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.412087912087911</v>
+        <v>11.41208791208791</v>
       </c>
       <c r="F9">
-        <v>63154.539560439611</v>
+        <v>63154.53956043961</v>
       </c>
       <c r="G9">
-        <v>11.219780219780221</v>
+        <v>11.21978021978022</v>
       </c>
       <c r="H9">
-        <v>5.4729605062796418</v>
+        <v>5.472960506279642</v>
       </c>
       <c r="I9">
-        <v>30136.152980551418</v>
+        <v>30136.15298055142</v>
       </c>
       <c r="J9">
-        <v>20.722399152072779</v>
+        <v>20.72239915207278</v>
       </c>
       <c r="K9">
         <v>24</v>
       </c>
       <c r="L9">
-        <v>141459.70000000001</v>
+        <v>141459.7</v>
       </c>
       <c r="M9">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -2619,10 +2349,10 @@
         <v>3.019861993661983</v>
       </c>
       <c r="I10">
-        <v>332192.13744613371</v>
+        <v>332192.1374461337</v>
       </c>
       <c r="J10">
-        <v>21.998356877971322</v>
+        <v>21.99835687797132</v>
       </c>
       <c r="K10">
         <v>18</v>
@@ -2634,7 +2364,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -2648,19 +2378,19 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.5636363636363644</v>
+        <v>9.563636363636364</v>
       </c>
       <c r="F11">
-        <v>88054.673272727276</v>
+        <v>88054.67327272728</v>
       </c>
       <c r="G11">
-        <v>9.7363636363636363</v>
+        <v>9.736363636363636</v>
       </c>
       <c r="H11">
-        <v>3.9329874555191568</v>
+        <v>3.932987455519157</v>
       </c>
       <c r="I11">
-        <v>388511.50105081178</v>
+        <v>388511.5010508118</v>
       </c>
       <c r="J11">
         <v>14.84703490166109</v>
@@ -2675,7 +2405,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -2689,34 +2419,34 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.7857142857142865</v>
+        <v>8.785714285714286</v>
       </c>
       <c r="F12">
         <v>45867.87000000001</v>
       </c>
       <c r="G12">
-        <v>23.642857142857139</v>
+        <v>23.64285714285714</v>
       </c>
       <c r="H12">
-        <v>2.5641592953609691</v>
+        <v>2.564159295360969</v>
       </c>
       <c r="I12">
         <v>13599.35239787255</v>
       </c>
       <c r="J12">
-        <v>59.577300239543852</v>
+        <v>59.57730023954385</v>
       </c>
       <c r="K12">
         <v>12</v>
       </c>
       <c r="L12">
-        <v>65925.600000000006</v>
+        <v>65925.60000000001</v>
       </c>
       <c r="M12">
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -2730,22 +2460,22 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.7222222222222214</v>
+        <v>9.722222222222221</v>
       </c>
       <c r="F13">
-        <v>55833.696666666663</v>
+        <v>55833.69666666666</v>
       </c>
       <c r="G13">
-        <v>47.777777777777779</v>
+        <v>47.77777777777778</v>
       </c>
       <c r="H13">
         <v>2.371536001526426</v>
       </c>
       <c r="I13">
-        <v>11927.014129775271</v>
+        <v>11927.01412977527</v>
       </c>
       <c r="J13">
-        <v>113.65456206032459</v>
+        <v>113.6545620603246</v>
       </c>
       <c r="K13">
         <v>16</v>
@@ -2757,7 +2487,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,19 +2504,19 @@
         <v>5.75</v>
       </c>
       <c r="F14">
-        <v>70344.212307692302</v>
+        <v>70344.2123076923</v>
       </c>
       <c r="G14">
-        <v>7.8076923076923066</v>
+        <v>7.807692307692307</v>
       </c>
       <c r="H14">
-        <v>3.5839921874914848</v>
+        <v>3.583992187491485</v>
       </c>
       <c r="I14">
         <v>188395.0801122385</v>
       </c>
       <c r="J14">
-        <v>4.7667114934237906</v>
+        <v>4.766711493423791</v>
       </c>
       <c r="K14">
         <v>12.5</v>
@@ -2798,7 +2528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -2812,34 +2542,34 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.352941176470591</v>
+        <v>10.35294117647059</v>
       </c>
       <c r="F15">
         <v>165069.744117647</v>
       </c>
       <c r="G15">
-        <v>7.5098039215686274</v>
+        <v>7.509803921568627</v>
       </c>
       <c r="H15">
         <v>2.978748256645833</v>
       </c>
       <c r="I15">
-        <v>761203.40172245156</v>
+        <v>761203.4017224516</v>
       </c>
       <c r="J15">
-        <v>5.1317542771243749</v>
+        <v>5.131754277124375</v>
       </c>
       <c r="K15">
         <v>24</v>
       </c>
       <c r="L15">
-        <v>5493688.5300000003</v>
+        <v>5493688.53</v>
       </c>
       <c r="M15">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -2853,22 +2583,22 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.547945205479451</v>
+        <v>11.54794520547945</v>
       </c>
       <c r="F16">
-        <v>64703.969178082189</v>
+        <v>64703.96917808219</v>
       </c>
       <c r="G16">
-        <v>13.712328767123291</v>
+        <v>13.71232876712329</v>
       </c>
       <c r="H16">
-        <v>5.9658544509809497</v>
+        <v>5.96585445098095</v>
       </c>
       <c r="I16">
-        <v>32760.708173039719</v>
+        <v>32760.70817303972</v>
       </c>
       <c r="J16">
-        <v>37.774726799532253</v>
+        <v>37.77472679953225</v>
       </c>
       <c r="K16">
         <v>27.5</v>
@@ -2880,7 +2610,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -2912,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -2926,22 +2656,22 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.544642857142859</v>
+        <v>13.54464285714286</v>
       </c>
       <c r="F18">
-        <v>69153.904821428558</v>
+        <v>69153.90482142856</v>
       </c>
       <c r="G18">
-        <v>13.232142857142859</v>
+        <v>13.23214285714286</v>
       </c>
       <c r="H18">
-        <v>5.7613735623265514</v>
+        <v>5.761373562326551</v>
       </c>
       <c r="I18">
-        <v>29696.246875133449</v>
+        <v>29696.24687513345</v>
       </c>
       <c r="J18">
-        <v>33.822526689889862</v>
+        <v>33.82252668988986</v>
       </c>
       <c r="K18">
         <v>27</v>
@@ -2953,7 +2683,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -2967,22 +2697,22 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.0142857142857142</v>
+        <v>8.014285714285714</v>
       </c>
       <c r="F19">
-        <v>84970.714999999997</v>
+        <v>84970.715</v>
       </c>
       <c r="G19">
         <v>14.38571428571429</v>
       </c>
       <c r="H19">
-        <v>2.8155513123625688</v>
+        <v>2.815551312362569</v>
       </c>
       <c r="I19">
-        <v>344407.79505593452</v>
+        <v>344407.7950559345</v>
       </c>
       <c r="J19">
-        <v>32.164113974168018</v>
+        <v>32.16411397416802</v>
       </c>
       <c r="K19">
         <v>18</v>
@@ -2994,7 +2724,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -3011,19 +2741,19 @@
         <v>8.518518518518519</v>
       </c>
       <c r="F20">
-        <v>76627.770185185189</v>
+        <v>76627.77018518519</v>
       </c>
       <c r="G20">
-        <v>18.796296296296301</v>
+        <v>18.7962962962963</v>
       </c>
       <c r="H20">
-        <v>2.2736450722891952</v>
+        <v>2.273645072289195</v>
       </c>
       <c r="I20">
-        <v>244746.33614647761</v>
+        <v>244746.3361464776</v>
       </c>
       <c r="J20">
-        <v>35.050034118159388</v>
+        <v>35.05003411815939</v>
       </c>
       <c r="K20">
         <v>13.5</v>
@@ -3035,7 +2765,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -3052,7 +2782,7 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>45201.235000000001</v>
+        <v>45201.235</v>
       </c>
       <c r="G21">
         <v>6.5</v>
@@ -3061,10 +2791,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1790.4155831677731</v>
+        <v>1790.415583167773</v>
       </c>
       <c r="J21">
-        <v>9.1923881554251174</v>
+        <v>9.192388155425117</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -3076,7 +2806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -3090,22 +2820,22 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>8.5151515151515156</v>
+        <v>8.515151515151516</v>
       </c>
       <c r="F22">
         <v>43653.96272727273</v>
       </c>
       <c r="G22">
-        <v>23.575757575757571</v>
+        <v>23.57575757575757</v>
       </c>
       <c r="H22">
-        <v>2.7285666122665502</v>
+        <v>2.72856661226655</v>
       </c>
       <c r="I22">
         <v>13893.98720473205</v>
       </c>
       <c r="J22">
-        <v>81.790521418679049</v>
+        <v>81.79052141867905</v>
       </c>
       <c r="K22">
         <v>15</v>
@@ -3117,7 +2847,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -3125,7 +2855,7 @@
         <v>9</v>
       </c>
       <c r="C23">
-        <v>46628.160000000003</v>
+        <v>46628.16</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3134,7 +2864,7 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>52376.733333333337</v>
+        <v>52376.73333333334</v>
       </c>
       <c r="G23">
         <v>143</v>
@@ -3143,10 +2873,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="I23">
-        <v>6670.3089480872868</v>
+        <v>6670.308948087287</v>
       </c>
       <c r="J23">
-        <v>240.78828875175799</v>
+        <v>240.788288751758</v>
       </c>
       <c r="K23">
         <v>12</v>
@@ -3158,7 +2888,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -3172,19 +2902,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1290.1923076923081</v>
+        <v>1290.192307692308</v>
       </c>
       <c r="F24">
-        <v>35398.726474358969</v>
+        <v>35398.72647435897</v>
       </c>
       <c r="G24">
-        <v>6.9871794871794872</v>
+        <v>6.987179487179487</v>
       </c>
       <c r="H24">
         <v>225.898438938033</v>
       </c>
       <c r="I24">
-        <v>13035.376723544419</v>
+        <v>13035.37672354442</v>
       </c>
       <c r="J24">
         <v>1.630306440567894</v>
@@ -3199,7 +2929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -3228,7 +2958,7 @@
         <v>14595.64893754128</v>
       </c>
       <c r="J25">
-        <v>70.762278086562475</v>
+        <v>70.76227808656247</v>
       </c>
       <c r="K25">
         <v>12</v>
@@ -3242,8 +2972,6291 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>3.900621118012422</v>
+      </c>
+      <c r="E2">
+        <v>1662.016832298137</v>
+      </c>
+      <c r="F2">
+        <v>6.77639751552795</v>
+      </c>
+      <c r="G2">
+        <v>1.732790267690017</v>
+      </c>
+      <c r="H2">
+        <v>2204.340601053811</v>
+      </c>
+      <c r="I2">
+        <v>1.536941586721432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>5.894409937888199</v>
+      </c>
+      <c r="E3">
+        <v>1886.169813664595</v>
+      </c>
+      <c r="F3">
+        <v>6.77639751552795</v>
+      </c>
+      <c r="G3">
+        <v>2.178309219532576</v>
+      </c>
+      <c r="H3">
+        <v>1381.29909232327</v>
+      </c>
+      <c r="I3">
+        <v>1.731961154585688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>7.276729559748428</v>
+      </c>
+      <c r="E4">
+        <v>2223.612955974842</v>
+      </c>
+      <c r="F4">
+        <v>6.861635220125786</v>
+      </c>
+      <c r="G4">
+        <v>2.762570692572855</v>
+      </c>
+      <c r="H4">
+        <v>1909.343235040025</v>
+      </c>
+      <c r="I4">
+        <v>1.600941129150244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>1.030612244897959</v>
+      </c>
+      <c r="E5">
+        <v>587.9241836734691</v>
+      </c>
+      <c r="F5">
+        <v>11.07142857142857</v>
+      </c>
+      <c r="G5">
+        <v>0.2249435958008489</v>
+      </c>
+      <c r="H5">
+        <v>484.5599792370318</v>
+      </c>
+      <c r="I5">
+        <v>5.962511751917356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>3.391025641025641</v>
+      </c>
+      <c r="E6">
+        <v>2677.304743589743</v>
+      </c>
+      <c r="F6">
+        <v>6.993589743589744</v>
+      </c>
+      <c r="G6">
+        <v>1.038446221128955</v>
+      </c>
+      <c r="H6">
+        <v>1784.435369884844</v>
+      </c>
+      <c r="I6">
+        <v>1.346425589965328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>2.9</v>
+      </c>
+      <c r="E7">
+        <v>1068.346</v>
+      </c>
+      <c r="F7">
+        <v>7.7</v>
+      </c>
+      <c r="G7">
+        <v>1.595131481867387</v>
+      </c>
+      <c r="H7">
+        <v>1177.696116739043</v>
+      </c>
+      <c r="I7">
+        <v>3.973523485382827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>5.19496855345912</v>
+      </c>
+      <c r="E8">
+        <v>1792.462704402514</v>
+      </c>
+      <c r="F8">
+        <v>6.861635220125786</v>
+      </c>
+      <c r="G8">
+        <v>1.759164025503338</v>
+      </c>
+      <c r="H8">
+        <v>1234.574479210788</v>
+      </c>
+      <c r="I8">
+        <v>1.581050713849607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9">
+        <v>3.919254658385093</v>
+      </c>
+      <c r="E9">
+        <v>30760.02695652173</v>
+      </c>
+      <c r="F9">
+        <v>6.77639751552795</v>
+      </c>
+      <c r="G9">
+        <v>1.739163431363996</v>
+      </c>
+      <c r="H9">
+        <v>88321.06797611702</v>
+      </c>
+      <c r="I9">
+        <v>1.536941586721432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10">
+        <v>5.213836477987422</v>
+      </c>
+      <c r="E10">
+        <v>36244.30742138364</v>
+      </c>
+      <c r="F10">
+        <v>6.861635220125786</v>
+      </c>
+      <c r="G10">
+        <v>1.751544634316439</v>
+      </c>
+      <c r="H10">
+        <v>72879.08008542222</v>
+      </c>
+      <c r="I10">
+        <v>1.581050713849607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11">
+        <v>5.931677018633541</v>
+      </c>
+      <c r="E11">
+        <v>44635.44043478261</v>
+      </c>
+      <c r="F11">
+        <v>6.77639751552795</v>
+      </c>
+      <c r="G11">
+        <v>2.230818861994638</v>
+      </c>
+      <c r="H11">
+        <v>141960.3782089817</v>
+      </c>
+      <c r="I11">
+        <v>1.731961154585688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12">
+        <v>1.030612244897959</v>
+      </c>
+      <c r="E12">
+        <v>9332.043877551021</v>
+      </c>
+      <c r="F12">
+        <v>11.07142857142857</v>
+      </c>
+      <c r="G12">
+        <v>0.2249435958008489</v>
+      </c>
+      <c r="H12">
+        <v>2116.867011068422</v>
+      </c>
+      <c r="I12">
+        <v>5.962511751917356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>3.422929936305732</v>
+      </c>
+      <c r="E13">
+        <v>35027.71585987261</v>
+      </c>
+      <c r="F13">
+        <v>6.949044585987261</v>
+      </c>
+      <c r="G13">
+        <v>1.100342173555919</v>
+      </c>
+      <c r="H13">
+        <v>150613.5113735178</v>
+      </c>
+      <c r="I13">
+        <v>1.426831608952871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <v>7.320754716981132</v>
+      </c>
+      <c r="E14">
+        <v>59246.42584905662</v>
+      </c>
+      <c r="F14">
+        <v>6.861635220125786</v>
+      </c>
+      <c r="G14">
+        <v>2.813441414238832</v>
+      </c>
+      <c r="H14">
+        <v>184818.9794682338</v>
+      </c>
+      <c r="I14">
+        <v>1.600941129150244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15">
+        <v>2.9</v>
+      </c>
+      <c r="E15">
+        <v>17774.929</v>
+      </c>
+      <c r="F15">
+        <v>7.7</v>
+      </c>
+      <c r="G15">
+        <v>1.595131481867387</v>
+      </c>
+      <c r="H15">
+        <v>9867.811307239141</v>
+      </c>
+      <c r="I15">
+        <v>3.973523485382827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <v>2.35593220338983</v>
+      </c>
+      <c r="E16">
+        <v>1164.451186440678</v>
+      </c>
+      <c r="F16">
+        <v>14.35593220338983</v>
+      </c>
+      <c r="G16">
+        <v>1.459365850285508</v>
+      </c>
+      <c r="H16">
+        <v>2130.781407426575</v>
+      </c>
+      <c r="I16">
+        <v>30.09568803566637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>134.51</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>1.867768595041322</v>
+      </c>
+      <c r="E18">
+        <v>1127.121487603306</v>
+      </c>
+      <c r="F18">
+        <v>9.016528925619834</v>
+      </c>
+      <c r="G18">
+        <v>0.8459920090277706</v>
+      </c>
+      <c r="H18">
+        <v>1270.902026813148</v>
+      </c>
+      <c r="I18">
+        <v>3.840537009053075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>6.880691823899371</v>
+      </c>
+      <c r="E19">
+        <v>4854.573584905661</v>
+      </c>
+      <c r="F19">
+        <v>6.861635220125786</v>
+      </c>
+      <c r="G19">
+        <v>2.126799497044543</v>
+      </c>
+      <c r="H19">
+        <v>2381.270983168996</v>
+      </c>
+      <c r="I19">
+        <v>1.442913663660099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20">
+        <v>2.35593220338983</v>
+      </c>
+      <c r="E20">
+        <v>14598.88423728814</v>
+      </c>
+      <c r="F20">
+        <v>14.35593220338983</v>
+      </c>
+      <c r="G20">
+        <v>1.459365850285508</v>
+      </c>
+      <c r="H20">
+        <v>9935.987751882167</v>
+      </c>
+      <c r="I20">
+        <v>30.09568803566637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21">
+        <v>1.884297520661157</v>
+      </c>
+      <c r="E21">
+        <v>24207.75148760331</v>
+      </c>
+      <c r="F21">
+        <v>9.016528925619834</v>
+      </c>
+      <c r="G21">
+        <v>0.8678525474279229</v>
+      </c>
+      <c r="H21">
+        <v>82110.24694052439</v>
+      </c>
+      <c r="I21">
+        <v>3.840537009053075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22">
+        <v>6.816645569620253</v>
+      </c>
+      <c r="E22">
+        <v>66981.65455696196</v>
+      </c>
+      <c r="F22">
+        <v>6.905063291139241</v>
+      </c>
+      <c r="G22">
+        <v>2.356221094910507</v>
+      </c>
+      <c r="H22">
+        <v>262515.3974358341</v>
+      </c>
+      <c r="I22">
+        <v>1.554889451427271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>5648.01</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24">
+        <v>3.428571428571428</v>
+      </c>
+      <c r="E24">
+        <v>23360.33428571429</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>1.618347187425374</v>
+      </c>
+      <c r="H24">
+        <v>11020.5847522562</v>
+      </c>
+      <c r="I24">
+        <v>113.7702362952045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>7.604651162790698</v>
+      </c>
+      <c r="E25">
+        <v>2998.919069767442</v>
+      </c>
+      <c r="F25">
+        <v>11.72093023255814</v>
+      </c>
+      <c r="G25">
+        <v>2.726759238884844</v>
+      </c>
+      <c r="H25">
+        <v>6053.704401333755</v>
+      </c>
+      <c r="I25">
+        <v>22.64038278049639</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>1828.346285714286</v>
+      </c>
+      <c r="F26">
+        <v>8.142857142857142</v>
+      </c>
+      <c r="G26">
+        <v>1.955384722187607</v>
+      </c>
+      <c r="H26">
+        <v>1972.610965000874</v>
+      </c>
+      <c r="I26">
+        <v>3.851224840633074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <v>11.47619047619048</v>
+      </c>
+      <c r="E27">
+        <v>3775.817380952381</v>
+      </c>
+      <c r="F27">
+        <v>6.952380952380953</v>
+      </c>
+      <c r="G27">
+        <v>4.255487677983343</v>
+      </c>
+      <c r="H27">
+        <v>2531.630863222322</v>
+      </c>
+      <c r="I27">
+        <v>1.807199436297823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28">
+        <v>2.151515151515151</v>
+      </c>
+      <c r="E28">
+        <v>1413.377272727272</v>
+      </c>
+      <c r="F28">
+        <v>10.15151515151515</v>
+      </c>
+      <c r="G28">
+        <v>1.679308118713108</v>
+      </c>
+      <c r="H28">
+        <v>1070.316840307324</v>
+      </c>
+      <c r="I28">
+        <v>5.804745968393084</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <v>6.607843137254902</v>
+      </c>
+      <c r="E29">
+        <v>4010.400980392158</v>
+      </c>
+      <c r="F29">
+        <v>6.980392156862745</v>
+      </c>
+      <c r="G29">
+        <v>3.826635239332586</v>
+      </c>
+      <c r="H29">
+        <v>2454.536470629235</v>
+      </c>
+      <c r="I29">
+        <v>1.771893857751433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <v>7.978723404255319</v>
+      </c>
+      <c r="E30">
+        <v>2629.551063829789</v>
+      </c>
+      <c r="F30">
+        <v>6.978723404255319</v>
+      </c>
+      <c r="G30">
+        <v>1.972521688888613</v>
+      </c>
+      <c r="H30">
+        <v>3125.990365573371</v>
+      </c>
+      <c r="I30">
+        <v>1.635068961477821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <v>7.954545454545454</v>
+      </c>
+      <c r="E31">
+        <v>142284.1502272727</v>
+      </c>
+      <c r="F31">
+        <v>7.931818181818182</v>
+      </c>
+      <c r="G31">
+        <v>3.48388012405939</v>
+      </c>
+      <c r="H31">
+        <v>620615.0247445726</v>
+      </c>
+      <c r="I31">
+        <v>3.83009944173976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32">
+        <v>8.127659574468085</v>
+      </c>
+      <c r="E32">
+        <v>94053.00489361699</v>
+      </c>
+      <c r="F32">
+        <v>6.978723404255319</v>
+      </c>
+      <c r="G32">
+        <v>2.153026396540417</v>
+      </c>
+      <c r="H32">
+        <v>312885.6465061972</v>
+      </c>
+      <c r="I32">
+        <v>1.635068961477821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33">
+        <v>8.25</v>
+      </c>
+      <c r="E33">
+        <v>113509.4608333333</v>
+      </c>
+      <c r="F33">
+        <v>7.916666666666667</v>
+      </c>
+      <c r="G33">
+        <v>2.346730248056401</v>
+      </c>
+      <c r="H33">
+        <v>398428.3788675396</v>
+      </c>
+      <c r="I33">
+        <v>3.988375967376052</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34">
+        <v>2.151515151515151</v>
+      </c>
+      <c r="E34">
+        <v>19513.35757575757</v>
+      </c>
+      <c r="F34">
+        <v>10.15151515151515</v>
+      </c>
+      <c r="G34">
+        <v>1.679308118713108</v>
+      </c>
+      <c r="H34">
+        <v>16274.64370761597</v>
+      </c>
+      <c r="I34">
+        <v>5.804745968393084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35">
+        <v>6.84313725490196</v>
+      </c>
+      <c r="E35">
+        <v>156741.7709803922</v>
+      </c>
+      <c r="F35">
+        <v>6.980392156862745</v>
+      </c>
+      <c r="G35">
+        <v>4.478269974084224</v>
+      </c>
+      <c r="H35">
+        <v>795630.9996078714</v>
+      </c>
+      <c r="I35">
+        <v>1.771893857751433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36">
+        <v>11.6046511627907</v>
+      </c>
+      <c r="E36">
+        <v>133461.3572093023</v>
+      </c>
+      <c r="F36">
+        <v>6.790697674418604</v>
+      </c>
+      <c r="G36">
+        <v>4.243423678855604</v>
+      </c>
+      <c r="H36">
+        <v>402034.6492086234</v>
+      </c>
+      <c r="I36">
+        <v>2.006633517384204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37">
+        <v>5.5</v>
+      </c>
+      <c r="E37">
+        <v>3003.69</v>
+      </c>
+      <c r="F37">
+        <v>21</v>
+      </c>
+      <c r="G37">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="H37">
+        <v>2490.557362559634</v>
+      </c>
+      <c r="I37">
+        <v>29.69848480983499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38">
+        <v>2.5</v>
+      </c>
+      <c r="E38">
+        <v>12148.185</v>
+      </c>
+      <c r="F38">
+        <v>21</v>
+      </c>
+      <c r="G38">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="H38">
+        <v>5081.233974267472</v>
+      </c>
+      <c r="I38">
+        <v>29.69848480983499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <v>1.5</v>
+      </c>
+      <c r="E39">
+        <v>424.585</v>
+      </c>
+      <c r="F39">
+        <v>21</v>
+      </c>
+      <c r="G39">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="H39">
+        <v>102.4668436617426</v>
+      </c>
+      <c r="I39">
+        <v>29.69848480983499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>9323.700000000001</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41">
+        <v>5.5</v>
+      </c>
+      <c r="E41">
+        <v>30902.635</v>
+      </c>
+      <c r="F41">
+        <v>21</v>
+      </c>
+      <c r="G41">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="H41">
+        <v>4699.919571444815</v>
+      </c>
+      <c r="I41">
+        <v>29.69848480983499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42">
+        <v>2.5</v>
+      </c>
+      <c r="E42">
+        <v>16982.98</v>
+      </c>
+      <c r="F42">
+        <v>21</v>
+      </c>
+      <c r="G42">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="H42">
+        <v>4257.843482914796</v>
+      </c>
+      <c r="I42">
+        <v>29.69848480983499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43">
+        <v>1.5</v>
+      </c>
+      <c r="E43">
+        <v>8702.93</v>
+      </c>
+      <c r="F43">
+        <v>21</v>
+      </c>
+      <c r="G43">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="H43">
+        <v>3907.302367209377</v>
+      </c>
+      <c r="I43">
+        <v>29.69848480983499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>425.78</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>5449.13</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46">
+        <v>1.254464285714286</v>
+      </c>
+      <c r="E46">
+        <v>914.1686607142858</v>
+      </c>
+      <c r="F46">
+        <v>9.5625</v>
+      </c>
+      <c r="G46">
+        <v>0.5284497799073907</v>
+      </c>
+      <c r="H46">
+        <v>1289.08922002221</v>
+      </c>
+      <c r="I46">
+        <v>6.272751382759397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>830.5599999999999</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>903.7375862068965</v>
+      </c>
+      <c r="F48">
+        <v>34.27586206896552</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>759.9272394242527</v>
+      </c>
+      <c r="I48">
+        <v>28.45158362617868</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49">
+        <v>3.243589743589744</v>
+      </c>
+      <c r="E49">
+        <v>2118.904294871795</v>
+      </c>
+      <c r="F49">
+        <v>6.993589743589744</v>
+      </c>
+      <c r="G49">
+        <v>0.6050517959357655</v>
+      </c>
+      <c r="H49">
+        <v>2131.2969781442</v>
+      </c>
+      <c r="I49">
+        <v>1.384228187751245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50">
+        <v>1.782608695652174</v>
+      </c>
+      <c r="E50">
+        <v>1503.257246376811</v>
+      </c>
+      <c r="F50">
+        <v>7.905797101449275</v>
+      </c>
+      <c r="G50">
+        <v>0.6913345861425033</v>
+      </c>
+      <c r="H50">
+        <v>1682.72662226387</v>
+      </c>
+      <c r="I50">
+        <v>2.682431844589429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51">
+        <v>1.63302752293578</v>
+      </c>
+      <c r="E51">
+        <v>1131.204311926606</v>
+      </c>
+      <c r="F51">
+        <v>10.00917431192661</v>
+      </c>
+      <c r="G51">
+        <v>0.7777049623698779</v>
+      </c>
+      <c r="H51">
+        <v>1173.120245149792</v>
+      </c>
+      <c r="I51">
+        <v>5.957403443901385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52">
+        <v>1.263392857142857</v>
+      </c>
+      <c r="E52">
+        <v>10378.80821428571</v>
+      </c>
+      <c r="F52">
+        <v>9.5625</v>
+      </c>
+      <c r="G52">
+        <v>0.532543706401455</v>
+      </c>
+      <c r="H52">
+        <v>31321.6679269104</v>
+      </c>
+      <c r="I52">
+        <v>6.272751382759397</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>9011.32</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>6740.442413793102</v>
+      </c>
+      <c r="F54">
+        <v>34.27586206896552</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>416.0923362982166</v>
+      </c>
+      <c r="I54">
+        <v>28.45158362617868</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55">
+        <v>3.171974522292994</v>
+      </c>
+      <c r="E55">
+        <v>22238.45044585987</v>
+      </c>
+      <c r="F55">
+        <v>6.949044585987261</v>
+      </c>
+      <c r="G55">
+        <v>0.7265861865781733</v>
+      </c>
+      <c r="H55">
+        <v>62226.38805099794</v>
+      </c>
+      <c r="I55">
+        <v>1.264891696711463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>6753.156</v>
+      </c>
+      <c r="F56">
+        <v>11.2</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>163.2078000937105</v>
+      </c>
+      <c r="I56">
+        <v>5.466782809451487</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="E57">
+        <v>15683.4754347826</v>
+      </c>
+      <c r="F57">
+        <v>7.905797101449275</v>
+      </c>
+      <c r="G57">
+        <v>0.6925958328079779</v>
+      </c>
+      <c r="H57">
+        <v>42627.63517217754</v>
+      </c>
+      <c r="I57">
+        <v>2.682431844589429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58">
+        <v>1.660550458715596</v>
+      </c>
+      <c r="E58">
+        <v>15638.46513761467</v>
+      </c>
+      <c r="F58">
+        <v>10.00917431192661</v>
+      </c>
+      <c r="G58">
+        <v>0.8736914393689795</v>
+      </c>
+      <c r="H58">
+        <v>63480.12888261031</v>
+      </c>
+      <c r="I58">
+        <v>5.957403443901385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59">
+        <v>20.7</v>
+      </c>
+      <c r="E59">
+        <v>305.8403809523811</v>
+      </c>
+      <c r="F59">
+        <v>8.047619047619047</v>
+      </c>
+      <c r="G59">
+        <v>12.9625199354494</v>
+      </c>
+      <c r="H59">
+        <v>194.5347739673958</v>
+      </c>
+      <c r="I59">
+        <v>4.37515044220669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>242.37</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61">
+        <v>1.755555555555556</v>
+      </c>
+      <c r="E61">
+        <v>750.9255555555551</v>
+      </c>
+      <c r="F61">
+        <v>11.98888888888889</v>
+      </c>
+      <c r="G61">
+        <v>0.8939385283029924</v>
+      </c>
+      <c r="H61">
+        <v>905.055086348943</v>
+      </c>
+      <c r="I61">
+        <v>8.891979019677905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62">
+        <v>1.24</v>
+      </c>
+      <c r="E62">
+        <v>899.9169999999996</v>
+      </c>
+      <c r="F62">
+        <v>20.28</v>
+      </c>
+      <c r="G62">
+        <v>0.4763809143009448</v>
+      </c>
+      <c r="H62">
+        <v>887.2391329108333</v>
+      </c>
+      <c r="I62">
+        <v>23.46168391750468</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63">
+        <v>6.748343949044586</v>
+      </c>
+      <c r="E63">
+        <v>4641.650127388536</v>
+      </c>
+      <c r="F63">
+        <v>6.949044585987261</v>
+      </c>
+      <c r="G63">
+        <v>1.053769696493692</v>
+      </c>
+      <c r="H63">
+        <v>3910.014904876173</v>
+      </c>
+      <c r="I63">
+        <v>1.274987070542533</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64">
+        <v>4.360063694267516</v>
+      </c>
+      <c r="E64">
+        <v>3130.037643312101</v>
+      </c>
+      <c r="F64">
+        <v>6.949044585987261</v>
+      </c>
+      <c r="G64">
+        <v>0.8949878217301279</v>
+      </c>
+      <c r="H64">
+        <v>2827.634244133482</v>
+      </c>
+      <c r="I64">
+        <v>1.274987070542533</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65">
+        <v>2.803571428571428</v>
+      </c>
+      <c r="E65">
+        <v>2124.143357142857</v>
+      </c>
+      <c r="F65">
+        <v>7.792857142857143</v>
+      </c>
+      <c r="G65">
+        <v>1.222829053523766</v>
+      </c>
+      <c r="H65">
+        <v>2154.949579739532</v>
+      </c>
+      <c r="I65">
+        <v>3.221993726959647</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="E66">
+        <v>17728.915</v>
+      </c>
+      <c r="F66">
+        <v>11.98888888888889</v>
+      </c>
+      <c r="G66">
+        <v>0.9244224164282291</v>
+      </c>
+      <c r="H66">
+        <v>70260.65985954557</v>
+      </c>
+      <c r="I66">
+        <v>8.891979019677905</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67">
+        <v>1.24</v>
+      </c>
+      <c r="E67">
+        <v>8367.015800000001</v>
+      </c>
+      <c r="F67">
+        <v>20.28</v>
+      </c>
+      <c r="G67">
+        <v>0.4763809143009448</v>
+      </c>
+      <c r="H67">
+        <v>3402.049157539416</v>
+      </c>
+      <c r="I67">
+        <v>23.46168391750468</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68">
+        <v>6.646433121019109</v>
+      </c>
+      <c r="E68">
+        <v>42747.75987261147</v>
+      </c>
+      <c r="F68">
+        <v>6.949044585987261</v>
+      </c>
+      <c r="G68">
+        <v>0.9595124381142573</v>
+      </c>
+      <c r="H68">
+        <v>76679.66798467134</v>
+      </c>
+      <c r="I68">
+        <v>1.274987070542533</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="E69">
+        <v>8969.576666666666</v>
+      </c>
+      <c r="F69">
+        <v>11.2</v>
+      </c>
+      <c r="G69">
+        <v>0.4879500364742666</v>
+      </c>
+      <c r="H69">
+        <v>3314.603451743439</v>
+      </c>
+      <c r="I69">
+        <v>10.05129700230629</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70">
+        <v>4.385541401273885</v>
+      </c>
+      <c r="E70">
+        <v>42010.97573248405</v>
+      </c>
+      <c r="F70">
+        <v>6.949044585987261</v>
+      </c>
+      <c r="G70">
+        <v>0.9404516065361819</v>
+      </c>
+      <c r="H70">
+        <v>160485.0901188008</v>
+      </c>
+      <c r="I70">
+        <v>1.274987070542533</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71">
+        <v>2.825</v>
+      </c>
+      <c r="E71">
+        <v>21245.25714285715</v>
+      </c>
+      <c r="F71">
+        <v>7.792857142857143</v>
+      </c>
+      <c r="G71">
+        <v>1.252228229824079</v>
+      </c>
+      <c r="H71">
+        <v>55718.25202014807</v>
+      </c>
+      <c r="I71">
+        <v>3.221993726959647</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72">
+        <v>7.789473684210527</v>
+      </c>
+      <c r="E72">
+        <v>113.8605263157895</v>
+      </c>
+      <c r="F72">
+        <v>13.75438596491228</v>
+      </c>
+      <c r="G72">
+        <v>9.347911993949051</v>
+      </c>
+      <c r="H72">
+        <v>136.6058558463134</v>
+      </c>
+      <c r="I72">
+        <v>13.11389761958444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73">
+        <v>7.875900621118013</v>
+      </c>
+      <c r="E73">
+        <v>4293.811180124227</v>
+      </c>
+      <c r="F73">
+        <v>6.77639751552795</v>
+      </c>
+      <c r="G73">
+        <v>3.359204606757694</v>
+      </c>
+      <c r="H73">
+        <v>3966.076563997375</v>
+      </c>
+      <c r="I73">
+        <v>1.742753407970787</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74">
+        <v>13.62523809523809</v>
+      </c>
+      <c r="E74">
+        <v>6879.099702380957</v>
+      </c>
+      <c r="F74">
+        <v>6.494047619047619</v>
+      </c>
+      <c r="G74">
+        <v>5.726776371366517</v>
+      </c>
+      <c r="H74">
+        <v>6003.03533534439</v>
+      </c>
+      <c r="I74">
+        <v>1.9049164999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75">
+        <v>18.50928143712575</v>
+      </c>
+      <c r="E75">
+        <v>7849.428143712576</v>
+      </c>
+      <c r="F75">
+        <v>6.532934131736527</v>
+      </c>
+      <c r="G75">
+        <v>7.661548537115786</v>
+      </c>
+      <c r="H75">
+        <v>6405.006421436038</v>
+      </c>
+      <c r="I75">
+        <v>1.874960019293341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>969.865</v>
+      </c>
+      <c r="F76">
+        <v>3.5</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>151.327922241733</v>
+      </c>
+      <c r="I76">
+        <v>4.949747468305833</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="E77">
+        <v>3134.344166666667</v>
+      </c>
+      <c r="F77">
+        <v>40.25</v>
+      </c>
+      <c r="G77">
+        <v>3.352972448801845</v>
+      </c>
+      <c r="H77">
+        <v>1800.661273751994</v>
+      </c>
+      <c r="I77">
+        <v>110.8464334932875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78">
+        <v>12.2730303030303</v>
+      </c>
+      <c r="E78">
+        <v>6092.169090909096</v>
+      </c>
+      <c r="F78">
+        <v>6.612121212121212</v>
+      </c>
+      <c r="G78">
+        <v>4.845416796520497</v>
+      </c>
+      <c r="H78">
+        <v>5431.413861144509</v>
+      </c>
+      <c r="I78">
+        <v>1.792898861252762</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79">
+        <v>5.5</v>
+      </c>
+      <c r="E79">
+        <v>34103.74166666667</v>
+      </c>
+      <c r="F79">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="G79">
+        <v>3.016620625799671</v>
+      </c>
+      <c r="H79">
+        <v>18674.96639629364</v>
+      </c>
+      <c r="I79">
+        <v>2.926886855802025</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="E80">
+        <v>47573.035</v>
+      </c>
+      <c r="F80">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="G80">
+        <v>4.802776974487434</v>
+      </c>
+      <c r="H80">
+        <v>27395.38726987574</v>
+      </c>
+      <c r="I80">
+        <v>3.430257521916783</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81">
+        <v>8.714285714285714</v>
+      </c>
+      <c r="E81">
+        <v>53188.66857142857</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81">
+        <v>5.186980037050644</v>
+      </c>
+      <c r="H81">
+        <v>32203.84474308796</v>
+      </c>
+      <c r="I81">
+        <v>2.70801280154532</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82">
+        <v>7.886202531645569</v>
+      </c>
+      <c r="E82">
+        <v>59323.31867088612</v>
+      </c>
+      <c r="F82">
+        <v>6.905063291139241</v>
+      </c>
+      <c r="G82">
+        <v>3.365158992012445</v>
+      </c>
+      <c r="H82">
+        <v>148123.7665331477</v>
+      </c>
+      <c r="I82">
+        <v>2.164531619017536</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83">
+        <v>12.0669696969697</v>
+      </c>
+      <c r="E83">
+        <v>85671.4304242424</v>
+      </c>
+      <c r="F83">
+        <v>6.612121212121212</v>
+      </c>
+      <c r="G83">
+        <v>5.043688693735969</v>
+      </c>
+      <c r="H83">
+        <v>196470.8838196436</v>
+      </c>
+      <c r="I83">
+        <v>1.792898861252762</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84">
+        <v>13.59904191616766</v>
+      </c>
+      <c r="E84">
+        <v>107206.0982035928</v>
+      </c>
+      <c r="F84">
+        <v>6.532934131736527</v>
+      </c>
+      <c r="G84">
+        <v>6.533358998205845</v>
+      </c>
+      <c r="H84">
+        <v>404786.0610439967</v>
+      </c>
+      <c r="I84">
+        <v>2.01734774925355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85">
+        <v>18.44006024096386</v>
+      </c>
+      <c r="E85">
+        <v>145545.3607831325</v>
+      </c>
+      <c r="F85">
+        <v>6.572289156626506</v>
+      </c>
+      <c r="G85">
+        <v>8.377913278701321</v>
+      </c>
+      <c r="H85">
+        <v>424987.894180369</v>
+      </c>
+      <c r="I85">
+        <v>1.945675126453512</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>6804.825000000001</v>
+      </c>
+      <c r="F86">
+        <v>3.5</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>6.682159082212424</v>
+      </c>
+      <c r="I86">
+        <v>4.949747468305833</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="E87">
+        <v>134125.8166666667</v>
+      </c>
+      <c r="F87">
+        <v>40.25</v>
+      </c>
+      <c r="G87">
+        <v>4.302923600896432</v>
+      </c>
+      <c r="H87">
+        <v>310299.9889391944</v>
+      </c>
+      <c r="I87">
+        <v>110.8464334932875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88">
+        <v>6.857142857142857</v>
+      </c>
+      <c r="E88">
+        <v>41263.23285714286</v>
+      </c>
+      <c r="F88">
+        <v>6.142857142857143</v>
+      </c>
+      <c r="G88">
+        <v>3.891382420536067</v>
+      </c>
+      <c r="H88">
+        <v>23694.96442337817</v>
+      </c>
+      <c r="I88">
+        <v>2.794552524023088</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89">
+        <v>8.391304347826088</v>
+      </c>
+      <c r="E89">
+        <v>2960.21652173913</v>
+      </c>
+      <c r="F89">
+        <v>26.73913043478261</v>
+      </c>
+      <c r="G89">
+        <v>3.9742252582311</v>
+      </c>
+      <c r="H89">
+        <v>2209.16042521425</v>
+      </c>
+      <c r="I89">
+        <v>64.20012559553301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90">
+        <v>9.615384615384615</v>
+      </c>
+      <c r="E90">
+        <v>1354.161538461538</v>
+      </c>
+      <c r="F90">
+        <v>10.23076923076923</v>
+      </c>
+      <c r="G90">
+        <v>3.069703067574602</v>
+      </c>
+      <c r="H90">
+        <v>1579.101272310963</v>
+      </c>
+      <c r="I90">
+        <v>10.56845815113575</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D91">
+        <v>15.81818181818182</v>
+      </c>
+      <c r="E91">
+        <v>3824.276818181818</v>
+      </c>
+      <c r="F91">
+        <v>6.681818181818182</v>
+      </c>
+      <c r="G91">
+        <v>21.53543340113897</v>
+      </c>
+      <c r="H91">
+        <v>6008.932101902163</v>
+      </c>
+      <c r="I91">
+        <v>2.570646826817155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>568.39</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>150.9089589785842</v>
+      </c>
+      <c r="I92">
+        <v>4.358898943540674</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D93">
+        <v>5.571428571428571</v>
+      </c>
+      <c r="E93">
+        <v>1874.539285714286</v>
+      </c>
+      <c r="F93">
+        <v>53.42857142857143</v>
+      </c>
+      <c r="G93">
+        <v>3.588749208167224</v>
+      </c>
+      <c r="H93">
+        <v>1698.11453513081</v>
+      </c>
+      <c r="I93">
+        <v>109.0043854345138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D94">
+        <v>5.210526315789473</v>
+      </c>
+      <c r="E94">
+        <v>2065.803684210526</v>
+      </c>
+      <c r="F94">
+        <v>27.89473684210526</v>
+      </c>
+      <c r="G94">
+        <v>2.41704473751685</v>
+      </c>
+      <c r="H94">
+        <v>1309.346015337473</v>
+      </c>
+      <c r="I94">
+        <v>82.87533793250499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95">
+        <v>2.055555555555555</v>
+      </c>
+      <c r="E95">
+        <v>1642.038333333333</v>
+      </c>
+      <c r="F95">
+        <v>8.555555555555555</v>
+      </c>
+      <c r="G95">
+        <v>1.211329955642932</v>
+      </c>
+      <c r="H95">
+        <v>1094.468443165583</v>
+      </c>
+      <c r="I95">
+        <v>4.668067016785708</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96">
+        <v>9.647058823529411</v>
+      </c>
+      <c r="E96">
+        <v>1763.678823529412</v>
+      </c>
+      <c r="F96">
+        <v>36.58823529411764</v>
+      </c>
+      <c r="G96">
+        <v>4.415047798022523</v>
+      </c>
+      <c r="H96">
+        <v>814.826992211248</v>
+      </c>
+      <c r="I96">
+        <v>113.3181686797893</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97">
+        <v>8.391304347826088</v>
+      </c>
+      <c r="E97">
+        <v>57710.81391304348</v>
+      </c>
+      <c r="F97">
+        <v>16.08695652173913</v>
+      </c>
+      <c r="G97">
+        <v>3.9742252582311</v>
+      </c>
+      <c r="H97">
+        <v>27662.14095645342</v>
+      </c>
+      <c r="I97">
+        <v>43.24550743191109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98">
+        <v>9.647058823529411</v>
+      </c>
+      <c r="E98">
+        <v>65006.81058823528</v>
+      </c>
+      <c r="F98">
+        <v>8.647058823529411</v>
+      </c>
+      <c r="G98">
+        <v>4.415047798022523</v>
+      </c>
+      <c r="H98">
+        <v>30325.59124868703</v>
+      </c>
+      <c r="I98">
+        <v>9.075662348215889</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>5679.16</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>130.4442858081564</v>
+      </c>
+      <c r="I99">
+        <v>4.358898943540674</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100">
+        <v>9.615384615384615</v>
+      </c>
+      <c r="E100">
+        <v>62049.13076923077</v>
+      </c>
+      <c r="F100">
+        <v>58</v>
+      </c>
+      <c r="G100">
+        <v>3.069703067574602</v>
+      </c>
+      <c r="H100">
+        <v>19149.69014312175</v>
+      </c>
+      <c r="I100">
+        <v>169.4623852068653</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101">
+        <v>5.571428571428571</v>
+      </c>
+      <c r="E101">
+        <v>56999.55785714284</v>
+      </c>
+      <c r="F101">
+        <v>38.35714285714285</v>
+      </c>
+      <c r="G101">
+        <v>3.588749208167224</v>
+      </c>
+      <c r="H101">
+        <v>37097.40744674986</v>
+      </c>
+      <c r="I101">
+        <v>99.73473057825184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102">
+        <v>5.210526315789473</v>
+      </c>
+      <c r="E102">
+        <v>38798.57789473685</v>
+      </c>
+      <c r="F102">
+        <v>27.89473684210526</v>
+      </c>
+      <c r="G102">
+        <v>2.41704473751685</v>
+      </c>
+      <c r="H102">
+        <v>18746.71938021233</v>
+      </c>
+      <c r="I102">
+        <v>82.87533793250499</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103">
+        <v>11.5</v>
+      </c>
+      <c r="E103">
+        <v>79131.24227272725</v>
+      </c>
+      <c r="F103">
+        <v>6.681818181818182</v>
+      </c>
+      <c r="G103">
+        <v>4.6777080264754</v>
+      </c>
+      <c r="H103">
+        <v>31391.02784728114</v>
+      </c>
+      <c r="I103">
+        <v>2.570646826817155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104">
+        <v>2.055555555555555</v>
+      </c>
+      <c r="E104">
+        <v>12410.28611111111</v>
+      </c>
+      <c r="F104">
+        <v>8.555555555555555</v>
+      </c>
+      <c r="G104">
+        <v>1.211329955642932</v>
+      </c>
+      <c r="H104">
+        <v>7394.27578468335</v>
+      </c>
+      <c r="I104">
+        <v>4.668067016785708</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>218.15</v>
+      </c>
+      <c r="F105">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106">
+        <v>1.25</v>
+      </c>
+      <c r="E106">
+        <v>1179.16</v>
+      </c>
+      <c r="F106">
+        <v>12.25</v>
+      </c>
+      <c r="G106">
+        <v>0.4472135954999579</v>
+      </c>
+      <c r="H106">
+        <v>1472.823701533894</v>
+      </c>
+      <c r="I106">
+        <v>10.56724498943157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D107">
+        <v>3.781914893617021</v>
+      </c>
+      <c r="E107">
+        <v>2864.827021276594</v>
+      </c>
+      <c r="F107">
+        <v>7.372340425531915</v>
+      </c>
+      <c r="G107">
+        <v>1.432267378020384</v>
+      </c>
+      <c r="H107">
+        <v>2338.265627347799</v>
+      </c>
+      <c r="I107">
+        <v>2.299995523853482</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D108">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="E108">
+        <v>1775.810649350649</v>
+      </c>
+      <c r="F108">
+        <v>7.623376623376624</v>
+      </c>
+      <c r="G108">
+        <v>1.26401912995898</v>
+      </c>
+      <c r="H108">
+        <v>1580.169772529736</v>
+      </c>
+      <c r="I108">
+        <v>2.819289575682428</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D109">
+        <v>1.69047619047619</v>
+      </c>
+      <c r="E109">
+        <v>1746.413571428572</v>
+      </c>
+      <c r="F109">
+        <v>16.85714285714286</v>
+      </c>
+      <c r="G109">
+        <v>1.136706737349767</v>
+      </c>
+      <c r="H109">
+        <v>2235.627992511627</v>
+      </c>
+      <c r="I109">
+        <v>20.41230072544306</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110">
+        <v>14.33333333333333</v>
+      </c>
+      <c r="E110">
+        <v>213.99</v>
+      </c>
+      <c r="F110">
+        <v>16</v>
+      </c>
+      <c r="G110">
+        <v>12.74100990241093</v>
+      </c>
+      <c r="H110">
+        <v>190.2117664604374</v>
+      </c>
+      <c r="I110">
+        <v>22.71563338320109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>6800.63</v>
+      </c>
+      <c r="F111">
+        <v>150.5</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>188.8116527124322</v>
+      </c>
+      <c r="I111">
+        <v>64.34671708797582</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112">
+        <v>1.3125</v>
+      </c>
+      <c r="E112">
+        <v>39875.05625</v>
+      </c>
+      <c r="F112">
+        <v>12.25</v>
+      </c>
+      <c r="G112">
+        <v>0.478713553878169</v>
+      </c>
+      <c r="H112">
+        <v>111631.053254152</v>
+      </c>
+      <c r="I112">
+        <v>10.56724498943157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113">
+        <v>3.7</v>
+      </c>
+      <c r="E113">
+        <v>31385.28368421052</v>
+      </c>
+      <c r="F113">
+        <v>7.294736842105263</v>
+      </c>
+      <c r="G113">
+        <v>1.61344088499136</v>
+      </c>
+      <c r="H113">
+        <v>101542.3156398725</v>
+      </c>
+      <c r="I113">
+        <v>2.182491667067645</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D114">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="E114">
+        <v>7192.154285714285</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
+      <c r="G114">
+        <v>0.2672612419124244</v>
+      </c>
+      <c r="H114">
+        <v>2013.916666913635</v>
+      </c>
+      <c r="I114">
+        <v>5.987165760704629</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115">
+        <v>2.935064935064935</v>
+      </c>
+      <c r="E115">
+        <v>40309.74233766234</v>
+      </c>
+      <c r="F115">
+        <v>7.623376623376624</v>
+      </c>
+      <c r="G115">
+        <v>1.444933638411179</v>
+      </c>
+      <c r="H115">
+        <v>174705.3238546839</v>
+      </c>
+      <c r="I115">
+        <v>2.819289575682428</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116">
+        <v>1.69047619047619</v>
+      </c>
+      <c r="E116">
+        <v>14891.41928571429</v>
+      </c>
+      <c r="F116">
+        <v>16.85714285714286</v>
+      </c>
+      <c r="G116">
+        <v>1.092950699312003</v>
+      </c>
+      <c r="H116">
+        <v>34539.01805016948</v>
+      </c>
+      <c r="I116">
+        <v>20.41230072544306</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D117">
+        <v>23</v>
+      </c>
+      <c r="E117">
+        <v>344.22</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D118">
+        <v>13.25</v>
+      </c>
+      <c r="E118">
+        <v>197.8575</v>
+      </c>
+      <c r="F118">
+        <v>10.5</v>
+      </c>
+      <c r="G118">
+        <v>4.645786621588784</v>
+      </c>
+      <c r="H118">
+        <v>69.36985338267144</v>
+      </c>
+      <c r="I118">
+        <v>12.12435565298214</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A60"/>
+    <mergeCell ref="A61:A72"/>
+    <mergeCell ref="A73:A88"/>
+    <mergeCell ref="A89:A104"/>
+    <mergeCell ref="A105:A118"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>3.900621118012422</v>
+      </c>
+      <c r="E2">
+        <v>1662.016832298137</v>
+      </c>
+      <c r="F2">
+        <v>6.77639751552795</v>
+      </c>
+      <c r="G2">
+        <v>1.732790267690017</v>
+      </c>
+      <c r="H2">
+        <v>2204.340601053811</v>
+      </c>
+      <c r="I2">
+        <v>1.536941586721432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>5.894409937888199</v>
+      </c>
+      <c r="E3">
+        <v>1886.169813664595</v>
+      </c>
+      <c r="F3">
+        <v>6.77639751552795</v>
+      </c>
+      <c r="G3">
+        <v>2.178309219532576</v>
+      </c>
+      <c r="H3">
+        <v>1381.29909232327</v>
+      </c>
+      <c r="I3">
+        <v>1.731961154585688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>7.276729559748428</v>
+      </c>
+      <c r="E4">
+        <v>2223.612955974842</v>
+      </c>
+      <c r="F4">
+        <v>6.861635220125786</v>
+      </c>
+      <c r="G4">
+        <v>2.762570692572855</v>
+      </c>
+      <c r="H4">
+        <v>1909.343235040025</v>
+      </c>
+      <c r="I4">
+        <v>1.600941129150244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>1.030612244897959</v>
+      </c>
+      <c r="E5">
+        <v>587.9241836734691</v>
+      </c>
+      <c r="F5">
+        <v>11.07142857142857</v>
+      </c>
+      <c r="G5">
+        <v>0.2249435958008489</v>
+      </c>
+      <c r="H5">
+        <v>484.5599792370318</v>
+      </c>
+      <c r="I5">
+        <v>5.962511751917356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>3.391025641025641</v>
+      </c>
+      <c r="E6">
+        <v>2677.304743589743</v>
+      </c>
+      <c r="F6">
+        <v>6.993589743589744</v>
+      </c>
+      <c r="G6">
+        <v>1.038446221128955</v>
+      </c>
+      <c r="H6">
+        <v>1784.435369884844</v>
+      </c>
+      <c r="I6">
+        <v>1.346425589965328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>2.9</v>
+      </c>
+      <c r="E7">
+        <v>1068.346</v>
+      </c>
+      <c r="F7">
+        <v>7.7</v>
+      </c>
+      <c r="G7">
+        <v>1.595131481867387</v>
+      </c>
+      <c r="H7">
+        <v>1177.696116739043</v>
+      </c>
+      <c r="I7">
+        <v>3.973523485382827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>5.19496855345912</v>
+      </c>
+      <c r="E8">
+        <v>1792.462704402514</v>
+      </c>
+      <c r="F8">
+        <v>6.861635220125786</v>
+      </c>
+      <c r="G8">
+        <v>1.759164025503338</v>
+      </c>
+      <c r="H8">
+        <v>1234.574479210788</v>
+      </c>
+      <c r="I8">
+        <v>1.581050713849607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9">
+        <v>3.919254658385093</v>
+      </c>
+      <c r="E9">
+        <v>30760.02695652173</v>
+      </c>
+      <c r="F9">
+        <v>6.77639751552795</v>
+      </c>
+      <c r="G9">
+        <v>1.739163431363996</v>
+      </c>
+      <c r="H9">
+        <v>88321.06797611702</v>
+      </c>
+      <c r="I9">
+        <v>1.536941586721432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10">
+        <v>5.213836477987422</v>
+      </c>
+      <c r="E10">
+        <v>36244.30742138364</v>
+      </c>
+      <c r="F10">
+        <v>6.861635220125786</v>
+      </c>
+      <c r="G10">
+        <v>1.751544634316439</v>
+      </c>
+      <c r="H10">
+        <v>72879.08008542222</v>
+      </c>
+      <c r="I10">
+        <v>1.581050713849607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11">
+        <v>5.931677018633541</v>
+      </c>
+      <c r="E11">
+        <v>44635.44043478261</v>
+      </c>
+      <c r="F11">
+        <v>6.77639751552795</v>
+      </c>
+      <c r="G11">
+        <v>2.230818861994638</v>
+      </c>
+      <c r="H11">
+        <v>141960.3782089817</v>
+      </c>
+      <c r="I11">
+        <v>1.731961154585688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12">
+        <v>1.030612244897959</v>
+      </c>
+      <c r="E12">
+        <v>9332.043877551021</v>
+      </c>
+      <c r="F12">
+        <v>11.07142857142857</v>
+      </c>
+      <c r="G12">
+        <v>0.2249435958008489</v>
+      </c>
+      <c r="H12">
+        <v>2116.867011068422</v>
+      </c>
+      <c r="I12">
+        <v>5.962511751917356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>3.422929936305732</v>
+      </c>
+      <c r="E13">
+        <v>35027.71585987261</v>
+      </c>
+      <c r="F13">
+        <v>6.949044585987261</v>
+      </c>
+      <c r="G13">
+        <v>1.100342173555919</v>
+      </c>
+      <c r="H13">
+        <v>150613.5113735178</v>
+      </c>
+      <c r="I13">
+        <v>1.426831608952871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <v>7.320754716981132</v>
+      </c>
+      <c r="E14">
+        <v>59246.42584905662</v>
+      </c>
+      <c r="F14">
+        <v>6.861635220125786</v>
+      </c>
+      <c r="G14">
+        <v>2.813441414238832</v>
+      </c>
+      <c r="H14">
+        <v>184818.9794682338</v>
+      </c>
+      <c r="I14">
+        <v>1.600941129150244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15">
+        <v>2.9</v>
+      </c>
+      <c r="E15">
+        <v>17774.929</v>
+      </c>
+      <c r="F15">
+        <v>7.7</v>
+      </c>
+      <c r="G15">
+        <v>1.595131481867387</v>
+      </c>
+      <c r="H15">
+        <v>9867.811307239141</v>
+      </c>
+      <c r="I15">
+        <v>3.973523485382827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <v>2.35593220338983</v>
+      </c>
+      <c r="E16">
+        <v>1164.451186440678</v>
+      </c>
+      <c r="F16">
+        <v>14.35593220338983</v>
+      </c>
+      <c r="G16">
+        <v>1.459365850285508</v>
+      </c>
+      <c r="H16">
+        <v>2130.781407426575</v>
+      </c>
+      <c r="I16">
+        <v>30.09568803566637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>134.51</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>1.867768595041322</v>
+      </c>
+      <c r="E18">
+        <v>1127.121487603306</v>
+      </c>
+      <c r="F18">
+        <v>9.016528925619834</v>
+      </c>
+      <c r="G18">
+        <v>0.8459920090277706</v>
+      </c>
+      <c r="H18">
+        <v>1270.902026813148</v>
+      </c>
+      <c r="I18">
+        <v>3.840537009053075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>6.880691823899371</v>
+      </c>
+      <c r="E19">
+        <v>4854.573584905661</v>
+      </c>
+      <c r="F19">
+        <v>6.861635220125786</v>
+      </c>
+      <c r="G19">
+        <v>2.126799497044543</v>
+      </c>
+      <c r="H19">
+        <v>2381.270983168996</v>
+      </c>
+      <c r="I19">
+        <v>1.442913663660099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20">
+        <v>2.35593220338983</v>
+      </c>
+      <c r="E20">
+        <v>14598.88423728814</v>
+      </c>
+      <c r="F20">
+        <v>14.35593220338983</v>
+      </c>
+      <c r="G20">
+        <v>1.459365850285508</v>
+      </c>
+      <c r="H20">
+        <v>9935.987751882167</v>
+      </c>
+      <c r="I20">
+        <v>30.09568803566637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21">
+        <v>1.884297520661157</v>
+      </c>
+      <c r="E21">
+        <v>24207.75148760331</v>
+      </c>
+      <c r="F21">
+        <v>9.016528925619834</v>
+      </c>
+      <c r="G21">
+        <v>0.8678525474279229</v>
+      </c>
+      <c r="H21">
+        <v>82110.24694052439</v>
+      </c>
+      <c r="I21">
+        <v>3.840537009053075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22">
+        <v>6.816645569620253</v>
+      </c>
+      <c r="E22">
+        <v>66981.65455696196</v>
+      </c>
+      <c r="F22">
+        <v>6.905063291139241</v>
+      </c>
+      <c r="G22">
+        <v>2.356221094910507</v>
+      </c>
+      <c r="H22">
+        <v>262515.3974358341</v>
+      </c>
+      <c r="I22">
+        <v>1.554889451427271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>5648.01</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24">
+        <v>3.428571428571428</v>
+      </c>
+      <c r="E24">
+        <v>23360.33428571429</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>1.618347187425374</v>
+      </c>
+      <c r="H24">
+        <v>11020.5847522562</v>
+      </c>
+      <c r="I24">
+        <v>113.7702362952045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>7.604651162790698</v>
+      </c>
+      <c r="E25">
+        <v>2998.919069767442</v>
+      </c>
+      <c r="F25">
+        <v>11.72093023255814</v>
+      </c>
+      <c r="G25">
+        <v>2.726759238884844</v>
+      </c>
+      <c r="H25">
+        <v>6053.704401333755</v>
+      </c>
+      <c r="I25">
+        <v>22.64038278049639</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>1828.346285714286</v>
+      </c>
+      <c r="F26">
+        <v>8.142857142857142</v>
+      </c>
+      <c r="G26">
+        <v>1.955384722187607</v>
+      </c>
+      <c r="H26">
+        <v>1972.610965000874</v>
+      </c>
+      <c r="I26">
+        <v>3.851224840633074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <v>11.47619047619048</v>
+      </c>
+      <c r="E27">
+        <v>3775.817380952381</v>
+      </c>
+      <c r="F27">
+        <v>6.952380952380953</v>
+      </c>
+      <c r="G27">
+        <v>4.255487677983343</v>
+      </c>
+      <c r="H27">
+        <v>2531.630863222322</v>
+      </c>
+      <c r="I27">
+        <v>1.807199436297823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28">
+        <v>2.151515151515151</v>
+      </c>
+      <c r="E28">
+        <v>1413.377272727272</v>
+      </c>
+      <c r="F28">
+        <v>10.15151515151515</v>
+      </c>
+      <c r="G28">
+        <v>1.679308118713108</v>
+      </c>
+      <c r="H28">
+        <v>1070.316840307324</v>
+      </c>
+      <c r="I28">
+        <v>5.804745968393084</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <v>6.607843137254902</v>
+      </c>
+      <c r="E29">
+        <v>4010.400980392158</v>
+      </c>
+      <c r="F29">
+        <v>6.980392156862745</v>
+      </c>
+      <c r="G29">
+        <v>3.826635239332586</v>
+      </c>
+      <c r="H29">
+        <v>2454.536470629235</v>
+      </c>
+      <c r="I29">
+        <v>1.771893857751433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <v>7.978723404255319</v>
+      </c>
+      <c r="E30">
+        <v>2629.551063829789</v>
+      </c>
+      <c r="F30">
+        <v>6.978723404255319</v>
+      </c>
+      <c r="G30">
+        <v>1.972521688888613</v>
+      </c>
+      <c r="H30">
+        <v>3125.990365573371</v>
+      </c>
+      <c r="I30">
+        <v>1.635068961477821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <v>7.954545454545454</v>
+      </c>
+      <c r="E31">
+        <v>142284.1502272727</v>
+      </c>
+      <c r="F31">
+        <v>7.931818181818182</v>
+      </c>
+      <c r="G31">
+        <v>3.48388012405939</v>
+      </c>
+      <c r="H31">
+        <v>620615.0247445726</v>
+      </c>
+      <c r="I31">
+        <v>3.83009944173976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32">
+        <v>8.127659574468085</v>
+      </c>
+      <c r="E32">
+        <v>94053.00489361699</v>
+      </c>
+      <c r="F32">
+        <v>6.978723404255319</v>
+      </c>
+      <c r="G32">
+        <v>2.153026396540417</v>
+      </c>
+      <c r="H32">
+        <v>312885.6465061972</v>
+      </c>
+      <c r="I32">
+        <v>1.635068961477821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33">
+        <v>8.25</v>
+      </c>
+      <c r="E33">
+        <v>113509.4608333333</v>
+      </c>
+      <c r="F33">
+        <v>7.916666666666667</v>
+      </c>
+      <c r="G33">
+        <v>2.346730248056401</v>
+      </c>
+      <c r="H33">
+        <v>398428.3788675396</v>
+      </c>
+      <c r="I33">
+        <v>3.988375967376052</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34">
+        <v>2.151515151515151</v>
+      </c>
+      <c r="E34">
+        <v>19513.35757575757</v>
+      </c>
+      <c r="F34">
+        <v>10.15151515151515</v>
+      </c>
+      <c r="G34">
+        <v>1.679308118713108</v>
+      </c>
+      <c r="H34">
+        <v>16274.64370761597</v>
+      </c>
+      <c r="I34">
+        <v>5.804745968393084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35">
+        <v>6.84313725490196</v>
+      </c>
+      <c r="E35">
+        <v>156741.7709803922</v>
+      </c>
+      <c r="F35">
+        <v>6.980392156862745</v>
+      </c>
+      <c r="G35">
+        <v>4.478269974084224</v>
+      </c>
+      <c r="H35">
+        <v>795630.9996078714</v>
+      </c>
+      <c r="I35">
+        <v>1.771893857751433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36">
+        <v>11.6046511627907</v>
+      </c>
+      <c r="E36">
+        <v>133461.3572093023</v>
+      </c>
+      <c r="F36">
+        <v>6.790697674418604</v>
+      </c>
+      <c r="G36">
+        <v>4.243423678855604</v>
+      </c>
+      <c r="H36">
+        <v>402034.6492086234</v>
+      </c>
+      <c r="I36">
+        <v>2.006633517384204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37">
+        <v>5.5</v>
+      </c>
+      <c r="E37">
+        <v>3003.69</v>
+      </c>
+      <c r="F37">
+        <v>21</v>
+      </c>
+      <c r="G37">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="H37">
+        <v>2490.557362559634</v>
+      </c>
+      <c r="I37">
+        <v>29.69848480983499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38">
+        <v>2.5</v>
+      </c>
+      <c r="E38">
+        <v>12148.185</v>
+      </c>
+      <c r="F38">
+        <v>21</v>
+      </c>
+      <c r="G38">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="H38">
+        <v>5081.233974267472</v>
+      </c>
+      <c r="I38">
+        <v>29.69848480983499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <v>1.5</v>
+      </c>
+      <c r="E39">
+        <v>424.585</v>
+      </c>
+      <c r="F39">
+        <v>21</v>
+      </c>
+      <c r="G39">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="H39">
+        <v>102.4668436617426</v>
+      </c>
+      <c r="I39">
+        <v>29.69848480983499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>9323.700000000001</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41">
+        <v>5.5</v>
+      </c>
+      <c r="E41">
+        <v>30902.635</v>
+      </c>
+      <c r="F41">
+        <v>21</v>
+      </c>
+      <c r="G41">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="H41">
+        <v>4699.919571444815</v>
+      </c>
+      <c r="I41">
+        <v>29.69848480983499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42">
+        <v>2.5</v>
+      </c>
+      <c r="E42">
+        <v>16982.98</v>
+      </c>
+      <c r="F42">
+        <v>21</v>
+      </c>
+      <c r="G42">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="H42">
+        <v>4257.843482914796</v>
+      </c>
+      <c r="I42">
+        <v>29.69848480983499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43">
+        <v>1.5</v>
+      </c>
+      <c r="E43">
+        <v>8702.93</v>
+      </c>
+      <c r="F43">
+        <v>21</v>
+      </c>
+      <c r="G43">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="H43">
+        <v>3907.302367209377</v>
+      </c>
+      <c r="I43">
+        <v>29.69848480983499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>425.78</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>5449.13</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46">
+        <v>1.254464285714286</v>
+      </c>
+      <c r="E46">
+        <v>914.1686607142858</v>
+      </c>
+      <c r="F46">
+        <v>9.5625</v>
+      </c>
+      <c r="G46">
+        <v>0.5284497799073907</v>
+      </c>
+      <c r="H46">
+        <v>1289.08922002221</v>
+      </c>
+      <c r="I46">
+        <v>6.272751382759397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>830.5599999999999</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>903.7375862068965</v>
+      </c>
+      <c r="F48">
+        <v>34.27586206896552</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>759.9272394242527</v>
+      </c>
+      <c r="I48">
+        <v>28.45158362617868</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49">
+        <v>3.243589743589744</v>
+      </c>
+      <c r="E49">
+        <v>2118.904294871795</v>
+      </c>
+      <c r="F49">
+        <v>6.993589743589744</v>
+      </c>
+      <c r="G49">
+        <v>0.6050517959357655</v>
+      </c>
+      <c r="H49">
+        <v>2131.2969781442</v>
+      </c>
+      <c r="I49">
+        <v>1.384228187751245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50">
+        <v>1.782608695652174</v>
+      </c>
+      <c r="E50">
+        <v>1503.257246376811</v>
+      </c>
+      <c r="F50">
+        <v>7.905797101449275</v>
+      </c>
+      <c r="G50">
+        <v>0.6913345861425033</v>
+      </c>
+      <c r="H50">
+        <v>1682.72662226387</v>
+      </c>
+      <c r="I50">
+        <v>2.682431844589429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51">
+        <v>1.63302752293578</v>
+      </c>
+      <c r="E51">
+        <v>1131.204311926606</v>
+      </c>
+      <c r="F51">
+        <v>10.00917431192661</v>
+      </c>
+      <c r="G51">
+        <v>0.7777049623698779</v>
+      </c>
+      <c r="H51">
+        <v>1173.120245149792</v>
+      </c>
+      <c r="I51">
+        <v>5.957403443901385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52">
+        <v>1.263392857142857</v>
+      </c>
+      <c r="E52">
+        <v>10378.80821428571</v>
+      </c>
+      <c r="F52">
+        <v>9.5625</v>
+      </c>
+      <c r="G52">
+        <v>0.532543706401455</v>
+      </c>
+      <c r="H52">
+        <v>31321.6679269104</v>
+      </c>
+      <c r="I52">
+        <v>6.272751382759397</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>9011.32</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>6740.442413793102</v>
+      </c>
+      <c r="F54">
+        <v>34.27586206896552</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>416.0923362982166</v>
+      </c>
+      <c r="I54">
+        <v>28.45158362617868</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55">
+        <v>3.171974522292994</v>
+      </c>
+      <c r="E55">
+        <v>22238.45044585987</v>
+      </c>
+      <c r="F55">
+        <v>6.949044585987261</v>
+      </c>
+      <c r="G55">
+        <v>0.7265861865781733</v>
+      </c>
+      <c r="H55">
+        <v>62226.38805099794</v>
+      </c>
+      <c r="I55">
+        <v>1.264891696711463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>6753.156</v>
+      </c>
+      <c r="F56">
+        <v>11.2</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>163.2078000937105</v>
+      </c>
+      <c r="I56">
+        <v>5.466782809451487</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="E57">
+        <v>15683.4754347826</v>
+      </c>
+      <c r="F57">
+        <v>7.905797101449275</v>
+      </c>
+      <c r="G57">
+        <v>0.6925958328079779</v>
+      </c>
+      <c r="H57">
+        <v>42627.63517217754</v>
+      </c>
+      <c r="I57">
+        <v>2.682431844589429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58">
+        <v>1.660550458715596</v>
+      </c>
+      <c r="E58">
+        <v>15638.46513761467</v>
+      </c>
+      <c r="F58">
+        <v>10.00917431192661</v>
+      </c>
+      <c r="G58">
+        <v>0.8736914393689795</v>
+      </c>
+      <c r="H58">
+        <v>63480.12888261031</v>
+      </c>
+      <c r="I58">
+        <v>5.957403443901385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59">
+        <v>20.7</v>
+      </c>
+      <c r="E59">
+        <v>305.8403809523811</v>
+      </c>
+      <c r="F59">
+        <v>8.047619047619047</v>
+      </c>
+      <c r="G59">
+        <v>12.9625199354494</v>
+      </c>
+      <c r="H59">
+        <v>194.5347739673958</v>
+      </c>
+      <c r="I59">
+        <v>4.37515044220669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>242.37</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61">
+        <v>1.755555555555556</v>
+      </c>
+      <c r="E61">
+        <v>750.9255555555551</v>
+      </c>
+      <c r="F61">
+        <v>11.98888888888889</v>
+      </c>
+      <c r="G61">
+        <v>0.8939385283029924</v>
+      </c>
+      <c r="H61">
+        <v>905.055086348943</v>
+      </c>
+      <c r="I61">
+        <v>8.891979019677905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62">
+        <v>1.24</v>
+      </c>
+      <c r="E62">
+        <v>899.9169999999996</v>
+      </c>
+      <c r="F62">
+        <v>20.28</v>
+      </c>
+      <c r="G62">
+        <v>0.4763809143009448</v>
+      </c>
+      <c r="H62">
+        <v>887.2391329108333</v>
+      </c>
+      <c r="I62">
+        <v>23.46168391750468</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63">
+        <v>6.748343949044586</v>
+      </c>
+      <c r="E63">
+        <v>4641.650127388536</v>
+      </c>
+      <c r="F63">
+        <v>6.949044585987261</v>
+      </c>
+      <c r="G63">
+        <v>1.053769696493692</v>
+      </c>
+      <c r="H63">
+        <v>3910.014904876173</v>
+      </c>
+      <c r="I63">
+        <v>1.274987070542533</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64">
+        <v>4.360063694267516</v>
+      </c>
+      <c r="E64">
+        <v>3130.037643312101</v>
+      </c>
+      <c r="F64">
+        <v>6.949044585987261</v>
+      </c>
+      <c r="G64">
+        <v>0.8949878217301279</v>
+      </c>
+      <c r="H64">
+        <v>2827.634244133482</v>
+      </c>
+      <c r="I64">
+        <v>1.274987070542533</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65">
+        <v>2.803571428571428</v>
+      </c>
+      <c r="E65">
+        <v>2124.143357142857</v>
+      </c>
+      <c r="F65">
+        <v>7.792857142857143</v>
+      </c>
+      <c r="G65">
+        <v>1.222829053523766</v>
+      </c>
+      <c r="H65">
+        <v>2154.949579739532</v>
+      </c>
+      <c r="I65">
+        <v>3.221993726959647</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="E66">
+        <v>17728.915</v>
+      </c>
+      <c r="F66">
+        <v>11.98888888888889</v>
+      </c>
+      <c r="G66">
+        <v>0.9244224164282291</v>
+      </c>
+      <c r="H66">
+        <v>70260.65985954557</v>
+      </c>
+      <c r="I66">
+        <v>8.891979019677905</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67">
+        <v>1.24</v>
+      </c>
+      <c r="E67">
+        <v>8367.015800000001</v>
+      </c>
+      <c r="F67">
+        <v>20.28</v>
+      </c>
+      <c r="G67">
+        <v>0.4763809143009448</v>
+      </c>
+      <c r="H67">
+        <v>3402.049157539416</v>
+      </c>
+      <c r="I67">
+        <v>23.46168391750468</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68">
+        <v>6.646433121019109</v>
+      </c>
+      <c r="E68">
+        <v>42747.75987261147</v>
+      </c>
+      <c r="F68">
+        <v>6.949044585987261</v>
+      </c>
+      <c r="G68">
+        <v>0.9595124381142573</v>
+      </c>
+      <c r="H68">
+        <v>76679.66798467134</v>
+      </c>
+      <c r="I68">
+        <v>1.274987070542533</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="E69">
+        <v>8969.576666666666</v>
+      </c>
+      <c r="F69">
+        <v>11.2</v>
+      </c>
+      <c r="G69">
+        <v>0.4879500364742666</v>
+      </c>
+      <c r="H69">
+        <v>3314.603451743439</v>
+      </c>
+      <c r="I69">
+        <v>10.05129700230629</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70">
+        <v>4.385541401273885</v>
+      </c>
+      <c r="E70">
+        <v>42010.97573248405</v>
+      </c>
+      <c r="F70">
+        <v>6.949044585987261</v>
+      </c>
+      <c r="G70">
+        <v>0.9404516065361819</v>
+      </c>
+      <c r="H70">
+        <v>160485.0901188008</v>
+      </c>
+      <c r="I70">
+        <v>1.274987070542533</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71">
+        <v>2.825</v>
+      </c>
+      <c r="E71">
+        <v>21245.25714285715</v>
+      </c>
+      <c r="F71">
+        <v>7.792857142857143</v>
+      </c>
+      <c r="G71">
+        <v>1.252228229824079</v>
+      </c>
+      <c r="H71">
+        <v>55718.25202014807</v>
+      </c>
+      <c r="I71">
+        <v>3.221993726959647</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72">
+        <v>7.789473684210527</v>
+      </c>
+      <c r="E72">
+        <v>113.8605263157895</v>
+      </c>
+      <c r="F72">
+        <v>13.75438596491228</v>
+      </c>
+      <c r="G72">
+        <v>9.347911993949051</v>
+      </c>
+      <c r="H72">
+        <v>136.6058558463134</v>
+      </c>
+      <c r="I72">
+        <v>13.11389761958444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73">
+        <v>7.875900621118013</v>
+      </c>
+      <c r="E73">
+        <v>4293.811180124227</v>
+      </c>
+      <c r="F73">
+        <v>6.77639751552795</v>
+      </c>
+      <c r="G73">
+        <v>3.359204606757694</v>
+      </c>
+      <c r="H73">
+        <v>3966.076563997375</v>
+      </c>
+      <c r="I73">
+        <v>1.742753407970787</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74">
+        <v>13.62523809523809</v>
+      </c>
+      <c r="E74">
+        <v>6879.099702380957</v>
+      </c>
+      <c r="F74">
+        <v>6.494047619047619</v>
+      </c>
+      <c r="G74">
+        <v>5.726776371366517</v>
+      </c>
+      <c r="H74">
+        <v>6003.03533534439</v>
+      </c>
+      <c r="I74">
+        <v>1.9049164999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75">
+        <v>18.50928143712575</v>
+      </c>
+      <c r="E75">
+        <v>7849.428143712576</v>
+      </c>
+      <c r="F75">
+        <v>6.532934131736527</v>
+      </c>
+      <c r="G75">
+        <v>7.661548537115786</v>
+      </c>
+      <c r="H75">
+        <v>6405.006421436038</v>
+      </c>
+      <c r="I75">
+        <v>1.874960019293341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>969.865</v>
+      </c>
+      <c r="F76">
+        <v>3.5</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>151.327922241733</v>
+      </c>
+      <c r="I76">
+        <v>4.949747468305833</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="E77">
+        <v>3134.344166666667</v>
+      </c>
+      <c r="F77">
+        <v>40.25</v>
+      </c>
+      <c r="G77">
+        <v>3.352972448801845</v>
+      </c>
+      <c r="H77">
+        <v>1800.661273751994</v>
+      </c>
+      <c r="I77">
+        <v>110.8464334932875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78">
+        <v>12.2730303030303</v>
+      </c>
+      <c r="E78">
+        <v>6092.169090909096</v>
+      </c>
+      <c r="F78">
+        <v>6.612121212121212</v>
+      </c>
+      <c r="G78">
+        <v>4.845416796520497</v>
+      </c>
+      <c r="H78">
+        <v>5431.413861144509</v>
+      </c>
+      <c r="I78">
+        <v>1.792898861252762</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79">
+        <v>5.5</v>
+      </c>
+      <c r="E79">
+        <v>34103.74166666667</v>
+      </c>
+      <c r="F79">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="G79">
+        <v>3.016620625799671</v>
+      </c>
+      <c r="H79">
+        <v>18674.96639629364</v>
+      </c>
+      <c r="I79">
+        <v>2.926886855802025</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="E80">
+        <v>47573.035</v>
+      </c>
+      <c r="F80">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="G80">
+        <v>4.802776974487434</v>
+      </c>
+      <c r="H80">
+        <v>27395.38726987574</v>
+      </c>
+      <c r="I80">
+        <v>3.430257521916783</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81">
+        <v>8.714285714285714</v>
+      </c>
+      <c r="E81">
+        <v>53188.66857142857</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81">
+        <v>5.186980037050644</v>
+      </c>
+      <c r="H81">
+        <v>32203.84474308796</v>
+      </c>
+      <c r="I81">
+        <v>2.70801280154532</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82">
+        <v>7.886202531645569</v>
+      </c>
+      <c r="E82">
+        <v>59323.31867088612</v>
+      </c>
+      <c r="F82">
+        <v>6.905063291139241</v>
+      </c>
+      <c r="G82">
+        <v>3.365158992012445</v>
+      </c>
+      <c r="H82">
+        <v>148123.7665331477</v>
+      </c>
+      <c r="I82">
+        <v>2.164531619017536</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83">
+        <v>12.0669696969697</v>
+      </c>
+      <c r="E83">
+        <v>85671.4304242424</v>
+      </c>
+      <c r="F83">
+        <v>6.612121212121212</v>
+      </c>
+      <c r="G83">
+        <v>5.043688693735969</v>
+      </c>
+      <c r="H83">
+        <v>196470.8838196436</v>
+      </c>
+      <c r="I83">
+        <v>1.792898861252762</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84">
+        <v>13.59904191616766</v>
+      </c>
+      <c r="E84">
+        <v>107206.0982035928</v>
+      </c>
+      <c r="F84">
+        <v>6.532934131736527</v>
+      </c>
+      <c r="G84">
+        <v>6.533358998205845</v>
+      </c>
+      <c r="H84">
+        <v>404786.0610439967</v>
+      </c>
+      <c r="I84">
+        <v>2.01734774925355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85">
+        <v>18.44006024096386</v>
+      </c>
+      <c r="E85">
+        <v>145545.3607831325</v>
+      </c>
+      <c r="F85">
+        <v>6.572289156626506</v>
+      </c>
+      <c r="G85">
+        <v>8.377913278701321</v>
+      </c>
+      <c r="H85">
+        <v>424987.894180369</v>
+      </c>
+      <c r="I85">
+        <v>1.945675126453512</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>6804.825000000001</v>
+      </c>
+      <c r="F86">
+        <v>3.5</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>6.682159082212424</v>
+      </c>
+      <c r="I86">
+        <v>4.949747468305833</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="E87">
+        <v>134125.8166666667</v>
+      </c>
+      <c r="F87">
+        <v>40.25</v>
+      </c>
+      <c r="G87">
+        <v>4.302923600896432</v>
+      </c>
+      <c r="H87">
+        <v>310299.9889391944</v>
+      </c>
+      <c r="I87">
+        <v>110.8464334932875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88">
+        <v>6.857142857142857</v>
+      </c>
+      <c r="E88">
+        <v>41263.23285714286</v>
+      </c>
+      <c r="F88">
+        <v>6.142857142857143</v>
+      </c>
+      <c r="G88">
+        <v>3.891382420536067</v>
+      </c>
+      <c r="H88">
+        <v>23694.96442337817</v>
+      </c>
+      <c r="I88">
+        <v>2.794552524023088</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89">
+        <v>8.391304347826088</v>
+      </c>
+      <c r="E89">
+        <v>2960.21652173913</v>
+      </c>
+      <c r="F89">
+        <v>26.73913043478261</v>
+      </c>
+      <c r="G89">
+        <v>3.9742252582311</v>
+      </c>
+      <c r="H89">
+        <v>2209.16042521425</v>
+      </c>
+      <c r="I89">
+        <v>64.20012559553301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90">
+        <v>9.615384615384615</v>
+      </c>
+      <c r="E90">
+        <v>1354.161538461538</v>
+      </c>
+      <c r="F90">
+        <v>10.23076923076923</v>
+      </c>
+      <c r="G90">
+        <v>3.069703067574602</v>
+      </c>
+      <c r="H90">
+        <v>1579.101272310963</v>
+      </c>
+      <c r="I90">
+        <v>10.56845815113575</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D91">
+        <v>15.81818181818182</v>
+      </c>
+      <c r="E91">
+        <v>3824.276818181818</v>
+      </c>
+      <c r="F91">
+        <v>6.681818181818182</v>
+      </c>
+      <c r="G91">
+        <v>21.53543340113897</v>
+      </c>
+      <c r="H91">
+        <v>6008.932101902163</v>
+      </c>
+      <c r="I91">
+        <v>2.570646826817155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>568.39</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>150.9089589785842</v>
+      </c>
+      <c r="I92">
+        <v>4.358898943540674</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D93">
+        <v>5.571428571428571</v>
+      </c>
+      <c r="E93">
+        <v>1874.539285714286</v>
+      </c>
+      <c r="F93">
+        <v>53.42857142857143</v>
+      </c>
+      <c r="G93">
+        <v>3.588749208167224</v>
+      </c>
+      <c r="H93">
+        <v>1698.11453513081</v>
+      </c>
+      <c r="I93">
+        <v>109.0043854345138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D94">
+        <v>5.210526315789473</v>
+      </c>
+      <c r="E94">
+        <v>2065.803684210526</v>
+      </c>
+      <c r="F94">
+        <v>27.89473684210526</v>
+      </c>
+      <c r="G94">
+        <v>2.41704473751685</v>
+      </c>
+      <c r="H94">
+        <v>1309.346015337473</v>
+      </c>
+      <c r="I94">
+        <v>82.87533793250499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95">
+        <v>2.055555555555555</v>
+      </c>
+      <c r="E95">
+        <v>1642.038333333333</v>
+      </c>
+      <c r="F95">
+        <v>8.555555555555555</v>
+      </c>
+      <c r="G95">
+        <v>1.211329955642932</v>
+      </c>
+      <c r="H95">
+        <v>1094.468443165583</v>
+      </c>
+      <c r="I95">
+        <v>4.668067016785708</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96">
+        <v>9.647058823529411</v>
+      </c>
+      <c r="E96">
+        <v>1763.678823529412</v>
+      </c>
+      <c r="F96">
+        <v>36.58823529411764</v>
+      </c>
+      <c r="G96">
+        <v>4.415047798022523</v>
+      </c>
+      <c r="H96">
+        <v>814.826992211248</v>
+      </c>
+      <c r="I96">
+        <v>113.3181686797893</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97">
+        <v>8.391304347826088</v>
+      </c>
+      <c r="E97">
+        <v>57710.81391304348</v>
+      </c>
+      <c r="F97">
+        <v>16.08695652173913</v>
+      </c>
+      <c r="G97">
+        <v>3.9742252582311</v>
+      </c>
+      <c r="H97">
+        <v>27662.14095645342</v>
+      </c>
+      <c r="I97">
+        <v>43.24550743191109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98">
+        <v>9.647058823529411</v>
+      </c>
+      <c r="E98">
+        <v>65006.81058823528</v>
+      </c>
+      <c r="F98">
+        <v>8.647058823529411</v>
+      </c>
+      <c r="G98">
+        <v>4.415047798022523</v>
+      </c>
+      <c r="H98">
+        <v>30325.59124868703</v>
+      </c>
+      <c r="I98">
+        <v>9.075662348215889</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>5679.16</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>130.4442858081564</v>
+      </c>
+      <c r="I99">
+        <v>4.358898943540674</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100">
+        <v>9.615384615384615</v>
+      </c>
+      <c r="E100">
+        <v>62049.13076923077</v>
+      </c>
+      <c r="F100">
+        <v>58</v>
+      </c>
+      <c r="G100">
+        <v>3.069703067574602</v>
+      </c>
+      <c r="H100">
+        <v>19149.69014312175</v>
+      </c>
+      <c r="I100">
+        <v>169.4623852068653</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101">
+        <v>5.571428571428571</v>
+      </c>
+      <c r="E101">
+        <v>56999.55785714284</v>
+      </c>
+      <c r="F101">
+        <v>38.35714285714285</v>
+      </c>
+      <c r="G101">
+        <v>3.588749208167224</v>
+      </c>
+      <c r="H101">
+        <v>37097.40744674986</v>
+      </c>
+      <c r="I101">
+        <v>99.73473057825184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102">
+        <v>5.210526315789473</v>
+      </c>
+      <c r="E102">
+        <v>38798.57789473685</v>
+      </c>
+      <c r="F102">
+        <v>27.89473684210526</v>
+      </c>
+      <c r="G102">
+        <v>2.41704473751685</v>
+      </c>
+      <c r="H102">
+        <v>18746.71938021233</v>
+      </c>
+      <c r="I102">
+        <v>82.87533793250499</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103">
+        <v>11.5</v>
+      </c>
+      <c r="E103">
+        <v>79131.24227272725</v>
+      </c>
+      <c r="F103">
+        <v>6.681818181818182</v>
+      </c>
+      <c r="G103">
+        <v>4.6777080264754</v>
+      </c>
+      <c r="H103">
+        <v>31391.02784728114</v>
+      </c>
+      <c r="I103">
+        <v>2.570646826817155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104">
+        <v>2.055555555555555</v>
+      </c>
+      <c r="E104">
+        <v>12410.28611111111</v>
+      </c>
+      <c r="F104">
+        <v>8.555555555555555</v>
+      </c>
+      <c r="G104">
+        <v>1.211329955642932</v>
+      </c>
+      <c r="H104">
+        <v>7394.27578468335</v>
+      </c>
+      <c r="I104">
+        <v>4.668067016785708</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>218.15</v>
+      </c>
+      <c r="F105">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106">
+        <v>1.25</v>
+      </c>
+      <c r="E106">
+        <v>1179.16</v>
+      </c>
+      <c r="F106">
+        <v>12.25</v>
+      </c>
+      <c r="G106">
+        <v>0.4472135954999579</v>
+      </c>
+      <c r="H106">
+        <v>1472.823701533894</v>
+      </c>
+      <c r="I106">
+        <v>10.56724498943157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D107">
+        <v>3.781914893617021</v>
+      </c>
+      <c r="E107">
+        <v>2864.827021276594</v>
+      </c>
+      <c r="F107">
+        <v>7.372340425531915</v>
+      </c>
+      <c r="G107">
+        <v>1.432267378020384</v>
+      </c>
+      <c r="H107">
+        <v>2338.265627347799</v>
+      </c>
+      <c r="I107">
+        <v>2.299995523853482</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D108">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="E108">
+        <v>1775.810649350649</v>
+      </c>
+      <c r="F108">
+        <v>7.623376623376624</v>
+      </c>
+      <c r="G108">
+        <v>1.26401912995898</v>
+      </c>
+      <c r="H108">
+        <v>1580.169772529736</v>
+      </c>
+      <c r="I108">
+        <v>2.819289575682428</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D109">
+        <v>1.69047619047619</v>
+      </c>
+      <c r="E109">
+        <v>1746.413571428572</v>
+      </c>
+      <c r="F109">
+        <v>16.85714285714286</v>
+      </c>
+      <c r="G109">
+        <v>1.136706737349767</v>
+      </c>
+      <c r="H109">
+        <v>2235.627992511627</v>
+      </c>
+      <c r="I109">
+        <v>20.41230072544306</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110">
+        <v>14.33333333333333</v>
+      </c>
+      <c r="E110">
+        <v>213.99</v>
+      </c>
+      <c r="F110">
+        <v>16</v>
+      </c>
+      <c r="G110">
+        <v>12.74100990241093</v>
+      </c>
+      <c r="H110">
+        <v>190.2117664604374</v>
+      </c>
+      <c r="I110">
+        <v>22.71563338320109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>6800.63</v>
+      </c>
+      <c r="F111">
+        <v>150.5</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>188.8116527124322</v>
+      </c>
+      <c r="I111">
+        <v>64.34671708797582</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112">
+        <v>1.3125</v>
+      </c>
+      <c r="E112">
+        <v>39875.05625</v>
+      </c>
+      <c r="F112">
+        <v>12.25</v>
+      </c>
+      <c r="G112">
+        <v>0.478713553878169</v>
+      </c>
+      <c r="H112">
+        <v>111631.053254152</v>
+      </c>
+      <c r="I112">
+        <v>10.56724498943157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113">
+        <v>3.7</v>
+      </c>
+      <c r="E113">
+        <v>31385.28368421052</v>
+      </c>
+      <c r="F113">
+        <v>7.294736842105263</v>
+      </c>
+      <c r="G113">
+        <v>1.61344088499136</v>
+      </c>
+      <c r="H113">
+        <v>101542.3156398725</v>
+      </c>
+      <c r="I113">
+        <v>2.182491667067645</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D114">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="E114">
+        <v>7192.154285714285</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
+      <c r="G114">
+        <v>0.2672612419124244</v>
+      </c>
+      <c r="H114">
+        <v>2013.916666913635</v>
+      </c>
+      <c r="I114">
+        <v>5.987165760704629</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115">
+        <v>2.935064935064935</v>
+      </c>
+      <c r="E115">
+        <v>40309.74233766234</v>
+      </c>
+      <c r="F115">
+        <v>7.623376623376624</v>
+      </c>
+      <c r="G115">
+        <v>1.444933638411179</v>
+      </c>
+      <c r="H115">
+        <v>174705.3238546839</v>
+      </c>
+      <c r="I115">
+        <v>2.819289575682428</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116">
+        <v>1.69047619047619</v>
+      </c>
+      <c r="E116">
+        <v>14891.41928571429</v>
+      </c>
+      <c r="F116">
+        <v>16.85714285714286</v>
+      </c>
+      <c r="G116">
+        <v>1.092950699312003</v>
+      </c>
+      <c r="H116">
+        <v>34539.01805016948</v>
+      </c>
+      <c r="I116">
+        <v>20.41230072544306</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D117">
+        <v>23</v>
+      </c>
+      <c r="E117">
+        <v>344.22</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D118">
+        <v>13.25</v>
+      </c>
+      <c r="E118">
+        <v>197.8575</v>
+      </c>
+      <c r="F118">
+        <v>10.5</v>
+      </c>
+      <c r="G118">
+        <v>4.645786621588784</v>
+      </c>
+      <c r="H118">
+        <v>69.36985338267144</v>
+      </c>
+      <c r="I118">
+        <v>12.12435565298214</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A60"/>
+    <mergeCell ref="A61:A72"/>
+    <mergeCell ref="A73:A88"/>
+    <mergeCell ref="A89:A104"/>
+    <mergeCell ref="A105:A118"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Alimentos.xlsx
+++ b/Alimentos.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="84">
   <si>
     <t>MinCantidad</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Descripción</t>
+  </si>
+  <si>
+    <t>Unidad</t>
   </si>
   <si>
     <t>Adicional Amarillo 25-60</t>
@@ -151,6 +154,15 @@
     <t>Fórmula Lactea para Lechones GV3</t>
   </si>
   <si>
+    <t>KGS</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
     <t>Adicional Pollas y Gallinas</t>
   </si>
   <si>
@@ -223,10 +235,10 @@
     <t>Pelecha 3 Provimi</t>
   </si>
   <si>
-    <t>Almacén</t>
+    <t>PZAS</t>
   </si>
   <si>
-    <t>Unidad</t>
+    <t>Almacén</t>
   </si>
   <si>
     <t>AGV1</t>
@@ -257,15 +269,6 @@
   </si>
   <si>
     <t>GV6</t>
-  </si>
-  <si>
-    <t>KGS</t>
-  </si>
-  <si>
-    <t>TON</t>
-  </si>
-  <si>
-    <t>LTS</t>
   </si>
 </sst>
 </file>
@@ -623,1321 +626,1417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>159.56</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>14.03857142857143</v>
+      </c>
+      <c r="G2">
+        <v>6728.733131868135</v>
+      </c>
+      <c r="H2">
+        <v>5.994505494505495</v>
+      </c>
+      <c r="I2">
+        <v>6.259794371400536</v>
+      </c>
+      <c r="J2">
+        <v>6208.958039165934</v>
+      </c>
+      <c r="K2">
+        <v>2.308995746276556</v>
+      </c>
+      <c r="L2">
+        <v>32</v>
+      </c>
+      <c r="M2">
+        <v>46527.52</v>
+      </c>
+      <c r="N2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>155.04</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>19.5916129032258</v>
+      </c>
+      <c r="G3">
+        <v>8287.011236559136</v>
+      </c>
+      <c r="H3">
+        <v>5.865591397849462</v>
+      </c>
+      <c r="I3">
+        <v>9.205339377782714</v>
+      </c>
+      <c r="J3">
+        <v>6442.038817013461</v>
+      </c>
+      <c r="K3">
+        <v>2.395536147116511</v>
+      </c>
+      <c r="L3">
+        <v>40</v>
+      </c>
+      <c r="M3">
+        <v>35029.53</v>
+      </c>
+      <c r="N3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>156.71</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>27.75437158469946</v>
+      </c>
+      <c r="G4">
+        <v>10422.19612021858</v>
+      </c>
+      <c r="H4">
+        <v>5.961748633879782</v>
+      </c>
+      <c r="I4">
+        <v>15.04910670612628</v>
+      </c>
+      <c r="J4">
+        <v>8869.234489797464</v>
+      </c>
+      <c r="K4">
+        <v>2.340203147513638</v>
+      </c>
+      <c r="L4">
+        <v>136</v>
+      </c>
+      <c r="M4">
+        <v>63199.42999999999</v>
+      </c>
+      <c r="N4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>15.01</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2.208029197080292</v>
+      </c>
+      <c r="G5">
+        <v>1254.697153284671</v>
+      </c>
+      <c r="H5">
+        <v>7.875912408759124</v>
+      </c>
+      <c r="I5">
+        <v>1.403307982325658</v>
+      </c>
+      <c r="J5">
+        <v>1707.995087881656</v>
+      </c>
+      <c r="K5">
+        <v>3.230018337851907</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>11877.06</v>
+      </c>
+      <c r="N5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>84.34999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3.206451612903226</v>
+      </c>
+      <c r="G6">
+        <v>1848.905741935484</v>
+      </c>
+      <c r="H6">
+        <v>7.038709677419355</v>
+      </c>
+      <c r="I6">
+        <v>2.310891136914385</v>
+      </c>
+      <c r="J6">
+        <v>1704.847679181434</v>
+      </c>
+      <c r="K6">
+        <v>2.812042449864655</v>
+      </c>
+      <c r="L6">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="M6">
+        <v>10348.97</v>
+      </c>
+      <c r="N6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>159.56</v>
-      </c>
-      <c r="D2">
+      <c r="D7">
+        <v>503.77</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>14.03857142857143</v>
-      </c>
-      <c r="F2">
-        <v>6728.733131868135</v>
-      </c>
-      <c r="G2">
+      <c r="F7">
+        <v>12.43947976878612</v>
+      </c>
+      <c r="G7">
+        <v>8707.869537572255</v>
+      </c>
+      <c r="H7">
+        <v>6.30635838150289</v>
+      </c>
+      <c r="I7">
+        <v>5.475318432483021</v>
+      </c>
+      <c r="J7">
+        <v>4250.743313620629</v>
+      </c>
+      <c r="K7">
+        <v>2.092015560021987</v>
+      </c>
+      <c r="L7">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>24330.7</v>
+      </c>
+      <c r="N7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>217.04</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>11.78042682926829</v>
+      </c>
+      <c r="G8">
+        <v>8137.739390243901</v>
+      </c>
+      <c r="H8">
+        <v>6.652439024390244</v>
+      </c>
+      <c r="I8">
+        <v>3.00514208612561</v>
+      </c>
+      <c r="J8">
+        <v>7239.177691076353</v>
+      </c>
+      <c r="K8">
+        <v>1.735923269469638</v>
+      </c>
+      <c r="L8">
+        <v>19</v>
+      </c>
+      <c r="M8">
+        <v>34698.52</v>
+      </c>
+      <c r="N8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>400.01</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>7.089141104294479</v>
+      </c>
+      <c r="G9">
+        <v>5275.455214723926</v>
+      </c>
+      <c r="H9">
+        <v>6.693251533742331</v>
+      </c>
+      <c r="I9">
+        <v>2.563870145296362</v>
+      </c>
+      <c r="J9">
+        <v>4771.685332810069</v>
+      </c>
+      <c r="K9">
+        <v>1.686296579012603</v>
+      </c>
+      <c r="L9">
+        <v>18</v>
+      </c>
+      <c r="M9">
+        <v>34923.19</v>
+      </c>
+      <c r="N9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>316.24</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>8.214285714285714</v>
+      </c>
+      <c r="G10">
+        <v>3449.685</v>
+      </c>
+      <c r="H10">
+        <v>6.5</v>
+      </c>
+      <c r="I10">
+        <v>3.662251754329283</v>
+      </c>
+      <c r="J10">
+        <v>2420.975058428859</v>
+      </c>
+      <c r="K10">
+        <v>1.911503636890643</v>
+      </c>
+      <c r="L10">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <v>9379.83</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>25.44</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4.483552631578948</v>
+      </c>
+      <c r="G11">
+        <v>3450.240592105263</v>
+      </c>
+      <c r="H11">
+        <v>7.177631578947368</v>
+      </c>
+      <c r="I11">
+        <v>2.657874569839527</v>
+      </c>
+      <c r="J11">
+        <v>3842.755160292756</v>
+      </c>
+      <c r="K11">
+        <v>2.310649040679878</v>
+      </c>
+      <c r="L11">
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <v>24867.31</v>
+      </c>
+      <c r="N11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>438.56</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>18.62664835164835</v>
+      </c>
+      <c r="G12">
+        <v>7932.862142857148</v>
+      </c>
+      <c r="H12">
         <v>5.994505494505495</v>
       </c>
-      <c r="H2">
-        <v>6.259794371400536</v>
-      </c>
-      <c r="I2">
-        <v>6208.958039165934</v>
-      </c>
-      <c r="J2">
-        <v>2.308995746276556</v>
-      </c>
-      <c r="K2">
+      <c r="I12">
+        <v>8.413430875162033</v>
+      </c>
+      <c r="J12">
+        <v>5989.379151681685</v>
+      </c>
+      <c r="K12">
+        <v>2.318547012969729</v>
+      </c>
+      <c r="L12">
+        <v>38</v>
+      </c>
+      <c r="M12">
+        <v>30208.26</v>
+      </c>
+      <c r="N12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>89.58</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>14.33333333333333</v>
+      </c>
+      <c r="G13">
+        <v>213.99</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>12.74100990241093</v>
+      </c>
+      <c r="J13">
+        <v>190.2117664604374</v>
+      </c>
+      <c r="K13">
+        <v>22.71563338320109</v>
+      </c>
+      <c r="L13">
+        <v>29</v>
+      </c>
+      <c r="M13">
+        <v>432.95</v>
+      </c>
+      <c r="N13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>12498.2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>5.5</v>
+      </c>
+      <c r="G14">
+        <v>34103.74166666667</v>
+      </c>
+      <c r="H14">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="I14">
+        <v>3.016620625799671</v>
+      </c>
+      <c r="J14">
+        <v>18674.96639629364</v>
+      </c>
+      <c r="K14">
+        <v>2.926886855802025</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>55875.8</v>
+      </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>14953.07</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>47573.035</v>
+      </c>
+      <c r="H15">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="I15">
+        <v>4.802776974487434</v>
+      </c>
+      <c r="J15">
+        <v>27395.38726987574</v>
+      </c>
+      <c r="K15">
+        <v>3.430257521916783</v>
+      </c>
+      <c r="L15">
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <v>90489.39999999999</v>
+      </c>
+      <c r="N15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>12963.42</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>8.714285714285714</v>
+      </c>
+      <c r="G16">
+        <v>53188.66857142857</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>5.186980037050644</v>
+      </c>
+      <c r="J16">
+        <v>32203.84474308796</v>
+      </c>
+      <c r="K16">
+        <v>2.70801280154532</v>
+      </c>
+      <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="M16">
+        <v>97156.34</v>
+      </c>
+      <c r="N16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>5647.38</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>14.06054945054945</v>
+      </c>
+      <c r="G17">
+        <v>125135.3526923077</v>
+      </c>
+      <c r="H17">
+        <v>5.994505494505495</v>
+      </c>
+      <c r="I17">
+        <v>6.539338311541142</v>
+      </c>
+      <c r="J17">
+        <v>528423.5891488263</v>
+      </c>
+      <c r="K17">
+        <v>2.311387263112813</v>
+      </c>
+      <c r="L17">
+        <v>38</v>
+      </c>
+      <c r="M17">
+        <v>7191127.51</v>
+      </c>
+      <c r="N17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>5882.21</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>18.49478021978022</v>
+      </c>
+      <c r="G18">
+        <v>139693.6148901099</v>
+      </c>
+      <c r="H18">
+        <v>5.994505494505495</v>
+      </c>
+      <c r="I18">
+        <v>8.756102068391662</v>
+      </c>
+      <c r="J18">
+        <v>417838.4145677244</v>
+      </c>
+      <c r="K18">
+        <v>2.318547012969729</v>
+      </c>
+      <c r="L18">
+        <v>45</v>
+      </c>
+      <c r="M18">
+        <v>5696249.58</v>
+      </c>
+      <c r="N18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4745.06</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2.237226277372263</v>
+      </c>
+      <c r="G19">
+        <v>20355.23802919708</v>
+      </c>
+      <c r="H19">
+        <v>7.875912408759124</v>
+      </c>
+      <c r="I19">
+        <v>1.445174897784616</v>
+      </c>
+      <c r="J19">
+        <v>85768.11795303778</v>
+      </c>
+      <c r="K19">
+        <v>3.230018337851907</v>
+      </c>
+      <c r="L19">
+        <v>9</v>
+      </c>
+      <c r="M19">
+        <v>1012725.48</v>
+      </c>
+      <c r="N19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L2">
-        <v>46527.52</v>
-      </c>
-      <c r="M2">
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>11373.95</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>19.40978723404255</v>
+      </c>
+      <c r="G20">
+        <v>159511.4506914894</v>
+      </c>
+      <c r="H20">
+        <v>5.803191489361702</v>
+      </c>
+      <c r="I20">
+        <v>10.27668343457079</v>
+      </c>
+      <c r="J20">
+        <v>691064.9150094282</v>
+      </c>
+      <c r="K20">
+        <v>2.43165189457656</v>
+      </c>
+      <c r="L20">
+        <v>79</v>
+      </c>
+      <c r="M20">
+        <v>9551826.409999998</v>
+      </c>
+      <c r="N20">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21">
+        <v>4063.76</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>3.232258064516129</v>
+      </c>
+      <c r="G21">
+        <v>38335.15329032258</v>
+      </c>
+      <c r="H21">
+        <v>7.038709677419355</v>
+      </c>
+      <c r="I21">
+        <v>2.319648861802399</v>
+      </c>
+      <c r="J21">
+        <v>110507.2272489888</v>
+      </c>
+      <c r="K21">
+        <v>2.812042449864655</v>
+      </c>
+      <c r="L21">
+        <v>13</v>
+      </c>
+      <c r="M21">
+        <v>1374712.08</v>
+      </c>
+      <c r="N21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>5205.45</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>12.37603448275862</v>
+      </c>
+      <c r="G22">
+        <v>146133.7915517241</v>
+      </c>
+      <c r="H22">
+        <v>6.270114942528735</v>
+      </c>
+      <c r="I22">
+        <v>6.137149723375482</v>
+      </c>
+      <c r="J22">
+        <v>826401.8088127368</v>
+      </c>
+      <c r="K22">
+        <v>2.123777577945647</v>
+      </c>
+      <c r="L22">
+        <v>46</v>
+      </c>
+      <c r="M22">
+        <v>10970517.56</v>
+      </c>
+      <c r="N22">
         <v>14</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>5831.26</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>27.05461956521739</v>
+      </c>
+      <c r="G23">
+        <v>223185.2461956522</v>
+      </c>
+      <c r="H23">
+        <v>5.929347826086956</v>
+      </c>
+      <c r="I23">
+        <v>13.75749245907779</v>
+      </c>
+      <c r="J23">
+        <v>775249.2340050174</v>
+      </c>
+      <c r="K23">
+        <v>2.360977756309364</v>
+      </c>
+      <c r="L23">
+        <v>83</v>
+      </c>
+      <c r="M23">
+        <v>10619830.7</v>
+      </c>
+      <c r="N23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>5247.23</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>11.60969512195122</v>
+      </c>
+      <c r="G24">
+        <v>80769.76975609756</v>
+      </c>
+      <c r="H24">
+        <v>6.652439024390244</v>
+      </c>
+      <c r="I24">
+        <v>3.086738589709703</v>
+      </c>
+      <c r="J24">
+        <v>214240.6448047706</v>
+      </c>
+      <c r="K24">
+        <v>1.735923269469638</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>2797985.4</v>
+      </c>
+      <c r="N24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>6716.33</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2.380952380952381</v>
+      </c>
+      <c r="G25">
+        <v>16025.29285714286</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>0.9734572654303052</v>
+      </c>
+      <c r="J25">
+        <v>6691.287328735139</v>
+      </c>
+      <c r="K25">
+        <v>4.06201920231798</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>28105.11</v>
+      </c>
+      <c r="N25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>6806.3</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>3.25</v>
+      </c>
+      <c r="G26">
+        <v>22141.49875</v>
+      </c>
+      <c r="H26">
+        <v>6.125</v>
+      </c>
+      <c r="I26">
+        <v>1.66904592079256</v>
+      </c>
+      <c r="J26">
+        <v>11365.77124122303</v>
+      </c>
+      <c r="K26">
+        <v>2.587745847533828</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>40827.18</v>
+      </c>
+      <c r="N26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>6904.89</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>7.168895705521472</v>
+      </c>
+      <c r="G27">
+        <v>72992.99950920245</v>
+      </c>
+      <c r="H27">
+        <v>6.693251533742331</v>
+      </c>
+      <c r="I27">
+        <v>2.731324014424429</v>
+      </c>
+      <c r="J27">
+        <v>317913.1011515697</v>
+      </c>
+      <c r="K27">
+        <v>1.686296579012603</v>
+      </c>
+      <c r="L27">
+        <v>19</v>
+      </c>
+      <c r="M27">
+        <v>4098695.75</v>
+      </c>
+      <c r="N27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>155.04</v>
-      </c>
-      <c r="D3">
+      <c r="D28">
+        <v>12093.78</v>
+      </c>
+      <c r="E28">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>19.5916129032258</v>
-      </c>
-      <c r="F3">
-        <v>8287.011236559136</v>
-      </c>
-      <c r="G3">
-        <v>5.865591397849462</v>
-      </c>
-      <c r="H3">
-        <v>9.205339377782714</v>
-      </c>
-      <c r="I3">
-        <v>6442.038817013461</v>
-      </c>
-      <c r="J3">
-        <v>2.395536147116511</v>
-      </c>
-      <c r="K3">
-        <v>40</v>
-      </c>
-      <c r="L3">
-        <v>35029.53</v>
-      </c>
-      <c r="M3">
+      <c r="F28">
+        <v>9.071428571428571</v>
+      </c>
+      <c r="G28">
+        <v>127661.3635714286</v>
+      </c>
+      <c r="H28">
+        <v>6.5</v>
+      </c>
+      <c r="I28">
+        <v>4.214704765904282</v>
+      </c>
+      <c r="J28">
+        <v>285700.3141418238</v>
+      </c>
+      <c r="K28">
+        <v>1.911503636890643</v>
+      </c>
+      <c r="L28">
+        <v>17</v>
+      </c>
+      <c r="M28">
+        <v>1117384.89</v>
+      </c>
+      <c r="N28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>4497.25</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>4.523026315789473</v>
+      </c>
+      <c r="G29">
+        <v>36481.31131578948</v>
+      </c>
+      <c r="H29">
+        <v>7.177631578947368</v>
+      </c>
+      <c r="I29">
+        <v>2.748472673875073</v>
+      </c>
+      <c r="J29">
+        <v>126252.0106197685</v>
+      </c>
+      <c r="K29">
+        <v>2.310649040679878</v>
+      </c>
+      <c r="L29">
+        <v>15</v>
+      </c>
+      <c r="M29">
+        <v>1571210.63</v>
+      </c>
+      <c r="N29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>5927.44</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>6.857142857142857</v>
+      </c>
+      <c r="G30">
+        <v>41263.23285714286</v>
+      </c>
+      <c r="H30">
+        <v>6.142857142857143</v>
+      </c>
+      <c r="I30">
+        <v>3.891382420536067</v>
+      </c>
+      <c r="J30">
+        <v>23694.96442337817</v>
+      </c>
+      <c r="K30">
+        <v>2.794552524023088</v>
+      </c>
+      <c r="L30">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+      <c r="M30">
+        <v>85019.58</v>
+      </c>
+      <c r="N30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>156.71</v>
-      </c>
-      <c r="D4">
+      <c r="D31">
+        <v>14.97</v>
+      </c>
+      <c r="E31">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>27.75437158469946</v>
-      </c>
-      <c r="F4">
-        <v>10422.19612021858</v>
-      </c>
-      <c r="G4">
-        <v>5.961748633879782</v>
-      </c>
-      <c r="H4">
-        <v>15.04910670612628</v>
-      </c>
-      <c r="I4">
-        <v>8869.234489797464</v>
-      </c>
-      <c r="J4">
-        <v>2.340203147513638</v>
-      </c>
-      <c r="K4">
-        <v>136</v>
-      </c>
-      <c r="L4">
-        <v>63199.42999999999</v>
-      </c>
-      <c r="M4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+      <c r="F31">
+        <v>20.72169811320755</v>
+      </c>
+      <c r="G31">
+        <v>306.2024528301889</v>
+      </c>
+      <c r="H31">
+        <v>7.971698113207547</v>
+      </c>
+      <c r="I31">
+        <v>12.9025800647407</v>
+      </c>
+      <c r="J31">
+        <v>193.6420861467353</v>
+      </c>
+      <c r="K31">
+        <v>4.317092379456145</v>
+      </c>
+      <c r="L31">
+        <v>53</v>
+      </c>
+      <c r="M31">
+        <v>802.85</v>
+      </c>
+      <c r="N31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>15.01</v>
-      </c>
-      <c r="D5">
+      <c r="D32">
+        <v>13.6</v>
+      </c>
+      <c r="E32">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>2.208029197080292</v>
-      </c>
-      <c r="F5">
-        <v>1254.697153284671</v>
-      </c>
-      <c r="G5">
-        <v>7.875912408759124</v>
-      </c>
-      <c r="H5">
-        <v>1.403307982325658</v>
-      </c>
-      <c r="I5">
-        <v>1707.995087881656</v>
-      </c>
-      <c r="J5">
-        <v>3.230018337851907</v>
-      </c>
-      <c r="K5">
-        <v>9</v>
-      </c>
-      <c r="L5">
-        <v>11877.06</v>
-      </c>
-      <c r="M5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>0.5</v>
-      </c>
-      <c r="C6">
-        <v>84.34999999999999</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>3.206451612903226</v>
-      </c>
-      <c r="F6">
-        <v>1848.905741935484</v>
-      </c>
-      <c r="G6">
-        <v>7.038709677419355</v>
-      </c>
-      <c r="H6">
-        <v>2.310891136914385</v>
-      </c>
-      <c r="I6">
-        <v>1704.847679181434</v>
-      </c>
-      <c r="J6">
-        <v>2.812042449864655</v>
-      </c>
-      <c r="K6">
-        <v>13</v>
-      </c>
-      <c r="L6">
-        <v>10348.97</v>
-      </c>
-      <c r="M6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>503.77</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>12.43947976878612</v>
-      </c>
-      <c r="F7">
-        <v>8707.869537572255</v>
-      </c>
-      <c r="G7">
-        <v>6.30635838150289</v>
-      </c>
-      <c r="H7">
-        <v>5.475318432483021</v>
-      </c>
-      <c r="I7">
-        <v>4250.743313620629</v>
-      </c>
-      <c r="J7">
-        <v>2.092015560021987</v>
-      </c>
-      <c r="K7">
-        <v>31</v>
-      </c>
-      <c r="L7">
-        <v>24330.7</v>
-      </c>
-      <c r="M7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>217.04</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>11.78042682926829</v>
-      </c>
-      <c r="F8">
-        <v>8137.739390243901</v>
-      </c>
-      <c r="G8">
-        <v>6.652439024390244</v>
-      </c>
-      <c r="H8">
-        <v>3.00514208612561</v>
-      </c>
-      <c r="I8">
-        <v>7239.177691076353</v>
-      </c>
-      <c r="J8">
-        <v>1.735923269469638</v>
-      </c>
-      <c r="K8">
-        <v>19</v>
-      </c>
-      <c r="L8">
-        <v>34698.52</v>
-      </c>
-      <c r="M8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>400.01</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>7.089141104294479</v>
-      </c>
-      <c r="F9">
-        <v>5275.455214723926</v>
-      </c>
-      <c r="G9">
-        <v>6.693251533742331</v>
-      </c>
-      <c r="H9">
-        <v>2.563870145296362</v>
-      </c>
-      <c r="I9">
-        <v>4771.685332810069</v>
-      </c>
-      <c r="J9">
-        <v>1.686296579012603</v>
-      </c>
-      <c r="K9">
-        <v>18</v>
-      </c>
-      <c r="L9">
-        <v>34923.19</v>
-      </c>
-      <c r="M9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>316.24</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>8.214285714285714</v>
-      </c>
-      <c r="F10">
-        <v>3449.685</v>
-      </c>
-      <c r="G10">
-        <v>6.5</v>
-      </c>
-      <c r="H10">
-        <v>3.662251754329283</v>
-      </c>
-      <c r="I10">
-        <v>2420.975058428859</v>
-      </c>
-      <c r="J10">
-        <v>1.911503636890643</v>
-      </c>
-      <c r="K10">
-        <v>14</v>
-      </c>
-      <c r="L10">
-        <v>9379.83</v>
-      </c>
-      <c r="M10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>25.44</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>4.483552631578948</v>
-      </c>
-      <c r="F11">
-        <v>3450.240592105263</v>
-      </c>
-      <c r="G11">
-        <v>7.177631578947368</v>
-      </c>
-      <c r="H11">
-        <v>2.657874569839527</v>
-      </c>
-      <c r="I11">
-        <v>3842.755160292756</v>
-      </c>
-      <c r="J11">
-        <v>2.310649040679878</v>
-      </c>
-      <c r="K11">
-        <v>13</v>
-      </c>
-      <c r="L11">
-        <v>24867.31</v>
-      </c>
-      <c r="M11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>438.56</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>18.62664835164835</v>
-      </c>
-      <c r="F12">
-        <v>7932.862142857148</v>
-      </c>
-      <c r="G12">
-        <v>5.994505494505495</v>
-      </c>
-      <c r="H12">
-        <v>8.413430875162033</v>
-      </c>
-      <c r="I12">
-        <v>5989.379151681685</v>
-      </c>
-      <c r="J12">
-        <v>2.318547012969729</v>
-      </c>
-      <c r="K12">
-        <v>38</v>
-      </c>
-      <c r="L12">
-        <v>30208.26</v>
-      </c>
-      <c r="M12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>89.58</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>14.33333333333333</v>
-      </c>
-      <c r="F13">
-        <v>213.99</v>
-      </c>
-      <c r="G13">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>12.74100990241093</v>
-      </c>
-      <c r="I13">
-        <v>190.2117664604374</v>
-      </c>
-      <c r="J13">
-        <v>22.71563338320109</v>
-      </c>
-      <c r="K13">
-        <v>29</v>
-      </c>
-      <c r="L13">
-        <v>432.95</v>
-      </c>
-      <c r="M13">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>12498.2</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>5.5</v>
-      </c>
-      <c r="F14">
-        <v>34103.74166666667</v>
-      </c>
-      <c r="G14">
-        <v>5.833333333333333</v>
-      </c>
-      <c r="H14">
-        <v>3.016620625799671</v>
-      </c>
-      <c r="I14">
-        <v>18674.96639629364</v>
-      </c>
-      <c r="J14">
-        <v>2.926886855802025</v>
-      </c>
-      <c r="K14">
-        <v>9</v>
-      </c>
-      <c r="L14">
-        <v>55875.8</v>
-      </c>
-      <c r="M14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>14953.07</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>8.666666666666666</v>
-      </c>
-      <c r="F15">
-        <v>47573.035</v>
-      </c>
-      <c r="G15">
-        <v>8.166666666666666</v>
-      </c>
-      <c r="H15">
-        <v>4.802776974487434</v>
-      </c>
-      <c r="I15">
-        <v>27395.38726987574</v>
-      </c>
-      <c r="J15">
-        <v>3.430257521916783</v>
-      </c>
-      <c r="K15">
-        <v>16</v>
-      </c>
-      <c r="L15">
-        <v>90489.39999999999</v>
-      </c>
-      <c r="M15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>12963.42</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>8.714285714285714</v>
-      </c>
-      <c r="F16">
-        <v>53188.66857142857</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <v>5.186980037050644</v>
-      </c>
-      <c r="I16">
-        <v>32203.84474308796</v>
-      </c>
-      <c r="J16">
-        <v>2.70801280154532</v>
-      </c>
-      <c r="K16">
-        <v>16</v>
-      </c>
-      <c r="L16">
-        <v>97156.34</v>
-      </c>
-      <c r="M16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>5647.38</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>14.06054945054945</v>
-      </c>
-      <c r="F17">
-        <v>125135.3526923077</v>
-      </c>
-      <c r="G17">
-        <v>5.994505494505495</v>
-      </c>
-      <c r="H17">
-        <v>6.539338311541142</v>
-      </c>
-      <c r="I17">
-        <v>528423.5891488263</v>
-      </c>
-      <c r="J17">
-        <v>2.311387263112813</v>
-      </c>
-      <c r="K17">
-        <v>38</v>
-      </c>
-      <c r="L17">
-        <v>7191127.51</v>
-      </c>
-      <c r="M17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>5882.21</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>18.49478021978022</v>
-      </c>
-      <c r="F18">
-        <v>139693.6148901099</v>
-      </c>
-      <c r="G18">
-        <v>5.994505494505495</v>
-      </c>
-      <c r="H18">
-        <v>8.756102068391662</v>
-      </c>
-      <c r="I18">
-        <v>417838.4145677244</v>
-      </c>
-      <c r="J18">
-        <v>2.318547012969729</v>
-      </c>
-      <c r="K18">
-        <v>45</v>
-      </c>
-      <c r="L18">
-        <v>5696249.58</v>
-      </c>
-      <c r="M18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>4745.06</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>2.237226277372263</v>
-      </c>
-      <c r="F19">
-        <v>20355.23802919708</v>
-      </c>
-      <c r="G19">
-        <v>7.875912408759124</v>
-      </c>
-      <c r="H19">
-        <v>1.445174897784616</v>
-      </c>
-      <c r="I19">
-        <v>85768.11795303778</v>
-      </c>
-      <c r="J19">
-        <v>3.230018337851907</v>
-      </c>
-      <c r="K19">
-        <v>9</v>
-      </c>
-      <c r="L19">
-        <v>1012725.48</v>
-      </c>
-      <c r="M19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>11373.95</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>19.40978723404255</v>
-      </c>
-      <c r="F20">
-        <v>159511.4506914894</v>
-      </c>
-      <c r="G20">
-        <v>5.803191489361702</v>
-      </c>
-      <c r="H20">
-        <v>10.27668343457079</v>
-      </c>
-      <c r="I20">
-        <v>691064.9150094282</v>
-      </c>
-      <c r="J20">
-        <v>2.43165189457656</v>
-      </c>
-      <c r="K20">
-        <v>79</v>
-      </c>
-      <c r="L20">
-        <v>9551826.409999998</v>
-      </c>
-      <c r="M20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>0.5</v>
-      </c>
-      <c r="C21">
-        <v>4063.76</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>3.232258064516129</v>
-      </c>
-      <c r="F21">
-        <v>38335.15329032258</v>
-      </c>
-      <c r="G21">
-        <v>7.038709677419355</v>
-      </c>
-      <c r="H21">
-        <v>2.319648861802399</v>
-      </c>
-      <c r="I21">
-        <v>110507.2272489888</v>
-      </c>
-      <c r="J21">
-        <v>2.812042449864655</v>
-      </c>
-      <c r="K21">
-        <v>13</v>
-      </c>
-      <c r="L21">
-        <v>1374712.08</v>
-      </c>
-      <c r="M21">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>5205.45</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>12.37603448275862</v>
-      </c>
-      <c r="F22">
-        <v>146133.7915517241</v>
-      </c>
-      <c r="G22">
-        <v>6.270114942528735</v>
-      </c>
-      <c r="H22">
-        <v>6.137149723375482</v>
-      </c>
-      <c r="I22">
-        <v>826401.8088127368</v>
-      </c>
-      <c r="J22">
-        <v>2.123777577945647</v>
-      </c>
-      <c r="K22">
-        <v>46</v>
-      </c>
-      <c r="L22">
-        <v>10970517.56</v>
-      </c>
-      <c r="M22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>5831.26</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>27.05461956521739</v>
-      </c>
-      <c r="F23">
-        <v>223185.2461956522</v>
-      </c>
-      <c r="G23">
-        <v>5.929347826086956</v>
-      </c>
-      <c r="H23">
-        <v>13.75749245907779</v>
-      </c>
-      <c r="I23">
-        <v>775249.2340050174</v>
-      </c>
-      <c r="J23">
-        <v>2.360977756309364</v>
-      </c>
-      <c r="K23">
-        <v>83</v>
-      </c>
-      <c r="L23">
-        <v>10619830.7</v>
-      </c>
-      <c r="M23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>5247.23</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>11.60969512195122</v>
-      </c>
-      <c r="F24">
-        <v>80769.76975609756</v>
-      </c>
-      <c r="G24">
-        <v>6.652439024390244</v>
-      </c>
-      <c r="H24">
-        <v>3.086738589709703</v>
-      </c>
-      <c r="I24">
-        <v>214240.6448047706</v>
-      </c>
-      <c r="J24">
-        <v>1.735923269469638</v>
-      </c>
-      <c r="K24">
-        <v>30</v>
-      </c>
-      <c r="L24">
-        <v>2797985.4</v>
-      </c>
-      <c r="M24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>6716.33</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>2.380952380952381</v>
-      </c>
-      <c r="F25">
-        <v>16025.29285714286</v>
-      </c>
-      <c r="G25">
-        <v>8</v>
-      </c>
-      <c r="H25">
-        <v>0.9734572654303052</v>
-      </c>
-      <c r="I25">
-        <v>6691.287328735139</v>
-      </c>
-      <c r="J25">
-        <v>4.06201920231798</v>
-      </c>
-      <c r="K25">
-        <v>4</v>
-      </c>
-      <c r="L25">
-        <v>28105.11</v>
-      </c>
-      <c r="M25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>6806.3</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>3.25</v>
-      </c>
-      <c r="F26">
-        <v>22141.49875</v>
-      </c>
-      <c r="G26">
-        <v>6.125</v>
-      </c>
-      <c r="H26">
-        <v>1.66904592079256</v>
-      </c>
-      <c r="I26">
-        <v>11365.77124122303</v>
-      </c>
-      <c r="J26">
-        <v>2.587745847533828</v>
-      </c>
-      <c r="K26">
-        <v>6</v>
-      </c>
-      <c r="L26">
-        <v>40827.18</v>
-      </c>
-      <c r="M26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>6904.89</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>7.168895705521472</v>
-      </c>
-      <c r="F27">
-        <v>72992.99950920245</v>
-      </c>
-      <c r="G27">
-        <v>6.693251533742331</v>
-      </c>
-      <c r="H27">
-        <v>2.731324014424429</v>
-      </c>
-      <c r="I27">
-        <v>317913.1011515697</v>
-      </c>
-      <c r="J27">
-        <v>1.686296579012603</v>
-      </c>
-      <c r="K27">
-        <v>19</v>
-      </c>
-      <c r="L27">
-        <v>4098695.75</v>
-      </c>
-      <c r="M27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>12093.78</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>9.071428571428571</v>
-      </c>
-      <c r="F28">
-        <v>127661.3635714286</v>
-      </c>
-      <c r="G28">
-        <v>6.5</v>
-      </c>
-      <c r="H28">
-        <v>4.214704765904282</v>
-      </c>
-      <c r="I28">
-        <v>285700.3141418238</v>
-      </c>
-      <c r="J28">
-        <v>1.911503636890643</v>
-      </c>
-      <c r="K28">
-        <v>17</v>
-      </c>
-      <c r="L28">
-        <v>1117384.89</v>
-      </c>
-      <c r="M28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>4497.25</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>4.523026315789473</v>
-      </c>
-      <c r="F29">
-        <v>36481.31131578948</v>
-      </c>
-      <c r="G29">
-        <v>7.177631578947368</v>
-      </c>
-      <c r="H29">
-        <v>2.748472673875073</v>
-      </c>
-      <c r="I29">
-        <v>126252.0106197685</v>
-      </c>
-      <c r="J29">
-        <v>2.310649040679878</v>
-      </c>
-      <c r="K29">
-        <v>15</v>
-      </c>
-      <c r="L29">
-        <v>1571210.63</v>
-      </c>
-      <c r="M29">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>5927.44</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>6.857142857142857</v>
-      </c>
-      <c r="F30">
-        <v>41263.23285714286</v>
-      </c>
-      <c r="G30">
-        <v>6.142857142857143</v>
-      </c>
-      <c r="H30">
-        <v>3.891382420536067</v>
-      </c>
-      <c r="I30">
-        <v>23694.96442337817</v>
-      </c>
-      <c r="J30">
-        <v>2.794552524023088</v>
-      </c>
-      <c r="K30">
-        <v>14</v>
-      </c>
-      <c r="L30">
-        <v>85019.58</v>
-      </c>
-      <c r="M30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>14.97</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>20.72169811320755</v>
-      </c>
-      <c r="F31">
-        <v>306.2024528301889</v>
-      </c>
-      <c r="G31">
-        <v>7.971698113207547</v>
-      </c>
-      <c r="H31">
-        <v>12.9025800647407</v>
-      </c>
-      <c r="I31">
-        <v>193.6420861467353</v>
-      </c>
-      <c r="J31">
-        <v>4.317092379456145</v>
-      </c>
-      <c r="K31">
-        <v>53</v>
-      </c>
-      <c r="L31">
-        <v>802.85</v>
-      </c>
-      <c r="M31">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1" t="s">
+      <c r="F32">
+        <v>8.844827586206897</v>
+      </c>
+      <c r="G32">
+        <v>129.7215517241379</v>
+      </c>
+      <c r="H32">
+        <v>13.51724137931035</v>
+      </c>
+      <c r="I32">
+        <v>9.915081059975876</v>
+      </c>
+      <c r="J32">
+        <v>145.6638459857986</v>
+      </c>
+      <c r="K32">
+        <v>13.05755327462466</v>
+      </c>
+      <c r="L32">
         <v>43</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>13.6</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>8.844827586206897</v>
-      </c>
-      <c r="F32">
-        <v>129.7215517241379</v>
-      </c>
-      <c r="G32">
-        <v>13.51724137931035</v>
-      </c>
-      <c r="H32">
-        <v>9.915081059975876</v>
-      </c>
-      <c r="I32">
-        <v>145.6638459857986</v>
-      </c>
-      <c r="J32">
-        <v>13.05755327462466</v>
-      </c>
-      <c r="K32">
-        <v>43</v>
-      </c>
-      <c r="L32">
+      <c r="M32">
         <v>651.36</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>62</v>
       </c>
     </row>
@@ -1948,1025 +2047,1100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>739.53</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>53.38461538461539</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>19893.63243589743</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6.993589743589744</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>14.14759140036783</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>16181.23786542448</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3.947227356613418</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>85.5</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>69511.14</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>38286.67</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>10.13333333333333</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>54478.62133333334</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>38.26666666666667</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.767430203377074</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>10765.92325095243</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>123.0461392362734</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>12</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>76383.28</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>17430.5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>9.681818181818182</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>53107.43363636366</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>24.13636363636364</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.437531218581301</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>14371.80091802381</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>65.31410950501355</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>12</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>73704.32000000001</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>14523.89</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>9</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>190205.5879166666</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>23</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3.956282840374722</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>705873.1733293001</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>49.11742805899384</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>24</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3503609.44</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>11062.6</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>9.967289719626168</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>57410.86570093456</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>10.19626168224299</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5.006256005125544</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>30420.38128246373</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>16.87883527476831</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>24</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>156040.88</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>18212.21</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.800000000000001</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>50333.446</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>12.6</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4.54972526643093</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>27085.90995317824</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>16.71227094083865</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>15</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>88805.95</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
         <v>2.5</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>14027.83</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7.722222222222222</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>41117.94666666668</v>
       </c>
-      <c r="G8">
-        <v>46</v>
-      </c>
       <c r="H8">
+        <v>46</v>
+      </c>
+      <c r="I8">
         <v>3.545341231030441</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>19377.12672808265</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>111.5291441731712</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>12</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>63971.35</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>436.15</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>11.41208791208791</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>63154.53956043961</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>11.21978021978022</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5.472960506279642</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>30136.15298055142</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>20.72239915207278</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>24</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>141459.7</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>15208.31</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>9.462765957446809</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>86932.47297872341</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>11.17021276595745</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3.019861993661983</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>332192.1374461337</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>21.99835687797132</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>18</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3266811.7</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>13169.84</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>9.563636363636364</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>88054.67327272728</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>9.736363636363636</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3.932987455519157</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>388511.5010508118</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>14.84703490166109</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>24</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4120138.88</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
         <v>2.5</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>11648.67</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>8.785714285714286</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>45867.87000000001</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>23.64285714285714</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2.564159295360969</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>13599.35239787255</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>59.57730023954385</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>12</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>65925.60000000001</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>24826.7</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>9.722222222222221</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>55833.69666666666</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>47.77777777777778</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2.371536001526426</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>11927.01412977527</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>113.6545620603246</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>16</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>79669.7</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>453</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
         <v>2.5</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>14253.07</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>5.75</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>70344.2123076923</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>7.807692307692307</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.583992187491485</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>188395.0801122385</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4.766711493423791</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>12.5</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>987894</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>23858.95</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>10.35294117647059</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>165069.744117647</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>7.509803921568627</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2.978748256645833</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>761203.4017224516</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5.131754277124375</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>24</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>5493688.53</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>10033.52</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>11.54794520547945</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>64703.96917808219</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>13.71232876712329</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>5.96585445098095</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>32760.70817303972</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>37.77472679953225</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>27.5</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>147549.74</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
         <v>9</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>40767.68</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>40767.68</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>9</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>40767.68</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>15097.09</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>13.54464285714286</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>69153.90482142856</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>13.23214285714286</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5.761373562326551</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>29696.24687513345</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>33.82252668988986</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>27</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>144758.97</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>12771.47</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>8.014285714285714</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>84970.715</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>14.38571428571429</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2.815551312362569</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>344407.7950559345</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>32.16411397416802</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>18</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2921829.33</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20">
         <v>2.5</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>13277.87</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>8.518518518518519</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>76627.77018518519</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>18.7962962962963</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2.273645072289195</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>244746.3361464776</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>35.05003411815939</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>13.5</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1839808.03</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>43935.22</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>10</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>45201.235</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>6.5</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1790.415583167773</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>9.192388155425117</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>10</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>46467.25</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>14737.13</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>4</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>8.515151515151516</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>43653.96272727273</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>23.57575757575757</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2.72856661226655</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>13893.98720473205</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>81.79052141867905</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>15</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>71960.09</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
         <v>9</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>46628.16</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>52376.73333333334</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>143</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1.732050807568877</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>6670.308948087287</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>240.788288751758</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>12</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>59690.44</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>421</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24">
         <v>16</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>467.39</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1290.192307692308</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>35398.72647435897</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>6.987179487179487</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>225.898438938033</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>13035.37672354442</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1.630306440567894</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2870</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>131905.75</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25">
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>27687.05</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>8.6</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>43919.51</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>54.4</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>3.049590136395381</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>14595.64893754128</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>70.76227808656247</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>12</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>58849.15</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>154</v>
       </c>
     </row>
@@ -2985,13 +3159,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3014,13 +3188,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>3.900621118012422</v>
@@ -3044,10 +3218,10 @@
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>5.894409937888199</v>
@@ -3071,10 +3245,10 @@
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>7.276729559748428</v>
@@ -3098,10 +3272,10 @@
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>1.030612244897959</v>
@@ -3125,10 +3299,10 @@
     <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>3.391025641025641</v>
@@ -3152,10 +3326,10 @@
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>2.9</v>
@@ -3179,10 +3353,10 @@
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>5.19496855345912</v>
@@ -3206,10 +3380,10 @@
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>3.919254658385093</v>
@@ -3233,10 +3407,10 @@
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>5.213836477987422</v>
@@ -3260,10 +3434,10 @@
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>5.931677018633541</v>
@@ -3287,10 +3461,10 @@
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>1.030612244897959</v>
@@ -3314,10 +3488,10 @@
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>3.422929936305732</v>
@@ -3341,10 +3515,10 @@
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>7.320754716981132</v>
@@ -3368,10 +3542,10 @@
     <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D15">
         <v>2.9</v>
@@ -3394,13 +3568,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>2.35593220338983</v>
@@ -3424,10 +3598,10 @@
     <row r="17" spans="1:9">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3442,10 +3616,10 @@
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>1.867768595041322</v>
@@ -3469,10 +3643,10 @@
     <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>6.880691823899371</v>
@@ -3496,10 +3670,10 @@
     <row r="20" spans="1:9">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>2.35593220338983</v>
@@ -3523,10 +3697,10 @@
     <row r="21" spans="1:9">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>1.884297520661157</v>
@@ -3550,10 +3724,10 @@
     <row r="22" spans="1:9">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>6.816645569620253</v>
@@ -3577,10 +3751,10 @@
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3595,10 +3769,10 @@
     <row r="24" spans="1:9">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>3.428571428571428</v>
@@ -3621,13 +3795,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D25">
         <v>7.604651162790698</v>
@@ -3651,10 +3825,10 @@
     <row r="26" spans="1:9">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -3678,10 +3852,10 @@
     <row r="27" spans="1:9">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D27">
         <v>11.47619047619048</v>
@@ -3705,10 +3879,10 @@
     <row r="28" spans="1:9">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D28">
         <v>2.151515151515151</v>
@@ -3732,10 +3906,10 @@
     <row r="29" spans="1:9">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D29">
         <v>6.607843137254902</v>
@@ -3759,10 +3933,10 @@
     <row r="30" spans="1:9">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D30">
         <v>7.978723404255319</v>
@@ -3786,10 +3960,10 @@
     <row r="31" spans="1:9">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>7.954545454545454</v>
@@ -3813,10 +3987,10 @@
     <row r="32" spans="1:9">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>8.127659574468085</v>
@@ -3840,10 +4014,10 @@
     <row r="33" spans="1:9">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D33">
         <v>8.25</v>
@@ -3867,10 +4041,10 @@
     <row r="34" spans="1:9">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D34">
         <v>2.151515151515151</v>
@@ -3894,10 +4068,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>6.84313725490196</v>
@@ -3921,10 +4095,10 @@
     <row r="36" spans="1:9">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D36">
         <v>11.6046511627907</v>
@@ -3947,13 +4121,13 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D37">
         <v>5.5</v>
@@ -3977,10 +4151,10 @@
     <row r="38" spans="1:9">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D38">
         <v>2.5</v>
@@ -4004,10 +4178,10 @@
     <row r="39" spans="1:9">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D39">
         <v>1.5</v>
@@ -4031,10 +4205,10 @@
     <row r="40" spans="1:9">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4049,10 +4223,10 @@
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D41">
         <v>5.5</v>
@@ -4076,10 +4250,10 @@
     <row r="42" spans="1:9">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D42">
         <v>2.5</v>
@@ -4103,10 +4277,10 @@
     <row r="43" spans="1:9">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D43">
         <v>1.5</v>
@@ -4129,13 +4303,13 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -4150,10 +4324,10 @@
     <row r="45" spans="1:9">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -4167,13 +4341,13 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D46">
         <v>1.254464285714286</v>
@@ -4197,10 +4371,10 @@
     <row r="47" spans="1:9">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -4215,10 +4389,10 @@
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -4242,10 +4416,10 @@
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D49">
         <v>3.243589743589744</v>
@@ -4269,10 +4443,10 @@
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D50">
         <v>1.782608695652174</v>
@@ -4296,10 +4470,10 @@
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D51">
         <v>1.63302752293578</v>
@@ -4323,10 +4497,10 @@
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D52">
         <v>1.263392857142857</v>
@@ -4350,10 +4524,10 @@
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -4368,10 +4542,10 @@
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -4395,10 +4569,10 @@
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D55">
         <v>3.171974522292994</v>
@@ -4422,10 +4596,10 @@
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -4449,10 +4623,10 @@
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D57">
         <v>1.804347826086957</v>
@@ -4476,10 +4650,10 @@
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D58">
         <v>1.660550458715596</v>
@@ -4503,10 +4677,10 @@
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D59">
         <v>20.7</v>
@@ -4530,10 +4704,10 @@
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D60">
         <v>16</v>
@@ -4547,13 +4721,13 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D61">
         <v>1.755555555555556</v>
@@ -4577,10 +4751,10 @@
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D62">
         <v>1.24</v>
@@ -4604,10 +4778,10 @@
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D63">
         <v>6.748343949044586</v>
@@ -4631,10 +4805,10 @@
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D64">
         <v>4.360063694267516</v>
@@ -4658,10 +4832,10 @@
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D65">
         <v>2.803571428571428</v>
@@ -4685,10 +4859,10 @@
     <row r="66" spans="1:9">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D66">
         <v>1.777777777777778</v>
@@ -4712,10 +4886,10 @@
     <row r="67" spans="1:9">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D67">
         <v>1.24</v>
@@ -4739,10 +4913,10 @@
     <row r="68" spans="1:9">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D68">
         <v>6.646433121019109</v>
@@ -4766,10 +4940,10 @@
     <row r="69" spans="1:9">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D69">
         <v>1.333333333333333</v>
@@ -4793,10 +4967,10 @@
     <row r="70" spans="1:9">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D70">
         <v>4.385541401273885</v>
@@ -4820,10 +4994,10 @@
     <row r="71" spans="1:9">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D71">
         <v>2.825</v>
@@ -4847,10 +5021,10 @@
     <row r="72" spans="1:9">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D72">
         <v>7.789473684210527</v>
@@ -4873,13 +5047,13 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D73">
         <v>7.875900621118013</v>
@@ -4903,10 +5077,10 @@
     <row r="74" spans="1:9">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D74">
         <v>13.62523809523809</v>
@@ -4930,10 +5104,10 @@
     <row r="75" spans="1:9">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D75">
         <v>18.50928143712575</v>
@@ -4957,10 +5131,10 @@
     <row r="76" spans="1:9">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -4984,10 +5158,10 @@
     <row r="77" spans="1:9">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D77">
         <v>7.166666666666667</v>
@@ -5011,10 +5185,10 @@
     <row r="78" spans="1:9">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D78">
         <v>12.2730303030303</v>
@@ -5038,10 +5212,10 @@
     <row r="79" spans="1:9">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D79">
         <v>5.5</v>
@@ -5065,10 +5239,10 @@
     <row r="80" spans="1:9">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D80">
         <v>8.666666666666666</v>
@@ -5092,10 +5266,10 @@
     <row r="81" spans="1:9">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D81">
         <v>8.714285714285714</v>
@@ -5119,10 +5293,10 @@
     <row r="82" spans="1:9">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D82">
         <v>7.886202531645569</v>
@@ -5146,10 +5320,10 @@
     <row r="83" spans="1:9">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D83">
         <v>12.0669696969697</v>
@@ -5173,10 +5347,10 @@
     <row r="84" spans="1:9">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D84">
         <v>13.59904191616766</v>
@@ -5200,10 +5374,10 @@
     <row r="85" spans="1:9">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D85">
         <v>18.44006024096386</v>
@@ -5227,10 +5401,10 @@
     <row r="86" spans="1:9">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -5254,10 +5428,10 @@
     <row r="87" spans="1:9">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D87">
         <v>8.166666666666666</v>
@@ -5281,10 +5455,10 @@
     <row r="88" spans="1:9">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D88">
         <v>6.857142857142857</v>
@@ -5307,13 +5481,13 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D89">
         <v>8.391304347826088</v>
@@ -5337,10 +5511,10 @@
     <row r="90" spans="1:9">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D90">
         <v>9.615384615384615</v>
@@ -5364,10 +5538,10 @@
     <row r="91" spans="1:9">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D91">
         <v>15.81818181818182</v>
@@ -5391,10 +5565,10 @@
     <row r="92" spans="1:9">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -5418,10 +5592,10 @@
     <row r="93" spans="1:9">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D93">
         <v>5.571428571428571</v>
@@ -5445,10 +5619,10 @@
     <row r="94" spans="1:9">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D94">
         <v>5.210526315789473</v>
@@ -5472,10 +5646,10 @@
     <row r="95" spans="1:9">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D95">
         <v>2.055555555555555</v>
@@ -5499,10 +5673,10 @@
     <row r="96" spans="1:9">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D96">
         <v>9.647058823529411</v>
@@ -5526,10 +5700,10 @@
     <row r="97" spans="1:9">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D97">
         <v>8.391304347826088</v>
@@ -5553,10 +5727,10 @@
     <row r="98" spans="1:9">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D98">
         <v>9.647058823529411</v>
@@ -5580,10 +5754,10 @@
     <row r="99" spans="1:9">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5607,10 +5781,10 @@
     <row r="100" spans="1:9">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D100">
         <v>9.615384615384615</v>
@@ -5634,10 +5808,10 @@
     <row r="101" spans="1:9">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D101">
         <v>5.571428571428571</v>
@@ -5661,10 +5835,10 @@
     <row r="102" spans="1:9">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D102">
         <v>5.210526315789473</v>
@@ -5688,10 +5862,10 @@
     <row r="103" spans="1:9">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D103">
         <v>11.5</v>
@@ -5715,10 +5889,10 @@
     <row r="104" spans="1:9">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D104">
         <v>2.055555555555555</v>
@@ -5741,13 +5915,13 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -5762,10 +5936,10 @@
     <row r="106" spans="1:9">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D106">
         <v>1.25</v>
@@ -5789,10 +5963,10 @@
     <row r="107" spans="1:9">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D107">
         <v>3.781914893617021</v>
@@ -5816,10 +5990,10 @@
     <row r="108" spans="1:9">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D108">
         <v>2.857142857142857</v>
@@ -5843,10 +6017,10 @@
     <row r="109" spans="1:9">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D109">
         <v>1.69047619047619</v>
@@ -5870,10 +6044,10 @@
     <row r="110" spans="1:9">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D110">
         <v>14.33333333333333</v>
@@ -5897,10 +6071,10 @@
     <row r="111" spans="1:9">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -5924,10 +6098,10 @@
     <row r="112" spans="1:9">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D112">
         <v>1.3125</v>
@@ -5951,10 +6125,10 @@
     <row r="113" spans="1:9">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D113">
         <v>3.7</v>
@@ -5978,10 +6152,10 @@
     <row r="114" spans="1:9">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D114">
         <v>1.071428571428571</v>
@@ -6005,10 +6179,10 @@
     <row r="115" spans="1:9">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D115">
         <v>2.935064935064935</v>
@@ -6032,10 +6206,10 @@
     <row r="116" spans="1:9">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D116">
         <v>1.69047619047619</v>
@@ -6059,10 +6233,10 @@
     <row r="117" spans="1:9">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D117">
         <v>23</v>
@@ -6077,10 +6251,10 @@
     <row r="118" spans="1:9">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D118">
         <v>13.25</v>
@@ -6128,13 +6302,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -6157,13 +6331,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>3.900621118012422</v>
@@ -6187,10 +6361,10 @@
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>5.894409937888199</v>
@@ -6214,10 +6388,10 @@
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>7.276729559748428</v>
@@ -6241,10 +6415,10 @@
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>1.030612244897959</v>
@@ -6268,10 +6442,10 @@
     <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>3.391025641025641</v>
@@ -6295,10 +6469,10 @@
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>2.9</v>
@@ -6322,10 +6496,10 @@
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>5.19496855345912</v>
@@ -6349,10 +6523,10 @@
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>3.919254658385093</v>
@@ -6376,10 +6550,10 @@
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>5.213836477987422</v>
@@ -6403,10 +6577,10 @@
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>5.931677018633541</v>
@@ -6430,10 +6604,10 @@
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>1.030612244897959</v>
@@ -6457,10 +6631,10 @@
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>3.422929936305732</v>
@@ -6484,10 +6658,10 @@
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>7.320754716981132</v>
@@ -6511,10 +6685,10 @@
     <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D15">
         <v>2.9</v>
@@ -6537,13 +6711,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>2.35593220338983</v>
@@ -6567,10 +6741,10 @@
     <row r="17" spans="1:9">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -6585,10 +6759,10 @@
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>1.867768595041322</v>
@@ -6612,10 +6786,10 @@
     <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>6.880691823899371</v>
@@ -6639,10 +6813,10 @@
     <row r="20" spans="1:9">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>2.35593220338983</v>
@@ -6666,10 +6840,10 @@
     <row r="21" spans="1:9">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>1.884297520661157</v>
@@ -6693,10 +6867,10 @@
     <row r="22" spans="1:9">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>6.816645569620253</v>
@@ -6720,10 +6894,10 @@
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -6738,10 +6912,10 @@
     <row r="24" spans="1:9">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>3.428571428571428</v>
@@ -6764,13 +6938,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D25">
         <v>7.604651162790698</v>
@@ -6794,10 +6968,10 @@
     <row r="26" spans="1:9">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -6821,10 +6995,10 @@
     <row r="27" spans="1:9">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D27">
         <v>11.47619047619048</v>
@@ -6848,10 +7022,10 @@
     <row r="28" spans="1:9">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D28">
         <v>2.151515151515151</v>
@@ -6875,10 +7049,10 @@
     <row r="29" spans="1:9">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D29">
         <v>6.607843137254902</v>
@@ -6902,10 +7076,10 @@
     <row r="30" spans="1:9">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D30">
         <v>7.978723404255319</v>
@@ -6929,10 +7103,10 @@
     <row r="31" spans="1:9">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>7.954545454545454</v>
@@ -6956,10 +7130,10 @@
     <row r="32" spans="1:9">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>8.127659574468085</v>
@@ -6983,10 +7157,10 @@
     <row r="33" spans="1:9">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D33">
         <v>8.25</v>
@@ -7010,10 +7184,10 @@
     <row r="34" spans="1:9">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D34">
         <v>2.151515151515151</v>
@@ -7037,10 +7211,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>6.84313725490196</v>
@@ -7064,10 +7238,10 @@
     <row r="36" spans="1:9">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D36">
         <v>11.6046511627907</v>
@@ -7090,13 +7264,13 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D37">
         <v>5.5</v>
@@ -7120,10 +7294,10 @@
     <row r="38" spans="1:9">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D38">
         <v>2.5</v>
@@ -7147,10 +7321,10 @@
     <row r="39" spans="1:9">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D39">
         <v>1.5</v>
@@ -7174,10 +7348,10 @@
     <row r="40" spans="1:9">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -7192,10 +7366,10 @@
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D41">
         <v>5.5</v>
@@ -7219,10 +7393,10 @@
     <row r="42" spans="1:9">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D42">
         <v>2.5</v>
@@ -7246,10 +7420,10 @@
     <row r="43" spans="1:9">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D43">
         <v>1.5</v>
@@ -7272,13 +7446,13 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -7293,10 +7467,10 @@
     <row r="45" spans="1:9">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -7310,13 +7484,13 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D46">
         <v>1.254464285714286</v>
@@ -7340,10 +7514,10 @@
     <row r="47" spans="1:9">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -7358,10 +7532,10 @@
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -7385,10 +7559,10 @@
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D49">
         <v>3.243589743589744</v>
@@ -7412,10 +7586,10 @@
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D50">
         <v>1.782608695652174</v>
@@ -7439,10 +7613,10 @@
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D51">
         <v>1.63302752293578</v>
@@ -7466,10 +7640,10 @@
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D52">
         <v>1.263392857142857</v>
@@ -7493,10 +7667,10 @@
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -7511,10 +7685,10 @@
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -7538,10 +7712,10 @@
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D55">
         <v>3.171974522292994</v>
@@ -7565,10 +7739,10 @@
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -7592,10 +7766,10 @@
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D57">
         <v>1.804347826086957</v>
@@ -7619,10 +7793,10 @@
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D58">
         <v>1.660550458715596</v>
@@ -7646,10 +7820,10 @@
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D59">
         <v>20.7</v>
@@ -7673,10 +7847,10 @@
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D60">
         <v>16</v>
@@ -7690,13 +7864,13 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D61">
         <v>1.755555555555556</v>
@@ -7720,10 +7894,10 @@
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D62">
         <v>1.24</v>
@@ -7747,10 +7921,10 @@
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D63">
         <v>6.748343949044586</v>
@@ -7774,10 +7948,10 @@
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D64">
         <v>4.360063694267516</v>
@@ -7801,10 +7975,10 @@
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D65">
         <v>2.803571428571428</v>
@@ -7828,10 +8002,10 @@
     <row r="66" spans="1:9">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D66">
         <v>1.777777777777778</v>
@@ -7855,10 +8029,10 @@
     <row r="67" spans="1:9">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D67">
         <v>1.24</v>
@@ -7882,10 +8056,10 @@
     <row r="68" spans="1:9">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D68">
         <v>6.646433121019109</v>
@@ -7909,10 +8083,10 @@
     <row r="69" spans="1:9">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D69">
         <v>1.333333333333333</v>
@@ -7936,10 +8110,10 @@
     <row r="70" spans="1:9">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D70">
         <v>4.385541401273885</v>
@@ -7963,10 +8137,10 @@
     <row r="71" spans="1:9">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D71">
         <v>2.825</v>
@@ -7990,10 +8164,10 @@
     <row r="72" spans="1:9">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D72">
         <v>7.789473684210527</v>
@@ -8016,13 +8190,13 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D73">
         <v>7.875900621118013</v>
@@ -8046,10 +8220,10 @@
     <row r="74" spans="1:9">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D74">
         <v>13.62523809523809</v>
@@ -8073,10 +8247,10 @@
     <row r="75" spans="1:9">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D75">
         <v>18.50928143712575</v>
@@ -8100,10 +8274,10 @@
     <row r="76" spans="1:9">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -8127,10 +8301,10 @@
     <row r="77" spans="1:9">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D77">
         <v>7.166666666666667</v>
@@ -8154,10 +8328,10 @@
     <row r="78" spans="1:9">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D78">
         <v>12.2730303030303</v>
@@ -8181,10 +8355,10 @@
     <row r="79" spans="1:9">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D79">
         <v>5.5</v>
@@ -8208,10 +8382,10 @@
     <row r="80" spans="1:9">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D80">
         <v>8.666666666666666</v>
@@ -8235,10 +8409,10 @@
     <row r="81" spans="1:9">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D81">
         <v>8.714285714285714</v>
@@ -8262,10 +8436,10 @@
     <row r="82" spans="1:9">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D82">
         <v>7.886202531645569</v>
@@ -8289,10 +8463,10 @@
     <row r="83" spans="1:9">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D83">
         <v>12.0669696969697</v>
@@ -8316,10 +8490,10 @@
     <row r="84" spans="1:9">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D84">
         <v>13.59904191616766</v>
@@ -8343,10 +8517,10 @@
     <row r="85" spans="1:9">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D85">
         <v>18.44006024096386</v>
@@ -8370,10 +8544,10 @@
     <row r="86" spans="1:9">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -8397,10 +8571,10 @@
     <row r="87" spans="1:9">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D87">
         <v>8.166666666666666</v>
@@ -8424,10 +8598,10 @@
     <row r="88" spans="1:9">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D88">
         <v>6.857142857142857</v>
@@ -8450,13 +8624,13 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D89">
         <v>8.391304347826088</v>
@@ -8480,10 +8654,10 @@
     <row r="90" spans="1:9">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D90">
         <v>9.615384615384615</v>
@@ -8507,10 +8681,10 @@
     <row r="91" spans="1:9">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D91">
         <v>15.81818181818182</v>
@@ -8534,10 +8708,10 @@
     <row r="92" spans="1:9">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -8561,10 +8735,10 @@
     <row r="93" spans="1:9">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D93">
         <v>5.571428571428571</v>
@@ -8588,10 +8762,10 @@
     <row r="94" spans="1:9">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D94">
         <v>5.210526315789473</v>
@@ -8615,10 +8789,10 @@
     <row r="95" spans="1:9">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D95">
         <v>2.055555555555555</v>
@@ -8642,10 +8816,10 @@
     <row r="96" spans="1:9">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D96">
         <v>9.647058823529411</v>
@@ -8669,10 +8843,10 @@
     <row r="97" spans="1:9">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D97">
         <v>8.391304347826088</v>
@@ -8696,10 +8870,10 @@
     <row r="98" spans="1:9">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D98">
         <v>9.647058823529411</v>
@@ -8723,10 +8897,10 @@
     <row r="99" spans="1:9">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -8750,10 +8924,10 @@
     <row r="100" spans="1:9">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D100">
         <v>9.615384615384615</v>
@@ -8777,10 +8951,10 @@
     <row r="101" spans="1:9">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D101">
         <v>5.571428571428571</v>
@@ -8804,10 +8978,10 @@
     <row r="102" spans="1:9">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D102">
         <v>5.210526315789473</v>
@@ -8831,10 +9005,10 @@
     <row r="103" spans="1:9">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D103">
         <v>11.5</v>
@@ -8858,10 +9032,10 @@
     <row r="104" spans="1:9">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D104">
         <v>2.055555555555555</v>
@@ -8884,13 +9058,13 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -8905,10 +9079,10 @@
     <row r="106" spans="1:9">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D106">
         <v>1.25</v>
@@ -8932,10 +9106,10 @@
     <row r="107" spans="1:9">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D107">
         <v>3.781914893617021</v>
@@ -8959,10 +9133,10 @@
     <row r="108" spans="1:9">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D108">
         <v>2.857142857142857</v>
@@ -8986,10 +9160,10 @@
     <row r="109" spans="1:9">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D109">
         <v>1.69047619047619</v>
@@ -9013,10 +9187,10 @@
     <row r="110" spans="1:9">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D110">
         <v>14.33333333333333</v>
@@ -9040,10 +9214,10 @@
     <row r="111" spans="1:9">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -9067,10 +9241,10 @@
     <row r="112" spans="1:9">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D112">
         <v>1.3125</v>
@@ -9094,10 +9268,10 @@
     <row r="113" spans="1:9">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D113">
         <v>3.7</v>
@@ -9121,10 +9295,10 @@
     <row r="114" spans="1:9">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D114">
         <v>1.071428571428571</v>
@@ -9148,10 +9322,10 @@
     <row r="115" spans="1:9">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D115">
         <v>2.935064935064935</v>
@@ -9175,10 +9349,10 @@
     <row r="116" spans="1:9">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D116">
         <v>1.69047619047619</v>
@@ -9202,10 +9376,10 @@
     <row r="117" spans="1:9">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D117">
         <v>23</v>
@@ -9220,10 +9394,10 @@
     <row r="118" spans="1:9">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D118">
         <v>13.25</v>

--- a/Alimentos.xlsx
+++ b/Alimentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Carlos/Desktop/Granja/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF0B107-167D-6441-A231-6620272D21AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0672CAD-01BF-4E56-A4A4-70BAC2072224}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="18300" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alimento Gral Cerdo" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,18 @@
     <sheet name="Alimento Granja Cerdo" sheetId="3" r:id="rId3"/>
     <sheet name="Alimento Granja Huevo" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -700,16 +711,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -753,7 +773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -796,8 +816,12 @@
       <c r="N2">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <f>+F2-I2</f>
+        <v>7.7787770571708936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -841,7 +865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -885,7 +909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -929,7 +953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -973,7 +997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1061,7 +1085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1105,7 +1129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1149,7 +1173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1193,7 +1217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1237,7 +1261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,7 +1305,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1325,7 +1349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1369,7 +1393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1413,7 +1437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1457,7 +1481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1501,7 +1525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1545,7 +1569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1589,7 +1613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1633,7 +1657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1677,7 +1701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1721,7 +1745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1765,7 +1789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1809,7 +1833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1853,7 +1877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1897,7 +1921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1941,7 +1965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1985,7 +2009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -2029,7 +2053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -2073,7 +2097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,12 +2152,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2177,7 +2201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -2221,7 +2245,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -2265,7 +2289,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -2309,7 +2333,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2353,7 +2377,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -2397,7 +2421,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -2441,7 +2465,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -2485,7 +2509,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -2529,7 +2553,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -2573,7 +2597,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -2617,7 +2641,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -2661,7 +2685,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -2705,7 +2729,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -2749,7 +2773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2793,7 +2817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -2837,7 +2861,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
@@ -2872,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -2916,7 +2940,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -2960,7 +2984,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -3004,7 +3028,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -3048,7 +3072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -3092,7 +3116,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,7 +3160,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -3180,7 +3204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,14 +3257,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection sqref="A1:I118"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -3269,7 +3296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -3298,7 +3325,7 @@
         <v>1.536941586721432</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -3325,7 +3352,7 @@
         <v>1.7319611545856879</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -3352,7 +3379,7 @@
         <v>1.600941129150244</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -3379,7 +3406,7 @@
         <v>5.9625117519173561</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -3406,7 +3433,7 @@
         <v>1.3464255899653279</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -3433,7 +3460,7 @@
         <v>3.973523485382827</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -3460,7 +3487,7 @@
         <v>1.581050713849607</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
@@ -3487,7 +3514,7 @@
         <v>1.536941586721432</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>30</v>
@@ -3514,7 +3541,7 @@
         <v>1.581050713849607</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>32</v>
@@ -3541,7 +3568,7 @@
         <v>1.7319611545856879</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>33</v>
@@ -3568,7 +3595,7 @@
         <v>5.9625117519173561</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>34</v>
@@ -3595,7 +3622,7 @@
         <v>1.426831608952871</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>35</v>
@@ -3622,7 +3649,7 @@
         <v>1.600941129150244</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>40</v>
@@ -3649,7 +3676,7 @@
         <v>3.973523485382827</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>75</v>
       </c>
@@ -3678,7 +3705,7 @@
         <v>30.09568803566637</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>16</v>
@@ -3696,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>18</v>
@@ -3723,7 +3750,7 @@
         <v>3.840537009053075</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>19</v>
@@ -3750,7 +3777,7 @@
         <v>1.442913663660099</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>29</v>
@@ -3777,7 +3804,7 @@
         <v>30.09568803566637</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>33</v>
@@ -3804,7 +3831,7 @@
         <v>3.840537009053075</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>34</v>
@@ -3831,7 +3858,7 @@
         <v>1.5548894514272711</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>35</v>
@@ -3849,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>38</v>
@@ -3876,7 +3903,7 @@
         <v>113.7702362952045</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
@@ -3905,7 +3932,7 @@
         <v>22.640382780496392</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
@@ -3932,7 +3959,7 @@
         <v>3.851224840633074</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>16</v>
@@ -3959,7 +3986,7 @@
         <v>1.807199436297823</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>18</v>
@@ -3986,7 +4013,7 @@
         <v>5.8047459683930844</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -4013,7 +4040,7 @@
         <v>1.7718938577514329</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>24</v>
@@ -4040,7 +4067,7 @@
         <v>1.6350689614778211</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>29</v>
@@ -4067,7 +4094,7 @@
         <v>3.83009944173976</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
         <v>30</v>
@@ -4094,7 +4121,7 @@
         <v>1.6350689614778211</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>32</v>
@@ -4121,7 +4148,7 @@
         <v>3.9883759673760522</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>33</v>
@@ -4148,7 +4175,7 @@
         <v>5.8047459683930844</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>34</v>
@@ -4175,7 +4202,7 @@
         <v>1.7718938577514329</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>35</v>
@@ -4202,7 +4229,7 @@
         <v>2.0066335173842038</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -4231,7 +4258,7 @@
         <v>29.698484809834991</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>21</v>
@@ -4258,7 +4285,7 @@
         <v>29.698484809834991</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>23</v>
@@ -4285,7 +4312,7 @@
         <v>29.698484809834991</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>33</v>
@@ -4303,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>36</v>
@@ -4330,7 +4357,7 @@
         <v>29.698484809834991</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>39</v>
@@ -4357,7 +4384,7 @@
         <v>29.698484809834991</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>41</v>
@@ -4384,7 +4411,7 @@
         <v>29.698484809834991</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
@@ -4404,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>32</v>
@@ -4422,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
@@ -4451,7 +4478,7 @@
         <v>6.272751382759397</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
         <v>18</v>
@@ -4469,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>19</v>
@@ -4496,7 +4523,7 @@
         <v>28.451583626178682</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
         <v>20</v>
@@ -4523,7 +4550,7 @@
         <v>1.384228187751245</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>21</v>
@@ -4550,7 +4577,7 @@
         <v>2.6824318445894288</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
         <v>23</v>
@@ -4577,7 +4604,7 @@
         <v>5.9574034439013852</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
         <v>31</v>
@@ -4604,7 +4631,7 @@
         <v>6.272751382759397</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>33</v>
@@ -4622,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
         <v>34</v>
@@ -4649,7 +4676,7 @@
         <v>28.451583626178682</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
         <v>36</v>
@@ -4676,7 +4703,7 @@
         <v>1.264891696711463</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
         <v>37</v>
@@ -4703,7 +4730,7 @@
         <v>5.4667828094514874</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>39</v>
@@ -4730,7 +4757,7 @@
         <v>2.6824318445894288</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>41</v>
@@ -4757,7 +4784,7 @@
         <v>5.9574034439013852</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
         <v>43</v>
@@ -4784,7 +4811,7 @@
         <v>4.3751504422066896</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
         <v>44</v>
@@ -4802,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>80</v>
       </c>
@@ -4831,7 +4858,7 @@
         <v>8.8919790196779047</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
         <v>19</v>
@@ -4858,7 +4885,7 @@
         <v>23.461683917504679</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
         <v>20</v>
@@ -4885,7 +4912,7 @@
         <v>1.274987070542533</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>21</v>
@@ -4912,7 +4939,7 @@
         <v>1.274987070542533</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>23</v>
@@ -4939,7 +4966,7 @@
         <v>3.221993726959647</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
         <v>31</v>
@@ -4966,7 +4993,7 @@
         <v>8.8919790196779047</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
         <v>34</v>
@@ -4993,7 +5020,7 @@
         <v>23.461683917504679</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
         <v>36</v>
@@ -5020,7 +5047,7 @@
         <v>1.274987070542533</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>37</v>
@@ -5047,7 +5074,7 @@
         <v>10.05129700230629</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
         <v>39</v>
@@ -5074,7 +5101,7 @@
         <v>1.274987070542533</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
         <v>41</v>
@@ -5101,7 +5128,7 @@
         <v>3.221993726959647</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>44</v>
@@ -5128,7 +5155,7 @@
         <v>13.11389761958444</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>81</v>
       </c>
@@ -5157,7 +5184,7 @@
         <v>1.7427534079707869</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
         <v>15</v>
@@ -5184,7 +5211,7 @@
         <v>1.9049164999995001</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
         <v>16</v>
@@ -5211,7 +5238,7 @@
         <v>1.8749600192933411</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
         <v>19</v>
@@ -5238,7 +5265,7 @@
         <v>4.9497474683058327</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
         <v>22</v>
@@ -5265,7 +5292,7 @@
         <v>110.84643349328751</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
         <v>24</v>
@@ -5292,7 +5319,7 @@
         <v>1.7928988612527621</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
         <v>26</v>
@@ -5319,7 +5346,7 @@
         <v>2.9268868558020249</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>27</v>
@@ -5346,7 +5373,7 @@
         <v>3.4302575219167828</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
         <v>28</v>
@@ -5373,7 +5400,7 @@
         <v>2.70801280154532</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="1" t="s">
         <v>29</v>
@@ -5400,7 +5427,7 @@
         <v>2.1645316190175361</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
         <v>30</v>
@@ -5427,7 +5454,7 @@
         <v>1.7928988612527621</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
         <v>32</v>
@@ -5454,7 +5481,7 @@
         <v>2.0173477492535499</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
         <v>35</v>
@@ -5481,7 +5508,7 @@
         <v>1.9456751264535119</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
         <v>38</v>
@@ -5508,7 +5535,7 @@
         <v>4.9497474683058327</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
         <v>40</v>
@@ -5535,7 +5562,7 @@
         <v>110.84643349328751</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>42</v>
@@ -5562,7 +5589,7 @@
         <v>2.794552524023088</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>82</v>
       </c>
@@ -5591,7 +5618,7 @@
         <v>64.200125595533009</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
         <v>15</v>
@@ -5618,7 +5645,7 @@
         <v>10.568458151135751</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
         <v>16</v>
@@ -5645,7 +5672,7 @@
         <v>2.5706468268171552</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
         <v>17</v>
@@ -5672,7 +5699,7 @@
         <v>4.358898943540674</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
         <v>18</v>
@@ -5699,7 +5726,7 @@
         <v>109.00438543451379</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="1" t="s">
         <v>19</v>
@@ -5726,7 +5753,7 @@
         <v>82.875337932504991</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
         <v>23</v>
@@ -5753,7 +5780,7 @@
         <v>4.6680670167857077</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
         <v>24</v>
@@ -5780,7 +5807,7 @@
         <v>113.3181686797893</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
         <v>29</v>
@@ -5807,7 +5834,7 @@
         <v>43.245507431911093</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
         <v>30</v>
@@ -5834,7 +5861,7 @@
         <v>9.0756623482158894</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="1" t="s">
         <v>31</v>
@@ -5861,7 +5888,7 @@
         <v>4.358898943540674</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>32</v>
@@ -5888,7 +5915,7 @@
         <v>169.46238520686529</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
         <v>33</v>
@@ -5915,7 +5942,7 @@
         <v>99.734730578251842</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
         <v>34</v>
@@ -5942,7 +5969,7 @@
         <v>82.875337932504991</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
         <v>35</v>
@@ -5969,7 +5996,7 @@
         <v>2.5706468268171552</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>41</v>
@@ -5996,7 +6023,7 @@
         <v>4.6680670167857077</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>83</v>
       </c>
@@ -6016,7 +6043,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
         <v>18</v>
@@ -6043,7 +6070,7 @@
         <v>10.56724498943157</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
         <v>20</v>
@@ -6070,7 +6097,7 @@
         <v>2.2999955238534819</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="1" t="s">
         <v>21</v>
@@ -6097,7 +6124,7 @@
         <v>2.8192895756824279</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
         <v>23</v>
@@ -6124,7 +6151,7 @@
         <v>20.41230072544306</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
         <v>25</v>
@@ -6151,7 +6178,7 @@
         <v>22.715633383201091</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
         <v>31</v>
@@ -6178,7 +6205,7 @@
         <v>64.346717087975819</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
         <v>33</v>
@@ -6205,7 +6232,7 @@
         <v>10.56724498943157</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
         <v>36</v>
@@ -6232,7 +6259,7 @@
         <v>2.1824916670676449</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="1" t="s">
         <v>37</v>
@@ -6259,7 +6286,7 @@
         <v>5.9871657607046291</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
         <v>39</v>
@@ -6286,7 +6313,7 @@
         <v>2.8192895756824279</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="1" t="s">
         <v>41</v>
@@ -6313,7 +6340,7 @@
         <v>20.41230072544306</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
         <v>43</v>
@@ -6331,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
         <v>44</v>
@@ -6360,16 +6387,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A72"/>
     <mergeCell ref="A73:A88"/>
     <mergeCell ref="A89:A104"/>
     <mergeCell ref="A105:A118"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6379,15 +6406,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection sqref="A1:I101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -6416,7 +6446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>84</v>
       </c>
@@ -6445,7 +6475,7 @@
         <v>7.3865186429702936</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>52</v>
@@ -6472,7 +6502,7 @@
         <v>110.68500636906811</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -6499,7 +6529,7 @@
         <v>2.5385910352879688</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>56</v>
@@ -6526,7 +6556,7 @@
         <v>137.93880395437549</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>57</v>
@@ -6553,7 +6583,7 @@
         <v>61.645238134144513</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>58</v>
@@ -6580,7 +6610,7 @@
         <v>3.5512126254437528</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>59</v>
@@ -6607,7 +6637,7 @@
         <v>6.164414002968976</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>62</v>
@@ -6634,7 +6664,7 @@
         <v>3.4874775984943609</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>64</v>
@@ -6661,7 +6691,7 @@
         <v>226.64233938079619</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>66</v>
@@ -6688,7 +6718,7 @@
         <v>170.46765397761411</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>67</v>
@@ -6706,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>70</v>
@@ -6733,7 +6763,7 @@
         <v>5.7811224847746594</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
@@ -6762,7 +6792,7 @@
         <v>5.4771113579171766</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>50</v>
@@ -6780,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>52</v>
@@ -6807,7 +6837,7 @@
         <v>140.60811033735109</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>55</v>
@@ -6834,7 +6864,7 @@
         <v>64.467552764760057</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>56</v>
@@ -6861,7 +6891,7 @@
         <v>54.493746623375337</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>57</v>
@@ -6888,7 +6918,7 @@
         <v>68.822753712499974</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>58</v>
@@ -6915,7 +6945,7 @@
         <v>2.493628243780901</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>59</v>
@@ -6933,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>62</v>
@@ -6960,7 +6990,7 @@
         <v>121.73704896583079</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>63</v>
@@ -6978,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>64</v>
@@ -7005,7 +7035,7 @@
         <v>3.7606990231680522</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>65</v>
@@ -7032,7 +7062,7 @@
         <v>113.5904055261536</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>66</v>
@@ -7059,7 +7089,7 @@
         <v>218.25797913145229</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>70</v>
@@ -7086,7 +7116,7 @@
         <v>3.7529681739847631</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>86</v>
       </c>
@@ -7115,7 +7145,7 @@
         <v>6.1336556820662649</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>50</v>
@@ -7142,7 +7172,7 @@
         <v>3.6426955361697151</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>51</v>
@@ -7169,7 +7199,7 @@
         <v>1.8246004128758351</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>55</v>
@@ -7187,7 +7217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
         <v>56</v>
@@ -7214,7 +7244,7 @@
         <v>247.09728178728849</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>57</v>
@@ -7241,7 +7271,7 @@
         <v>410.67992402843362</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>58</v>
@@ -7268,7 +7298,7 @@
         <v>32.058800143902253</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>59</v>
@@ -7286,7 +7316,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>60</v>
@@ -7313,7 +7343,7 @@
         <v>474.46865017617341</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>61</v>
@@ -7340,7 +7370,7 @@
         <v>1.689927766460998</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>62</v>
@@ -7367,7 +7397,7 @@
         <v>148.2039577926754</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>64</v>
@@ -7394,7 +7424,7 @@
         <v>11.26604675668486</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>65</v>
@@ -7412,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>66</v>
@@ -7439,7 +7469,7 @@
         <v>170.77317492137709</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>69</v>
@@ -7466,7 +7496,7 @@
         <v>5.6568542494923806</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>70</v>
@@ -7493,7 +7523,7 @@
         <v>5.1302873376660196</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>71</v>
@@ -7511,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>87</v>
       </c>
@@ -7540,7 +7570,7 @@
         <v>6.2414157501448164</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>51</v>
@@ -7558,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
         <v>52</v>
@@ -7585,7 +7615,7 @@
         <v>146.96788364649399</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>55</v>
@@ -7612,7 +7642,7 @@
         <v>132.81827955750441</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
         <v>56</v>
@@ -7639,7 +7669,7 @@
         <v>393.1805140983804</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>57</v>
@@ -7666,7 +7696,7 @@
         <v>118.9014031541018</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
         <v>58</v>
@@ -7693,7 +7723,7 @@
         <v>8.4852813742385695</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
         <v>59</v>
@@ -7720,7 +7750,7 @@
         <v>257.84389888162218</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>60</v>
@@ -7747,7 +7777,7 @@
         <v>2.994439290863427</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
         <v>62</v>
@@ -7774,7 +7804,7 @@
         <v>9.1233378824664317</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
         <v>64</v>
@@ -7801,7 +7831,7 @@
         <v>6.491019437140312</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
         <v>65</v>
@@ -7828,7 +7858,7 @@
         <v>2.368778400591983</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>66</v>
@@ -7855,7 +7885,7 @@
         <v>3.8658045015810671</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>70</v>
@@ -7882,7 +7912,7 @@
         <v>4.0604861645768864</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>88</v>
       </c>
@@ -7911,7 +7941,7 @@
         <v>4.7271206630739204</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
         <v>52</v>
@@ -7938,7 +7968,7 @@
         <v>125.3807698110984</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
         <v>55</v>
@@ -7965,7 +7995,7 @@
         <v>13.26272973410828</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
         <v>56</v>
@@ -7992,7 +8022,7 @@
         <v>117.21754536406431</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
         <v>57</v>
@@ -8019,7 +8049,7 @@
         <v>8.166132149660223</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>58</v>
@@ -8046,7 +8076,7 @@
         <v>206.27915771858989</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>59</v>
@@ -8073,7 +8103,7 @@
         <v>2.994439290863427</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
         <v>62</v>
@@ -8100,7 +8130,7 @@
         <v>2.6186146828319079</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
         <v>64</v>
@@ -8127,7 +8157,7 @@
         <v>3.7490511620121452</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
         <v>65</v>
@@ -8154,7 +8184,7 @@
         <v>5.8637303257681737</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>66</v>
@@ -8181,7 +8211,7 @@
         <v>13.4350288425444</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
         <v>70</v>
@@ -8208,7 +8238,7 @@
         <v>3.1561378461758052</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>89</v>
       </c>
@@ -8237,7 +8267,7 @@
         <v>5.7701762662738743</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>49</v>
@@ -8264,7 +8294,7 @@
         <v>123.0461392362734</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
         <v>50</v>
@@ -8291,7 +8321,7 @@
         <v>170.78469110047811</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
         <v>51</v>
@@ -8318,7 +8348,7 @@
         <v>43.441257545596642</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
         <v>53</v>
@@ -8345,7 +8375,7 @@
         <v>16.71227094083865</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
         <v>54</v>
@@ -8372,7 +8402,7 @@
         <v>6.2664070361617226</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
         <v>55</v>
@@ -8399,7 +8429,7 @@
         <v>2.3682757775922458</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
         <v>56</v>
@@ -8426,7 +8456,7 @@
         <v>284.76358615525271</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
         <v>57</v>
@@ -8453,7 +8483,7 @@
         <v>230.6519744839253</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>60</v>
@@ -8471,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
         <v>61</v>
@@ -8498,7 +8528,7 @@
         <v>1.8708286933869711</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="1" t="s">
         <v>62</v>
@@ -8525,7 +8555,7 @@
         <v>94.452810087012949</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
         <v>64</v>
@@ -8543,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
         <v>67</v>
@@ -8561,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
         <v>68</v>
@@ -8588,7 +8618,7 @@
         <v>84.047785830623184</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
         <v>69</v>
@@ -8606,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
         <v>70</v>
@@ -8633,7 +8663,7 @@
         <v>3.8369801240580421</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>71</v>
@@ -8660,7 +8690,7 @@
         <v>74.897151703741926</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>90</v>
       </c>
@@ -8689,7 +8719,7 @@
         <v>5.9046725125374211</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
         <v>52</v>
@@ -8716,7 +8746,7 @@
         <v>1.897366596101028</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
         <v>54</v>
@@ -8734,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
         <v>55</v>
@@ -8761,7 +8791,7 @@
         <v>109.3943034913776</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
         <v>56</v>
@@ -8788,7 +8818,7 @@
         <v>197.5394194134989</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="1" t="s">
         <v>57</v>
@@ -8815,7 +8845,7 @@
         <v>112.62737860436209</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
         <v>58</v>
@@ -8842,7 +8872,7 @@
         <v>3.6055512754639891</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
         <v>60</v>
@@ -8869,7 +8899,7 @@
         <v>181.49335931015281</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
         <v>62</v>
@@ -8896,7 +8926,7 @@
         <v>2.8084811086361499</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
         <v>64</v>
@@ -8923,7 +8953,7 @@
         <v>1.7728105208558369</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="1" t="s">
         <v>65</v>
@@ -8950,7 +8980,7 @@
         <v>0.81649658092772615</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>66</v>
@@ -8977,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
         <v>70</v>

--- a/Alimentos.xlsx
+++ b/Alimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0672CAD-01BF-4E56-A4A4-70BAC2072224}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64A667D-32DD-4564-9902-3C087F648005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alimento Gral Cerdo" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="91">
   <si>
     <t>MinCantidad</t>
   </si>
@@ -313,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +325,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -365,13 +371,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3257,8 +3266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection sqref="A1:I118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I118" sqref="A1:I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3297,7 +3306,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3326,7 +3335,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3353,7 +3364,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3380,7 +3393,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -3407,7 +3422,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -3434,7 +3451,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3461,7 +3480,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -3488,7 +3509,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3515,7 +3538,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -3542,7 +3567,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
@@ -3569,7 +3596,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
@@ -3596,7 +3625,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
@@ -3623,7 +3654,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
@@ -3650,7 +3683,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
@@ -3677,7 +3712,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3706,7 +3741,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3724,7 +3761,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
@@ -3751,7 +3790,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
@@ -3778,7 +3819,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
@@ -3805,7 +3848,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
@@ -3832,7 +3877,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
@@ -3859,7 +3906,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
@@ -3877,7 +3926,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
@@ -3904,7 +3955,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3933,7 +3984,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
@@ -3960,7 +4013,9 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
@@ -3987,7 +4042,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
@@ -4014,7 +4071,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
@@ -4041,7 +4100,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
@@ -4068,7 +4129,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
@@ -4095,7 +4158,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
@@ -4122,7 +4187,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
@@ -4149,7 +4216,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
@@ -4176,7 +4245,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
@@ -4203,7 +4274,9 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
@@ -4230,7 +4303,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -4259,7 +4332,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
@@ -4286,7 +4361,9 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>23</v>
       </c>
@@ -4313,7 +4390,9 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>33</v>
       </c>
@@ -4331,7 +4410,9 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>36</v>
       </c>
@@ -4358,7 +4439,9 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>39</v>
       </c>
@@ -4385,7 +4468,9 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
@@ -4412,7 +4497,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -4432,7 +4517,9 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>32</v>
       </c>
@@ -4450,7 +4537,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -4479,7 +4566,9 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>18</v>
       </c>
@@ -4497,7 +4586,9 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>19</v>
       </c>
@@ -4524,7 +4615,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>20</v>
       </c>
@@ -4551,7 +4644,9 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>21</v>
       </c>
@@ -4578,7 +4673,9 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>23</v>
       </c>
@@ -4605,7 +4702,9 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>31</v>
       </c>
@@ -4632,7 +4731,9 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>33</v>
       </c>
@@ -4650,7 +4751,9 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B54" s="1" t="s">
         <v>34</v>
       </c>
@@ -4677,7 +4780,9 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>36</v>
       </c>
@@ -4704,7 +4809,9 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>37</v>
       </c>
@@ -4731,7 +4838,9 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>39</v>
       </c>
@@ -4758,7 +4867,9 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>41</v>
       </c>
@@ -4785,7 +4896,9 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B59" s="1" t="s">
         <v>43</v>
       </c>
@@ -4812,7 +4925,9 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B60" s="1" t="s">
         <v>44</v>
       </c>
@@ -4830,7 +4945,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -4859,7 +4974,9 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>19</v>
       </c>
@@ -4886,7 +5003,9 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>20</v>
       </c>
@@ -4913,7 +5032,9 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B64" s="1" t="s">
         <v>21</v>
       </c>
@@ -4940,7 +5061,9 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B65" s="1" t="s">
         <v>23</v>
       </c>
@@ -4967,7 +5090,9 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B66" s="1" t="s">
         <v>31</v>
       </c>
@@ -4994,7 +5119,9 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B67" s="1" t="s">
         <v>34</v>
       </c>
@@ -5021,7 +5148,9 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B68" s="1" t="s">
         <v>36</v>
       </c>
@@ -5048,7 +5177,9 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B69" s="1" t="s">
         <v>37</v>
       </c>
@@ -5075,7 +5206,9 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B70" s="1" t="s">
         <v>39</v>
       </c>
@@ -5102,7 +5235,9 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B71" s="1" t="s">
         <v>41</v>
       </c>
@@ -5129,7 +5264,9 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B72" s="1" t="s">
         <v>44</v>
       </c>
@@ -5156,7 +5293,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -5185,7 +5322,9 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
@@ -5212,7 +5351,9 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B75" s="1" t="s">
         <v>16</v>
       </c>
@@ -5239,7 +5380,9 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B76" s="1" t="s">
         <v>19</v>
       </c>
@@ -5266,7 +5409,9 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B77" s="1" t="s">
         <v>22</v>
       </c>
@@ -5293,7 +5438,9 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B78" s="1" t="s">
         <v>24</v>
       </c>
@@ -5320,7 +5467,9 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B79" s="1" t="s">
         <v>26</v>
       </c>
@@ -5347,7 +5496,9 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B80" s="1" t="s">
         <v>27</v>
       </c>
@@ -5374,7 +5525,9 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5401,7 +5554,9 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B82" s="1" t="s">
         <v>29</v>
       </c>
@@ -5428,7 +5583,9 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>30</v>
       </c>
@@ -5455,7 +5612,9 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B84" s="1" t="s">
         <v>32</v>
       </c>
@@ -5482,7 +5641,9 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B85" s="1" t="s">
         <v>35</v>
       </c>
@@ -5509,7 +5670,9 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B86" s="1" t="s">
         <v>38</v>
       </c>
@@ -5536,7 +5699,9 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B87" s="1" t="s">
         <v>40</v>
       </c>
@@ -5563,7 +5728,9 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B88" s="1" t="s">
         <v>42</v>
       </c>
@@ -5590,7 +5757,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -5619,7 +5786,9 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B90" s="1" t="s">
         <v>15</v>
       </c>
@@ -5646,7 +5815,9 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>16</v>
       </c>
@@ -5673,7 +5844,9 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>17</v>
       </c>
@@ -5700,7 +5873,9 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>18</v>
       </c>
@@ -5727,7 +5902,9 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B94" s="1" t="s">
         <v>19</v>
       </c>
@@ -5754,7 +5931,9 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B95" s="1" t="s">
         <v>23</v>
       </c>
@@ -5781,7 +5960,9 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B96" s="1" t="s">
         <v>24</v>
       </c>
@@ -5808,7 +5989,9 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B97" s="1" t="s">
         <v>29</v>
       </c>
@@ -5835,7 +6018,9 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B98" s="1" t="s">
         <v>30</v>
       </c>
@@ -5862,7 +6047,9 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
+      <c r="A99" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B99" s="1" t="s">
         <v>31</v>
       </c>
@@ -5889,7 +6076,9 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
+      <c r="A100" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B100" s="1" t="s">
         <v>32</v>
       </c>
@@ -5916,7 +6105,9 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
+      <c r="A101" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B101" s="1" t="s">
         <v>33</v>
       </c>
@@ -5943,7 +6134,9 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
+      <c r="A102" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B102" s="1" t="s">
         <v>34</v>
       </c>
@@ -5970,7 +6163,9 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
+      <c r="A103" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>35</v>
       </c>
@@ -5997,7 +6192,9 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
+      <c r="A104" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B104" s="1" t="s">
         <v>41</v>
       </c>
@@ -6024,7 +6221,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -6044,7 +6241,9 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
+      <c r="A106" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B106" s="1" t="s">
         <v>18</v>
       </c>
@@ -6071,7 +6270,9 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
+      <c r="A107" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B107" s="1" t="s">
         <v>20</v>
       </c>
@@ -6098,7 +6299,9 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
+      <c r="A108" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B108" s="1" t="s">
         <v>21</v>
       </c>
@@ -6125,7 +6328,9 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
+      <c r="A109" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B109" s="1" t="s">
         <v>23</v>
       </c>
@@ -6152,7 +6357,9 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
+      <c r="A110" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B110" s="1" t="s">
         <v>25</v>
       </c>
@@ -6179,7 +6386,9 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
+      <c r="A111" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B111" s="1" t="s">
         <v>31</v>
       </c>
@@ -6206,7 +6415,9 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
+      <c r="A112" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B112" s="1" t="s">
         <v>33</v>
       </c>
@@ -6233,7 +6444,9 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
+      <c r="A113" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B113" s="1" t="s">
         <v>36</v>
       </c>
@@ -6260,7 +6473,9 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
+      <c r="A114" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B114" s="1" t="s">
         <v>37</v>
       </c>
@@ -6287,7 +6502,9 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
+      <c r="A115" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B115" s="1" t="s">
         <v>39</v>
       </c>
@@ -6314,7 +6531,9 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
+      <c r="A116" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B116" s="1" t="s">
         <v>41</v>
       </c>
@@ -6341,7 +6560,9 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
+      <c r="A117" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B117" s="1" t="s">
         <v>43</v>
       </c>
@@ -6359,7 +6580,9 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
+      <c r="A118" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B118" s="1" t="s">
         <v>44</v>
       </c>
@@ -6386,18 +6609,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A60"/>
-    <mergeCell ref="A61:A72"/>
-    <mergeCell ref="A73:A88"/>
-    <mergeCell ref="A89:A104"/>
-    <mergeCell ref="A105:A118"/>
-  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6406,8 +6618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection sqref="A1:I101"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
